--- a/processed_data/daily_inventory_data.xlsx
+++ b/processed_data/daily_inventory_data.xlsx
@@ -486,30 +486,30 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>玫瑰色</t>
+          <t>黑色</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>379</v>
+        <v>352</v>
       </c>
       <c r="D2" t="n">
-        <v>379</v>
+        <v>352</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Clevertronic, Nest Green, smrtek, EC Epinal, Loop Mobile, PMO, Wave Phones, Online-Phones 24, Tech Limited, LTDC SP. Z O.O., Cellular Tech, Bafobu</t>
+          <t>Wave Phones, ChancenBörse, Global Phones, ApexY, Tech Limited, TPC Mobile, Clevertronic, Bafobu, NAMANPHONE SL, 3Ciel, UpCell, Nest Green, Alloccaz, Online-Phones 24, Re-Cell Technology Solutions, asgoodasnew electronics, LTDC SP. Z O.O., NomoPhone</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Clevertronic, Nest Green, smrtek, EC Epinal, Loop Mobile, PMO, Wave Phones, Online-Phones 24, Tech Limited, LTDC SP. Z O.O., Cellular Tech, Bafobu</t>
+          <t>Wave Phones, ChancenBörse, Global Phones, ApexY, Tech Limited, TPC Mobile, Clevertronic, Bafobu, NAMANPHONE SL, 3Ciel, UpCell, Nest Green, Alloccaz, Online-Phones 24, Re-Cell Technology Solutions, asgoodasnew electronics, LTDC SP. Z O.O., NomoPhone</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1030.51875</v>
+        <v>994.0306153846153</v>
       </c>
       <c r="H2" t="n">
-        <v>1030.51875</v>
+        <v>994.0306153846153</v>
       </c>
     </row>
     <row r="3">
@@ -518,30 +518,30 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>黑色</t>
+          <t>白色</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>352</v>
+        <v>496</v>
       </c>
       <c r="D3" t="n">
-        <v>352</v>
+        <v>496</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Clevertronic, ApexY, Nest Green, UpCell, Global Phones, 3Ciel, NAMANPHONE SL, Re-Cell Technology Solutions, Wave Phones, NomoPhone, asgoodasnew electronics, ChancenBörse, Online-Phones 24, Tech Limited, LTDC SP. Z O.O., Alloccaz, TPC Mobile, Bafobu</t>
+          <t>PreOwned, Wave Phones, ChancenBörse, Tech Limited, Global Phones, Ironza, Clevertronic, Bafobu, UpCell, Cellular Tech, ApexY, Online-Phones 24, LTDC SP. Z O.O., smrtek</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Clevertronic, ApexY, Nest Green, UpCell, Global Phones, 3Ciel, NAMANPHONE SL, Re-Cell Technology Solutions, Wave Phones, NomoPhone, asgoodasnew electronics, ChancenBörse, Online-Phones 24, Tech Limited, LTDC SP. Z O.O., Alloccaz, TPC Mobile, Bafobu</t>
+          <t>PreOwned, Wave Phones, ChancenBörse, Tech Limited, Global Phones, Ironza, Clevertronic, Bafobu, UpCell, Cellular Tech, ApexY, Online-Phones 24, LTDC SP. Z O.O., smrtek</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>994.0306153846153</v>
+        <v>988.0396923076922</v>
       </c>
       <c r="H3" t="n">
-        <v>994.0306153846153</v>
+        <v>988.0396923076922</v>
       </c>
     </row>
     <row r="4">
@@ -550,30 +550,30 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>白色</t>
+          <t>玫瑰色</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>496</v>
+        <v>379</v>
       </c>
       <c r="D4" t="n">
-        <v>496</v>
+        <v>379</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Clevertronic, ApexY, smrtek, UpCell, Global Phones, Wave Phones, ChancenBörse, Online-Phones 24, Tech Limited, LTDC SP. Z O.O., Cellular Tech, PreOwned, Bafobu, Ironza</t>
+          <t>Loop Mobile, Tech Limited, Wave Phones, Clevertronic, Bafobu, EC Epinal, LTDC SP. Z O.O., Nest Green, Cellular Tech, Online-Phones 24, PMO, smrtek</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Clevertronic, ApexY, smrtek, UpCell, Global Phones, Wave Phones, ChancenBörse, Online-Phones 24, Tech Limited, LTDC SP. Z O.O., Cellular Tech, PreOwned, Bafobu, Ironza</t>
+          <t>Loop Mobile, Tech Limited, Wave Phones, Clevertronic, Bafobu, EC Epinal, LTDC SP. Z O.O., Nest Green, Cellular Tech, Online-Phones 24, PMO, smrtek</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>988.0396923076922</v>
+        <v>1030.51875</v>
       </c>
       <c r="H4" t="n">
-        <v>988.0396923076922</v>
+        <v>1030.51875</v>
       </c>
     </row>
     <row r="5">
@@ -582,30 +582,30 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>蓝绿色</t>
+          <t>群青蓝</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>298</v>
+        <v>409</v>
       </c>
       <c r="D5" t="n">
-        <v>298</v>
+        <v>409</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Clevertronic, MOBILE TECH DISTRIB, Nest Green, Phone, Wave Phones, NomoPhone, Elytelecom, Online-Phones 24, LTDC SP. Z O.O., Cellular Tech, TPC Mobile, Bafobu</t>
+          <t>Wave Phones, Tech Limited, Clevertronic, Bafobu, PMO, Zwapa Mobile, Nest Green, UpCell, Cellular Tech, Alloccaz, Online-Phones 24, Elytelecom, Re-Cell Technology Solutions, LTDC SP. Z O.O., NomoPhone</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Clevertronic, MOBILE TECH DISTRIB, Nest Green, Phone, Wave Phones, NomoPhone, Elytelecom, Online-Phones 24, LTDC SP. Z O.O., Cellular Tech, TPC Mobile, Bafobu</t>
+          <t>Wave Phones, Tech Limited, Clevertronic, Bafobu, PMO, Zwapa Mobile, Nest Green, UpCell, Cellular Tech, Alloccaz, Online-Phones 24, Elytelecom, Re-Cell Technology Solutions, LTDC SP. Z O.O., NomoPhone</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1034.343035714286</v>
+        <v>993.4729687500001</v>
       </c>
       <c r="H5" t="n">
-        <v>1034.343035714286</v>
+        <v>993.4729687500001</v>
       </c>
     </row>
     <row r="6">
@@ -614,30 +614,30 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>群青蓝</t>
+          <t>蓝绿色</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>409</v>
+        <v>298</v>
       </c>
       <c r="D6" t="n">
-        <v>409</v>
+        <v>298</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Clevertronic, Nest Green, UpCell, Zwapa Mobile, PMO, Re-Cell Technology Solutions, Wave Phones, NomoPhone, Elytelecom, Online-Phones 24, Tech Limited, LTDC SP. Z O.O., Alloccaz, Cellular Tech, Bafobu</t>
+          <t>Wave Phones, Phone, TPC Mobile, Clevertronic, Bafobu, MOBILE TECH DISTRIB, Elytelecom, Nest Green, Cellular Tech, Online-Phones 24, LTDC SP. Z O.O., NomoPhone</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Clevertronic, Nest Green, UpCell, Zwapa Mobile, PMO, Re-Cell Technology Solutions, Wave Phones, NomoPhone, Elytelecom, Online-Phones 24, Tech Limited, LTDC SP. Z O.O., Alloccaz, Cellular Tech, Bafobu</t>
+          <t>Wave Phones, Phone, TPC Mobile, Clevertronic, Bafobu, MOBILE TECH DISTRIB, Elytelecom, Nest Green, Cellular Tech, Online-Phones 24, LTDC SP. Z O.O., NomoPhone</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>993.4729687500001</v>
+        <v>1034.343035714286</v>
       </c>
       <c r="H6" t="n">
-        <v>993.4729687500001</v>
+        <v>1034.343035714286</v>
       </c>
     </row>
     <row r="7">
@@ -646,30 +646,30 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>玫瑰色</t>
+          <t>黑色</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>277</v>
+        <v>460</v>
       </c>
       <c r="D7" t="n">
-        <v>277</v>
+        <v>457</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Clevertronic, Nest Green, EC Epinal, Loop Mobile, PMO, Re-Cell Technology Solutions, Wave Phones, Online-Phones 24, Tech Limited, LTDC SP. Z O.O., Cellular Tech, Bafobu</t>
+          <t>Wave Phones, Tech Limited, TPC Mobile, Clevertronic, Bafobu, NAMANPHONE SL, Alloccaz, 3Ciel, UpCell, Nest Green, ApexY, Online-Phones 24, CarreMobile, Re-Cell Technology Solutions, LTDC SP. Z O.O., NomoPhone</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Clevertronic, Nest Green, EC Epinal, Loop Mobile, PMO, Re-Cell Technology Solutions, Wave Phones, Online-Phones 24, Tech Limited, LTDC SP. Z O.O., Cellular Tech, Bafobu</t>
+          <t>Wave Phones, Tech Limited, TPC Mobile, Clevertronic, Bafobu, NAMANPHONE SL, Alloccaz, 3Ciel, UpCell, Nest Green, ApexY, Online-Phones 24, CarreMobile, Re-Cell Technology Solutions, LTDC SP. Z O.O., NomoPhone</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1028.15275862069</v>
+        <v>1013.5095</v>
       </c>
       <c r="H7" t="n">
-        <v>1028.15275862069</v>
+        <v>1013.5095</v>
       </c>
     </row>
     <row r="8">
@@ -678,30 +678,30 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>黑色</t>
+          <t>白色</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>460</v>
+        <v>651</v>
       </c>
       <c r="D8" t="n">
-        <v>457</v>
+        <v>650</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Clevertronic, ApexY, Nest Green, UpCell, 3Ciel, NAMANPHONE SL, Re-Cell Technology Solutions, Wave Phones, NomoPhone, CarreMobile, Online-Phones 24, Tech Limited, LTDC SP. Z O.O., Alloccaz, TPC Mobile, Bafobu</t>
+          <t>Wave Phones, ChancenBörse, Tech Limited, Global Phones, Ironza, Clevertronic, Bafobu, UpCell, Cellular Tech, ApexY, Online-Phones 24, LTDC SP. Z O.O., smrtek</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Clevertronic, ApexY, Nest Green, UpCell, 3Ciel, NAMANPHONE SL, Re-Cell Technology Solutions, Wave Phones, NomoPhone, CarreMobile, Online-Phones 24, Tech Limited, LTDC SP. Z O.O., Alloccaz, TPC Mobile, Bafobu</t>
+          <t>Wave Phones, ChancenBörse, Tech Limited, Global Phones, Ironza, Clevertronic, Bafobu, UpCell, Cellular Tech, ApexY, Online-Phones 24, LTDC SP. Z O.O., smrtek</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1013.5095</v>
+        <v>994.8182258064514</v>
       </c>
       <c r="H8" t="n">
-        <v>1013.5095</v>
+        <v>994.7859677419353</v>
       </c>
     </row>
     <row r="9">
@@ -710,30 +710,30 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>白色</t>
+          <t>玫瑰色</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>651</v>
+        <v>277</v>
       </c>
       <c r="D9" t="n">
-        <v>650</v>
+        <v>277</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Clevertronic, ApexY, smrtek, UpCell, Global Phones, Wave Phones, ChancenBörse, Online-Phones 24, Tech Limited, LTDC SP. Z O.O., Cellular Tech, Bafobu, Ironza</t>
+          <t>Loop Mobile, Wave Phones, Tech Limited, Clevertronic, Bafobu, EC Epinal, PMO, Re-Cell Technology Solutions, Nest Green, Cellular Tech, Online-Phones 24, LTDC SP. Z O.O.</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Clevertronic, ApexY, smrtek, UpCell, Global Phones, Wave Phones, ChancenBörse, Online-Phones 24, Tech Limited, LTDC SP. Z O.O., Cellular Tech, Bafobu, Ironza</t>
+          <t>Loop Mobile, Wave Phones, Tech Limited, Clevertronic, Bafobu, EC Epinal, PMO, Re-Cell Technology Solutions, Nest Green, Cellular Tech, Online-Phones 24, LTDC SP. Z O.O.</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>994.8182258064514</v>
+        <v>1028.15275862069</v>
       </c>
       <c r="H9" t="n">
-        <v>994.7859677419353</v>
+        <v>1028.15275862069</v>
       </c>
     </row>
     <row r="10">
@@ -742,30 +742,30 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>蓝绿色</t>
+          <t>群青蓝</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="D10" t="n">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Clevertronic, MOBILE TECH DISTRIB, Nest Green, PreOwned, Phone, Re-Cell Technology Solutions, Wave Phones, NomoPhone, Elytelecom, CarreMobile, Online-Phones 24, LTDC SP. Z O.O., Cellular Tech, TPC Mobile, Bafobu</t>
+          <t>Wave Phones, Tech Limited, Clevertronic, Bafobu, PMO, Elytelecom, Nest Green, UpCell, Cellular Tech, Alloccaz, Online-Phones 24, LTDC SP. Z O.O., NomoPhone</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Clevertronic, MOBILE TECH DISTRIB, Nest Green, PreOwned, Phone, Re-Cell Technology Solutions, Wave Phones, NomoPhone, Elytelecom, CarreMobile, Online-Phones 24, LTDC SP. Z O.O., Cellular Tech, TPC Mobile, Bafobu</t>
+          <t>Wave Phones, Tech Limited, Clevertronic, Bafobu, PMO, Elytelecom, Nest Green, UpCell, Cellular Tech, Alloccaz, Online-Phones 24, LTDC SP. Z O.O., NomoPhone</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1041.205849056604</v>
+        <v>1021.920192307692</v>
       </c>
       <c r="H10" t="n">
-        <v>1041.205849056604</v>
+        <v>1022.804807692308</v>
       </c>
     </row>
     <row r="11">
@@ -774,30 +774,30 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>群青蓝</t>
+          <t>蓝绿色</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="D11" t="n">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Clevertronic, Nest Green, UpCell, PMO, Wave Phones, NomoPhone, Elytelecom, Online-Phones 24, Tech Limited, LTDC SP. Z O.O., Alloccaz, Cellular Tech, Bafobu</t>
+          <t>PreOwned, Wave Phones, Phone, TPC Mobile, Clevertronic, Bafobu, MOBILE TECH DISTRIB, Elytelecom, Re-Cell Technology Solutions, Nest Green, Cellular Tech, Online-Phones 24, CarreMobile, LTDC SP. Z O.O., NomoPhone</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Clevertronic, Nest Green, UpCell, PMO, Wave Phones, NomoPhone, Elytelecom, Online-Phones 24, Tech Limited, LTDC SP. Z O.O., Alloccaz, Cellular Tech, Bafobu</t>
+          <t>PreOwned, Wave Phones, Phone, TPC Mobile, Clevertronic, Bafobu, MOBILE TECH DISTRIB, Elytelecom, Re-Cell Technology Solutions, Nest Green, Cellular Tech, Online-Phones 24, CarreMobile, LTDC SP. Z O.O., NomoPhone</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1021.920192307692</v>
+        <v>1041.205849056604</v>
       </c>
       <c r="H11" t="n">
-        <v>1022.804807692308</v>
+        <v>1041.205849056604</v>
       </c>
     </row>
     <row r="12">
@@ -806,30 +806,30 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>玫瑰色</t>
+          <t>黑色</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>388</v>
+        <v>665</v>
       </c>
       <c r="D12" t="n">
-        <v>396</v>
+        <v>654</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Clevertronic, J.TECH LTD, Nest Green, EC Epinal, Loop Mobile, PMO, Wave Phones, Cellular Tech, Stellaris, Online-Phones 24, Tech Limited, LTDC SP. Z O.O., CellShark, Bafobu</t>
+          <t>Wave Phones, Tech Limited, nuLAB Srl, TPC Mobile, Clevertronic, U&amp;I, Bafobu, smrtek, NAMANPHONE SL, UpCell, Stellaris, Alloccaz, Nest Green, ApexY, Online-Phones 24, LTDC SP. Z O.O., CellShark, Nomo Phone</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Clevertronic, Nest Green, Loop Mobile, PMO, Wave Phones, Cellular Tech, Stellaris, Online-Phones 24, Tech Limited, LTDC SP. Z O.O., CellShark, Bafobu</t>
+          <t>Wave Phones, Tech Limited, nuLAB Srl, TPC Mobile, Clevertronic, U&amp;I, Bafobu, smrtek, NAMANPHONE SL, UpCell, Stellaris, Alloccaz, Nest Green, ApexY, Online-Phones 24, LTDC SP. Z O.O., CellShark, Nomo Phone</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1016.706515151515</v>
+        <v>972.9092857142856</v>
       </c>
       <c r="H12" t="n">
-        <v>1017.676212121212</v>
+        <v>972.4915714285714</v>
       </c>
     </row>
     <row r="13">
@@ -838,30 +838,30 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>黑色</t>
+          <t>白色</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>665</v>
+        <v>708</v>
       </c>
       <c r="D13" t="n">
-        <v>654</v>
+        <v>627</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Clevertronic, nuLAB Srl, ApexY, Nest Green, smrtek, UpCell, NAMANPHONE SL, Nomo Phone, Wave Phones, U&amp;I, Stellaris, Online-Phones 24, Tech Limited, LTDC SP. Z O.O., Alloccaz, CellShark, TPC Mobile, Bafobu</t>
+          <t>PreOwned, Wave Phones, ChancenBörse, Tech Limited, nuLAB Srl, J.TECH LTD, Ironza, Bafobu, U&amp;I, Clevertronic, UpCell, Cellular Tech, ApexY, Online-Phones 24, LTDC SP. Z O.O., smrtek</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Clevertronic, nuLAB Srl, ApexY, Nest Green, smrtek, UpCell, NAMANPHONE SL, Nomo Phone, Wave Phones, U&amp;I, Stellaris, Online-Phones 24, Tech Limited, LTDC SP. Z O.O., Alloccaz, CellShark, TPC Mobile, Bafobu</t>
+          <t>PreOwned, Wave Phones, ChancenBörse, Tech Limited, nuLAB Srl, J.TECH LTD, Ironza, Bafobu, U&amp;I, Clevertronic, Stellaris, UpCell, Cellular Tech, ApexY, Online-Phones 24, LTDC SP. Z O.O., smrtek</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>972.9092857142856</v>
+        <v>969.5412121212121</v>
       </c>
       <c r="H13" t="n">
-        <v>972.4915714285714</v>
+        <v>969.6224242424241</v>
       </c>
     </row>
     <row r="14">
@@ -870,30 +870,30 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>白色</t>
+          <t>玫瑰色</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>708</v>
+        <v>388</v>
       </c>
       <c r="D14" t="n">
-        <v>627</v>
+        <v>396</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>J.TECH LTD, nuLAB Srl, ApexY, Clevertronic, smrtek, UpCell, Wave Phones, U&amp;I, ChancenBörse, Online-Phones 24, Tech Limited, LTDC SP. Z O.O., Cellular Tech, PreOwned, Bafobu, Ironza</t>
+          <t>Loop Mobile, Wave Phones, Tech Limited, Clevertronic, Bafobu, EC Epinal, Stellaris, CellShark, Nest Green, Cellular Tech, J.TECH LTD, LTDC SP. Z O.O., PMO, Online-Phones 24</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>J.TECH LTD, nuLAB Srl, ApexY, Clevertronic, smrtek, UpCell, Wave Phones, U&amp;I, ChancenBörse, Stellaris, Online-Phones 24, Tech Limited, LTDC SP. Z O.O., Cellular Tech, PreOwned, Bafobu, Ironza</t>
+          <t>Loop Mobile, Wave Phones, Tech Limited, Clevertronic, Bafobu, Stellaris, CellShark, Nest Green, Cellular Tech, LTDC SP. Z O.O., PMO, Online-Phones 24</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>969.5412121212121</v>
+        <v>1016.706515151515</v>
       </c>
       <c r="H14" t="n">
-        <v>969.6224242424241</v>
+        <v>1017.676212121212</v>
       </c>
     </row>
     <row r="15">
@@ -902,30 +902,30 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>蓝绿色</t>
+          <t>群青蓝</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>306</v>
+        <v>346</v>
       </c>
       <c r="D15" t="n">
-        <v>317</v>
+        <v>352</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Clevertronic, J.TECH LTD, ApexY, TPC Mobile, Nest Green, PreOwned, nuLAB Srl, Nomo Phone, Wave Phones, Elytelecom, Online-Phones 24, LTDC SP. Z O.O., Cellular Tech, CellShark, Bafobu</t>
+          <t>U&amp;I, J.TECH LTD, Nomo Phone, nuLAB Srl, UpCell, Bafobu, PMO, PreOwned, Wave Phones, Tech Limited, Nest Green, Cellular Tech, Alloccaz, LTDC SP. Z O.O., CellShark, Clevertronic, Simpatico Tech, Elytelecom, Online-Phones 24</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Clevertronic, J.TECH LTD, ApexY, TPC Mobile, Nest Green, PreOwned, nuLAB Srl, Wave Phones, Elytelecom, Stellaris, Online-Phones 24, LTDC SP. Z O.O., Cellular Tech, CellShark, Bafobu</t>
+          <t>U&amp;I, Stellaris, Nomo Phone, nuLAB Srl, UpCell, Bafobu, PMO, PreOwned, Wave Phones, Tech Limited, Nest Green, Cellular Tech, Alloccaz, LTDC SP. Z O.O., CellShark, Clevertronic, Simpatico Tech, Elytelecom, Online-Phones 24</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>994.7701724137931</v>
+        <v>985.2943548387098</v>
       </c>
       <c r="H15" t="n">
-        <v>994.4874137931034</v>
+        <v>984.380806451613</v>
       </c>
     </row>
     <row r="16">
@@ -934,30 +934,30 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>群青蓝</t>
+          <t>蓝绿色</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>346</v>
+        <v>306</v>
       </c>
       <c r="D16" t="n">
-        <v>352</v>
+        <v>317</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Nest Green, UpCell, Nomo Phone, U&amp;I, Tech Limited, CellShark, Cellular Tech, PMO, Alloccaz, nuLAB Srl, Clevertronic, PreOwned, J.TECH LTD, Wave Phones, Elytelecom, Simpatico Tech, Online-Phones 24, LTDC SP. Z O.O., Bafobu</t>
+          <t>PreOwned, Wave Phones, nuLAB Srl, TPC Mobile, J.TECH LTD, Clevertronic, Bafobu, Elytelecom, Nest Green, Cellular Tech, ApexY, Online-Phones 24, LTDC SP. Z O.O., CellShark, Nomo Phone</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Nest Green, UpCell, Nomo Phone, U&amp;I, Tech Limited, CellShark, Cellular Tech, PMO, Stellaris, Alloccaz, nuLAB Srl, Clevertronic, PreOwned, Wave Phones, Elytelecom, Simpatico Tech, Online-Phones 24, LTDC SP. Z O.O., Bafobu</t>
+          <t>PreOwned, Wave Phones, nuLAB Srl, TPC Mobile, J.TECH LTD, Clevertronic, Bafobu, Stellaris, Elytelecom, Nest Green, Cellular Tech, ApexY, Online-Phones 24, LTDC SP. Z O.O., CellShark</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>985.2943548387098</v>
+        <v>994.7701724137931</v>
       </c>
       <c r="H16" t="n">
-        <v>984.380806451613</v>
+        <v>994.4874137931034</v>
       </c>
     </row>
     <row r="17">
@@ -966,30 +966,30 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>玫瑰色</t>
+          <t>黑色</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>250</v>
+        <v>620</v>
       </c>
       <c r="D17" t="n">
-        <v>400</v>
+        <v>612</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>nuLAB Srl, Clevertronic, Nest Green, Loop Mobile, PMO, 3Ciel, Wave Phones, Cellular Tech, Stellaris, Online-Phones 24, Tech Limited, LTDC SP. Z O.O., Alloccaz, CellShark, Bafobu</t>
+          <t>U&amp;I, MAGICH COMMERCE S.R.L.S., Stellaris, 3Ciel, ApexY, Nomo Phone, nuLAB Srl, UpCell, Bafobu, PMO, smrtek, Wave Phones, Tech Limited, Nest Green, Alloccaz, LTDC SP. Z O.O., CellShark, ChancenBörse, Clevertronic, NAMANPHONE SL, Online-Phones 24</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>nuLAB Srl, Clevertronic, Nest Green, Loop Mobile, PMO, 3Ciel, Wave Phones, Cellular Tech, Stellaris, Online-Phones 24, Tech Limited, LTDC SP. Z O.O., Alloccaz, CellShark, Bafobu</t>
+          <t>U&amp;I, Stellaris, 3Ciel, ApexY, Nomo Phone, nuLAB Srl, UpCell, Bafobu, PMO, smrtek, Wave Phones, Tech Limited, Nest Green, Alloccaz, LTDC SP. Z O.O., CellShark, ChancenBörse, Clevertronic, NAMANPHONE SL, Online-Phones 24</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1008.152608695652</v>
+        <v>972.5818918918917</v>
       </c>
       <c r="H17" t="n">
-        <v>1008.747971014493</v>
+        <v>974.5245945945945</v>
       </c>
     </row>
     <row r="18">
@@ -998,30 +998,30 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>黑色</t>
+          <t>白色</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>620</v>
+        <v>571</v>
       </c>
       <c r="D18" t="n">
-        <v>612</v>
+        <v>760</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Nest Green, UpCell, Nomo Phone, U&amp;I, ChancenBörse, Tech Limited, CellShark, PMO, Stellaris, Alloccaz, MAGICH COMMERCE S.R.L.S., Clevertronic, nuLAB Srl, ApexY, smrtek, 3Ciel, NAMANPHONE SL, Wave Phones, Online-Phones 24, LTDC SP. Z O.O., Bafobu</t>
+          <t>Global Phones, U&amp;I, Stellaris, 3Ciel, ApexY, nuLAB Srl, UpCell, Bafobu, smrtek, PreOwned, Wave Phones, Tech Limited, Cellular Tech, LTDC SP. Z O.O., CellShark, ChancenBörse, Ironza, Clevertronic, Online-Phones 24</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Nest Green, UpCell, Nomo Phone, U&amp;I, ChancenBörse, Tech Limited, CellShark, PMO, Stellaris, Alloccaz, Clevertronic, nuLAB Srl, ApexY, smrtek, 3Ciel, NAMANPHONE SL, Wave Phones, Online-Phones 24, LTDC SP. Z O.O., Bafobu</t>
+          <t>Global Phones, U&amp;I, Stellaris, 3Ciel, ApexY, Nomo Phone, nuLAB Srl, UpCell, Bafobu, smrtek, PreOwned, Wave Phones, Tech Limited, Cellular Tech, LTDC SP. Z O.O., CellShark, ChancenBörse, Ironza, Clevertronic, Online-Phones 24</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>972.5818918918917</v>
+        <v>973.9976470588235</v>
       </c>
       <c r="H18" t="n">
-        <v>974.5245945945945</v>
+        <v>974.13</v>
       </c>
     </row>
     <row r="19">
@@ -1030,30 +1030,30 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>白色</t>
+          <t>玫瑰色</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>571</v>
+        <v>250</v>
       </c>
       <c r="D19" t="n">
-        <v>760</v>
+        <v>400</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>UpCell, Global Phones, ChancenBörse, U&amp;I, Tech Limited, Cellular Tech, CellShark, Stellaris, nuLAB Srl, Clevertronic, ApexY, smrtek, 3Ciel, PreOwned, Ironza, Wave Phones, Online-Phones 24, LTDC SP. Z O.O., Bafobu</t>
+          <t>Loop Mobile, Wave Phones, Tech Limited, nuLAB Srl, Clevertronic, Bafobu, Stellaris, LTDC SP. Z O.O., 3Ciel, Nest Green, Cellular Tech, Alloccaz, Online-Phones 24, PMO, CellShark</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>UpCell, Global Phones, Nomo Phone, ChancenBörse, U&amp;I, Tech Limited, Cellular Tech, CellShark, Stellaris, nuLAB Srl, Clevertronic, ApexY, smrtek, 3Ciel, PreOwned, Ironza, Wave Phones, Online-Phones 24, LTDC SP. Z O.O., Bafobu</t>
+          <t>Loop Mobile, Wave Phones, Tech Limited, nuLAB Srl, Clevertronic, Bafobu, Stellaris, CellShark, 3Ciel, Nest Green, Cellular Tech, Alloccaz, LTDC SP. Z O.O., PMO, Online-Phones 24</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>973.9976470588235</v>
+        <v>1008.152608695652</v>
       </c>
       <c r="H19" t="n">
-        <v>974.13</v>
+        <v>1008.747971014493</v>
       </c>
     </row>
     <row r="20">
@@ -1062,30 +1062,30 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>蓝绿色</t>
+          <t>群青蓝</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>305</v>
+        <v>435</v>
       </c>
       <c r="D20" t="n">
-        <v>337</v>
+        <v>422</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Clevertronic, nuLAB Srl, ApexY, TPC Mobile, Nest Green, 3Ciel, Wave Phones, Elytelecom, Online-Phones 24, LTDC SP. Z O.O., Cellular Tech, CellShark, Bafobu</t>
+          <t>U&amp;I, Stellaris, 3Ciel, nuLAB Srl, UpCell, Bafobu, PMO, PreOwned, Wave Phones, Tech Limited, Nest Green, Alloccaz, LTDC SP. Z O.O., CellShark, Phone, Clevertronic, Simpatico Tech, Elytelecom, Online-Phones 24</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Clevertronic, nuLAB Srl, ApexY, TPC Mobile, Nest Green, 3Ciel, Nomo Phone, Wave Phones, Elytelecom, Stellaris, Online-Phones 24, LTDC SP. Z O.O., Cellular Tech, CellShark, Bafobu</t>
+          <t>U&amp;I, Stellaris, 3Ciel, Nomo Phone, nuLAB Srl, UpCell, Bafobu, PMO, PreOwned, Wave Phones, Tech Limited, Nest Green, Alloccaz, LTDC SP. Z O.O., CellShark, Phone, Clevertronic, Simpatico Tech, Elytelecom, Online-Phones 24</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>984.3778333333335</v>
+        <v>979.7122388059702</v>
       </c>
       <c r="H20" t="n">
-        <v>985.8865000000001</v>
+        <v>979.5779104477612</v>
       </c>
     </row>
     <row r="21">
@@ -1094,30 +1094,30 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>群青蓝</t>
+          <t>蓝绿色</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>435</v>
+        <v>305</v>
       </c>
       <c r="D21" t="n">
-        <v>422</v>
+        <v>337</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Nest Green, UpCell, U&amp;I, Tech Limited, CellShark, PMO, Stellaris, Alloccaz, nuLAB Srl, Clevertronic, 3Ciel, PreOwned, Phone, Wave Phones, Elytelecom, Simpatico Tech, Online-Phones 24, LTDC SP. Z O.O., Bafobu</t>
+          <t>Wave Phones, nuLAB Srl, TPC Mobile, Clevertronic, Bafobu, Elytelecom, 3Ciel, Nest Green, Cellular Tech, ApexY, Online-Phones 24, LTDC SP. Z O.O., CellShark</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Nest Green, UpCell, Nomo Phone, U&amp;I, Tech Limited, CellShark, PMO, Stellaris, Alloccaz, nuLAB Srl, Clevertronic, 3Ciel, PreOwned, Phone, Wave Phones, Elytelecom, Simpatico Tech, Online-Phones 24, LTDC SP. Z O.O., Bafobu</t>
+          <t>Wave Phones, nuLAB Srl, TPC Mobile, Clevertronic, Bafobu, Stellaris, Elytelecom, 3Ciel, Nest Green, Cellular Tech, ApexY, Online-Phones 24, LTDC SP. Z O.O., CellShark, Nomo Phone</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>979.7122388059702</v>
+        <v>984.3778333333335</v>
       </c>
       <c r="H21" t="n">
-        <v>979.5779104477612</v>
+        <v>985.8865000000001</v>
       </c>
     </row>
     <row r="22">
@@ -1126,30 +1126,30 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>玫瑰色</t>
+          <t>黑色</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>338</v>
+        <v>723</v>
       </c>
       <c r="D22" t="n">
-        <v>343</v>
+        <v>594</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>nuLAB Srl, Clevertronic, Nest Green, Loop Mobile, PMO, Mobile tech mvw, 3Ciel, Wave Phones, Cellular Tech, Stellaris, Online-Phones 24, Tech Limited, LTDC SP. Z O.O., Alloccaz, CellShark, Bafobu</t>
+          <t>TPC Mobile, U&amp;I, Mobile tech mvw, Stellaris, 3Ciel, J.TECH LTD, ApexY, Nomo Phone, nuLAB Srl, UpCell, Bafobu, PMO, smrtek, Wave Phones, Tech Limited, Nest Green, Alloccaz, LTDC SP. Z O.O., CellShark, ChancenBörse, Clevertronic, FastMobile, NAMANPHONE SL, Online-Phones 24, rego</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Clevertronic, Nest Green, EC Epinal, Loop Mobile, PMO, Mobile tech mvw, 3Ciel, Wave Phones, Cellular Tech, Stellaris, Online-Phones 24, Tech Limited, LTDC SP. Z O.O., Alloccaz, CellShark, PreOwned, Bafobu</t>
+          <t>TPC Mobile, U&amp;I, Mobile tech mvw, Stellaris, 3Ciel, J.TECH LTD, ApexY, Nomo Phone, nuLAB Srl, UpCell, Bafobu, PMO, smrtek, PreOwned, Wave Phones, Tech Limited, Nest Green, Alloccaz, LTDC SP. Z O.O., CellShark, ChancenBörse, Clevertronic, NAMANPHONE SL, Online-Phones 24, rego</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>1001.373661971831</v>
+        <v>963.3988235294117</v>
       </c>
       <c r="H22" t="n">
-        <v>1000.444084507042</v>
+        <v>955.6479999999998</v>
       </c>
     </row>
     <row r="23">
@@ -1158,30 +1158,30 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>黑色</t>
+          <t>白色</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>723</v>
+        <v>527</v>
       </c>
       <c r="D23" t="n">
-        <v>594</v>
+        <v>574</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Nest Green, UpCell, Mobile tech mvw, Nomo Phone, U&amp;I, ChancenBörse, Tech Limited, CellShark, PMO, Stellaris, Alloccaz, Clevertronic, nuLAB Srl, ApexY, rego, smrtek, FastMobile, 3Ciel, J.TECH LTD, NAMANPHONE SL, Wave Phones, Online-Phones 24, LTDC SP. Z O.O., TPC Mobile, Bafobu</t>
+          <t>Nomo Phone, Wave Phones, ChancenBörse, Tech Limited, ApexY, nuLAB Srl, Ironza, Clevertronic, Bafobu, FastMobile, Stellaris, 3Ciel, Cellular Tech, J.TECH LTD, Online-Phones 24, LTDC SP. Z O.O., CellShark, smrtek</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Nest Green, UpCell, Mobile tech mvw, Nomo Phone, ChancenBörse, U&amp;I, Tech Limited, CellShark, PMO, Stellaris, Alloccaz, Clevertronic, nuLAB Srl, ApexY, rego, smrtek, 3Ciel, PreOwned, J.TECH LTD, NAMANPHONE SL, Wave Phones, Online-Phones 24, LTDC SP. Z O.O., TPC Mobile, Bafobu</t>
+          <t>Nomo Phone, Wave Phones, ChancenBörse, Tech Limited, ApexY, nuLAB Srl, Ironza, Clevertronic, Bafobu, FastMobile, Stellaris, 3Ciel, Cellular Tech, Blumerch BV, Online-Phones 24, LTDC SP. Z O.O., CellShark, smrtek</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>963.3988235294117</v>
+        <v>974.4496923076921</v>
       </c>
       <c r="H23" t="n">
-        <v>955.6479999999998</v>
+        <v>968.0690769230766</v>
       </c>
     </row>
     <row r="24">
@@ -1190,30 +1190,30 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>白色</t>
+          <t>玫瑰色</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>527</v>
+        <v>338</v>
       </c>
       <c r="D24" t="n">
-        <v>574</v>
+        <v>343</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>nuLAB Srl, J.TECH LTD, ApexY, Clevertronic, smrtek, FastMobile, 3Ciel, Nomo Phone, Wave Phones, ChancenBörse, Stellaris, Online-Phones 24, Tech Limited, LTDC SP. Z O.O., Cellular Tech, CellShark, Bafobu, Ironza</t>
+          <t>Loop Mobile, Wave Phones, Tech Limited, nuLAB Srl, Clevertronic, Bafobu, Mobile tech mvw, Stellaris, LTDC SP. Z O.O., 3Ciel, Nest Green, Cellular Tech, Alloccaz, Online-Phones 24, PMO, CellShark</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Blumerch BV, nuLAB Srl, Clevertronic, ApexY, smrtek, FastMobile, 3Ciel, Nomo Phone, Wave Phones, ChancenBörse, Stellaris, Online-Phones 24, Tech Limited, LTDC SP. Z O.O., Cellular Tech, CellShark, Bafobu, Ironza</t>
+          <t>PreOwned, Loop Mobile, Wave Phones, Tech Limited, Clevertronic, Bafobu, EC Epinal, Mobile tech mvw, Stellaris, LTDC SP. Z O.O., 3Ciel, Nest Green, Cellular Tech, Alloccaz, Online-Phones 24, PMO, CellShark</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>974.4496923076921</v>
+        <v>1001.373661971831</v>
       </c>
       <c r="H24" t="n">
-        <v>968.0690769230766</v>
+        <v>1000.444084507042</v>
       </c>
     </row>
     <row r="25">
@@ -1222,30 +1222,30 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>蓝绿色</t>
+          <t>群青蓝</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>297</v>
+        <v>457</v>
       </c>
       <c r="D25" t="n">
-        <v>306</v>
+        <v>409</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Clevertronic, nuLAB Srl, TPC Mobile, Nest Green, FastMobile, 3Ciel, Nomo Phone, Wave Phones, Elytelecom, Online-Phones 24, LTDC SP. Z O.O., Cellular Tech, CellShark, Bafobu, MAGICH COMMERCE S.R.L.S.</t>
+          <t>Stellaris, 3Ciel, J.TECH LTD, Nomo Phone, nuLAB Srl, UpCell, Bafobu, PMO, PreOwned, Wave Phones, Tech Limited, Nest Green, Cellular Tech, Alloccaz, LTDC SP. Z O.O., CellShark, Phone, Clevertronic, FastMobile, Simpatico Tech, Elytelecom, Online-Phones 24, rego</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Clevertronic, nuLAB Srl, TPC Mobile, Nest Green, FastMobile, 3Ciel, Nomo Phone, Wave Phones, Elytelecom, CellShark, Stellaris, Online-Phones 24, LTDC SP. Z O.O., Cellular Tech, PreOwned, Bafobu</t>
+          <t>Stellaris, 3Ciel, nuLAB Srl, UpCell, Bafobu, PMO, PreOwned, Wave Phones, Tech Limited, Nest Green, Alloccaz, LTDC SP. Z O.O., CellShark, Phone, Clevertronic, FastMobile, Simpatico Tech, Elytelecom, Online-Phones 24, rego</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>979.3229508196722</v>
+        <v>967.6488888888889</v>
       </c>
       <c r="H25" t="n">
-        <v>974.1032786885246</v>
+        <v>966.0355555555556</v>
       </c>
     </row>
     <row r="26">
@@ -1254,30 +1254,30 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>群青蓝</t>
+          <t>蓝绿色</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>457</v>
+        <v>297</v>
       </c>
       <c r="D26" t="n">
-        <v>409</v>
+        <v>306</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Nest Green, UpCell, Nomo Phone, Tech Limited, Cellular Tech, CellShark, PMO, Stellaris, Alloccaz, nuLAB Srl, Clevertronic, rego, FastMobile, 3Ciel, PreOwned, J.TECH LTD, Phone, Wave Phones, Elytelecom, Simpatico Tech, Online-Phones 24, LTDC SP. Z O.O., Bafobu</t>
+          <t>Wave Phones, nuLAB Srl, TPC Mobile, Clevertronic, Bafobu, FastMobile, MAGICH COMMERCE S.R.L.S., Elytelecom, 3Ciel, Nest Green, Cellular Tech, Online-Phones 24, LTDC SP. Z O.O., CellShark, Nomo Phone</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Nest Green, UpCell, Tech Limited, CellShark, PMO, Stellaris, Alloccaz, nuLAB Srl, Clevertronic, rego, FastMobile, 3Ciel, PreOwned, Phone, Wave Phones, Elytelecom, Simpatico Tech, Online-Phones 24, LTDC SP. Z O.O., Bafobu</t>
+          <t>PreOwned, Wave Phones, nuLAB Srl, TPC Mobile, Clevertronic, Bafobu, FastMobile, Stellaris, Elytelecom, 3Ciel, Nest Green, Cellular Tech, Online-Phones 24, LTDC SP. Z O.O., CellShark, Nomo Phone</t>
         </is>
       </c>
       <c r="G26" t="n">
-        <v>967.6488888888889</v>
+        <v>979.3229508196722</v>
       </c>
       <c r="H26" t="n">
-        <v>966.0355555555556</v>
+        <v>974.1032786885246</v>
       </c>
     </row>
     <row r="27">
@@ -1286,30 +1286,30 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>玫瑰色</t>
+          <t>黑色</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>354</v>
+        <v>609</v>
       </c>
       <c r="D27" t="n">
-        <v>354</v>
+        <v>609</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Clevertronic, Nest Green, EC Epinal, Loop Mobile, PMO, Mobile tech mvw, 3Ciel, Re-Cell Technology Solutions, Wave Phones, Cellular Tech, Stellaris, Online-Phones 24, Tech Limited, LTDC SP. Z O.O., Alloccaz, CellShark, Bafobu</t>
+          <t>TPC Mobile, U&amp;I, Mobile tech mvw, Stellaris, 3Ciel, ApexY, Nomo Phone, nuLAB Srl, UpCell, Bafobu, asgoodasnew electronics, PreOwned, Wave Phones, Tech Limited, Nest Green, Cellular Tech, Alloccaz, LTDC SP. Z O.O., CellShark, ChancenBörse, Clevertronic, NAMANPHONE SL, Re-Cell Technology Solutions, Online-Phones 24</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Clevertronic, Nest Green, EC Epinal, Loop Mobile, PMO, Mobile tech mvw, 3Ciel, Re-Cell Technology Solutions, Wave Phones, Cellular Tech, Stellaris, Online-Phones 24, Tech Limited, LTDC SP. Z O.O., Alloccaz, CellShark, Bafobu</t>
+          <t>TPC Mobile, U&amp;I, Mobile tech mvw, Stellaris, 3Ciel, ApexY, Nomo Phone, nuLAB Srl, UpCell, Bafobu, asgoodasnew electronics, PreOwned, Wave Phones, Tech Limited, Nest Green, Cellular Tech, Alloccaz, LTDC SP. Z O.O., CellShark, ChancenBörse, Clevertronic, NAMANPHONE SL, Re-Cell Technology Solutions, Online-Phones 24</t>
         </is>
       </c>
       <c r="G27" t="n">
-        <v>983.1197183098592</v>
+        <v>945.3021052631576</v>
       </c>
       <c r="H27" t="n">
-        <v>983.1197183098592</v>
+        <v>945.3021052631576</v>
       </c>
     </row>
     <row r="28">
@@ -1318,30 +1318,30 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>黑色</t>
+          <t>白色</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>609</v>
+        <v>725</v>
       </c>
       <c r="D28" t="n">
-        <v>609</v>
+        <v>725</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Nest Green, UpCell, Mobile tech mvw, Nomo Phone, ChancenBörse, U&amp;I, Tech Limited, Cellular Tech, CellShark, Stellaris, Alloccaz, Clevertronic, nuLAB Srl, ApexY, 3Ciel, Re-Cell Technology Solutions, asgoodasnew electronics, PreOwned, NAMANPHONE SL, Wave Phones, Online-Phones 24, LTDC SP. Z O.O., TPC Mobile, Bafobu</t>
+          <t>Stellaris, 3Ciel, ApexY, J.TECH LTD, Nomo Phone, nuLAB Srl, Bafobu, smrtek, Wave Phones, Tech Limited, Cellular Tech, Blumerch BV, LTDC SP. Z O.O., CellShark, Ironza, Clevertronic, FastMobile, Re-Cell Technology Solutions, Online-Phones 24</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Nest Green, UpCell, Mobile tech mvw, Nomo Phone, ChancenBörse, U&amp;I, Tech Limited, Cellular Tech, CellShark, Stellaris, Alloccaz, Clevertronic, nuLAB Srl, ApexY, 3Ciel, Re-Cell Technology Solutions, asgoodasnew electronics, PreOwned, NAMANPHONE SL, Wave Phones, Online-Phones 24, LTDC SP. Z O.O., TPC Mobile, Bafobu</t>
+          <t>Stellaris, 3Ciel, ApexY, J.TECH LTD, Nomo Phone, nuLAB Srl, Bafobu, smrtek, Wave Phones, Tech Limited, Cellular Tech, Blumerch BV, LTDC SP. Z O.O., CellShark, Ironza, Clevertronic, FastMobile, Re-Cell Technology Solutions, Online-Phones 24</t>
         </is>
       </c>
       <c r="G28" t="n">
-        <v>945.3021052631576</v>
+        <v>954.8313043478258</v>
       </c>
       <c r="H28" t="n">
-        <v>945.3021052631576</v>
+        <v>954.8313043478258</v>
       </c>
     </row>
     <row r="29">
@@ -1350,30 +1350,30 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>白色</t>
+          <t>玫瑰色</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>725</v>
+        <v>354</v>
       </c>
       <c r="D29" t="n">
-        <v>725</v>
+        <v>354</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Nomo Phone, Tech Limited, Cellular Tech, CellShark, Stellaris, Blumerch BV, nuLAB Srl, Clevertronic, ApexY, smrtek, FastMobile, 3Ciel, Re-Cell Technology Solutions, Ironza, J.TECH LTD, Wave Phones, Online-Phones 24, LTDC SP. Z O.O., Bafobu</t>
+          <t>Loop Mobile, Tech Limited, Wave Phones, PMO, Bafobu, EC Epinal, Clevertronic, Cellular Tech, Mobile tech mvw, Stellaris, 3Ciel, Re-Cell Technology Solutions, Nest Green, Alloccaz, Online-Phones 24, LTDC SP. Z O.O., CellShark</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Nomo Phone, Tech Limited, Cellular Tech, CellShark, Stellaris, Blumerch BV, nuLAB Srl, Clevertronic, ApexY, smrtek, FastMobile, 3Ciel, Re-Cell Technology Solutions, Ironza, J.TECH LTD, Wave Phones, Online-Phones 24, LTDC SP. Z O.O., Bafobu</t>
+          <t>Loop Mobile, Tech Limited, Wave Phones, PMO, Bafobu, EC Epinal, Clevertronic, Cellular Tech, Mobile tech mvw, Stellaris, 3Ciel, Re-Cell Technology Solutions, Nest Green, Alloccaz, Online-Phones 24, LTDC SP. Z O.O., CellShark</t>
         </is>
       </c>
       <c r="G29" t="n">
-        <v>954.8313043478258</v>
+        <v>983.1197183098592</v>
       </c>
       <c r="H29" t="n">
-        <v>954.8313043478258</v>
+        <v>983.1197183098592</v>
       </c>
     </row>
     <row r="30">
@@ -1382,30 +1382,30 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>蓝绿色</t>
+          <t>群青蓝</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>406</v>
+        <v>565</v>
       </c>
       <c r="D30" t="n">
-        <v>406</v>
+        <v>565</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>nuLAB Srl, Clevertronic, TPC Mobile, Nest Green, FastMobile, 3Ciel, Re-Cell Technology Solutions, Wave Phones, Online-Phones 24, Tech Limited, LTDC SP. Z O.O., Cellular Tech, CellShark, Bafobu</t>
+          <t>U&amp;I, Stellaris, Zwapa Mobile, nuLAB Srl, UpCell, Bafobu, PMO, PreOwned, Wave Phones, Tech Limited, Nest Green, Alloccaz, LTDC SP. Z O.O., CellShark, Phone, Clevertronic, FastMobile, Simpatico Tech, Re-Cell Technology Solutions, Online-Phones 24</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>nuLAB Srl, Clevertronic, TPC Mobile, Nest Green, FastMobile, 3Ciel, Re-Cell Technology Solutions, Wave Phones, Online-Phones 24, Tech Limited, LTDC SP. Z O.O., Cellular Tech, CellShark, Bafobu</t>
+          <t>U&amp;I, Stellaris, Zwapa Mobile, nuLAB Srl, UpCell, Bafobu, PMO, PreOwned, Wave Phones, Tech Limited, Nest Green, Alloccaz, LTDC SP. Z O.O., CellShark, Phone, Clevertronic, FastMobile, Simpatico Tech, Re-Cell Technology Solutions, Online-Phones 24</t>
         </is>
       </c>
       <c r="G30" t="n">
-        <v>968.296507936508</v>
+        <v>982.9234782608696</v>
       </c>
       <c r="H30" t="n">
-        <v>968.296507936508</v>
+        <v>982.9234782608696</v>
       </c>
     </row>
     <row r="31">
@@ -1414,30 +1414,30 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>群青蓝</t>
+          <t>蓝绿色</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>565</v>
+        <v>406</v>
       </c>
       <c r="D31" t="n">
-        <v>565</v>
+        <v>406</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Nest Green, UpCell, U&amp;I, Tech Limited, CellShark, PMO, Stellaris, Alloccaz, nuLAB Srl, Clevertronic, FastMobile, Zwapa Mobile, Re-Cell Technology Solutions, PreOwned, Phone, Wave Phones, Simpatico Tech, Online-Phones 24, LTDC SP. Z O.O., Bafobu</t>
+          <t>Wave Phones, Tech Limited, nuLAB Srl, TPC Mobile, Clevertronic, Bafobu, FastMobile, 3Ciel, Re-Cell Technology Solutions, Cellular Tech, Nest Green, Online-Phones 24, LTDC SP. Z O.O., CellShark</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Nest Green, UpCell, U&amp;I, Tech Limited, CellShark, PMO, Stellaris, Alloccaz, nuLAB Srl, Clevertronic, FastMobile, Zwapa Mobile, Re-Cell Technology Solutions, PreOwned, Phone, Wave Phones, Simpatico Tech, Online-Phones 24, LTDC SP. Z O.O., Bafobu</t>
+          <t>Wave Phones, Tech Limited, nuLAB Srl, TPC Mobile, Clevertronic, Bafobu, FastMobile, 3Ciel, Re-Cell Technology Solutions, Cellular Tech, Nest Green, Online-Phones 24, LTDC SP. Z O.O., CellShark</t>
         </is>
       </c>
       <c r="G31" t="n">
-        <v>982.9234782608696</v>
+        <v>968.296507936508</v>
       </c>
       <c r="H31" t="n">
-        <v>982.9234782608696</v>
+        <v>968.296507936508</v>
       </c>
     </row>
     <row r="32">
@@ -1446,30 +1446,30 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>玫瑰色</t>
+          <t>黑色</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>303</v>
+        <v>660</v>
       </c>
       <c r="D32" t="n">
-        <v>303</v>
+        <v>660</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Clevertronic, rego, Nest Green, Loop Mobile, PMO, Mobile tech mvw, Re-Cell Technology Solutions, Wave Phones, U&amp;I, Cellular Tech, Stellaris, Online-Phones 24, Tech Limited, LTDC SP. Z O.O., Alloccaz, CellShark, Bafobu, MAGICH COMMERCE S.R.L.S.</t>
+          <t>TPC Mobile, U&amp;I, Mobile tech mvw, Stellaris, ApexY, Nomo Phone, nuLAB Srl, Bafobu, PreOwned, Wave Phones, Nest Green, Alloccaz, LTDC SP. Z O.O., CellShark, ChancenBörse, Clevertronic, NAMANPHONE SL, Re-Cell Technology Solutions, Online-Phones 24, rego</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Clevertronic, rego, Nest Green, Loop Mobile, PMO, Mobile tech mvw, Re-Cell Technology Solutions, Wave Phones, U&amp;I, Cellular Tech, Stellaris, Online-Phones 24, Tech Limited, LTDC SP. Z O.O., Alloccaz, CellShark, Bafobu, MAGICH COMMERCE S.R.L.S.</t>
+          <t>TPC Mobile, U&amp;I, Mobile tech mvw, Stellaris, ApexY, Nomo Phone, nuLAB Srl, Bafobu, PreOwned, Wave Phones, Nest Green, Alloccaz, LTDC SP. Z O.O., CellShark, ChancenBörse, Clevertronic, NAMANPHONE SL, Re-Cell Technology Solutions, Online-Phones 24, rego</t>
         </is>
       </c>
       <c r="G32" t="n">
-        <v>984.6616901408451</v>
+        <v>973.7263513513511</v>
       </c>
       <c r="H32" t="n">
-        <v>984.6616901408451</v>
+        <v>973.7263513513511</v>
       </c>
     </row>
     <row r="33">
@@ -1478,30 +1478,30 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>黑色</t>
+          <t>白色</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>660</v>
+        <v>578</v>
       </c>
       <c r="D33" t="n">
-        <v>660</v>
+        <v>578</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Nest Green, Mobile tech mvw, Nomo Phone, U&amp;I, ChancenBörse, CellShark, Stellaris, Alloccaz, Clevertronic, nuLAB Srl, ApexY, rego, Re-Cell Technology Solutions, PreOwned, NAMANPHONE SL, Wave Phones, Online-Phones 24, LTDC SP. Z O.O., TPC Mobile, Bafobu</t>
+          <t>U&amp;I, Stellaris, 3Ciel, ApexY, J.TECH LTD, Nomo Phone, nuLAB Srl, Bafobu, smrtek, Wave Phones, Tech Limited, Cellular Tech, Blumerch BV, LTDC SP. Z O.O., CellShark, ChancenBörse, Ironza, Clevertronic, FastMobile, Re-Cell Technology Solutions, Online-Phones 24</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Nest Green, Mobile tech mvw, Nomo Phone, U&amp;I, ChancenBörse, CellShark, Stellaris, Alloccaz, Clevertronic, nuLAB Srl, ApexY, rego, Re-Cell Technology Solutions, PreOwned, NAMANPHONE SL, Wave Phones, Online-Phones 24, LTDC SP. Z O.O., TPC Mobile, Bafobu</t>
+          <t>U&amp;I, Stellaris, 3Ciel, ApexY, J.TECH LTD, Nomo Phone, nuLAB Srl, Bafobu, smrtek, Wave Phones, Tech Limited, Cellular Tech, Blumerch BV, LTDC SP. Z O.O., CellShark, ChancenBörse, Ironza, Clevertronic, FastMobile, Re-Cell Technology Solutions, Online-Phones 24</t>
         </is>
       </c>
       <c r="G33" t="n">
-        <v>973.7263513513511</v>
+        <v>973.488382352941</v>
       </c>
       <c r="H33" t="n">
-        <v>973.7263513513511</v>
+        <v>973.488382352941</v>
       </c>
     </row>
     <row r="34">
@@ -1510,30 +1510,30 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>白色</t>
+          <t>玫瑰色</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>578</v>
+        <v>303</v>
       </c>
       <c r="D34" t="n">
-        <v>578</v>
+        <v>303</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Nomo Phone, U&amp;I, ChancenBörse, Tech Limited, Cellular Tech, CellShark, Stellaris, Blumerch BV, nuLAB Srl, Clevertronic, ApexY, smrtek, FastMobile, 3Ciel, Re-Cell Technology Solutions, Ironza, J.TECH LTD, Wave Phones, Online-Phones 24, LTDC SP. Z O.O., Bafobu</t>
+          <t>Loop Mobile, Wave Phones, Tech Limited, Clevertronic, Bafobu, U&amp;I, Mobile tech mvw, MAGICH COMMERCE S.R.L.S., Stellaris, LTDC SP. Z O.O., Re-Cell Technology Solutions, Nest Green, Cellular Tech, Alloccaz, Online-Phones 24, rego, PMO, CellShark</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Nomo Phone, U&amp;I, ChancenBörse, Tech Limited, Cellular Tech, CellShark, Stellaris, Blumerch BV, nuLAB Srl, Clevertronic, ApexY, smrtek, FastMobile, 3Ciel, Re-Cell Technology Solutions, Ironza, J.TECH LTD, Wave Phones, Online-Phones 24, LTDC SP. Z O.O., Bafobu</t>
+          <t>Loop Mobile, Wave Phones, Tech Limited, Clevertronic, Bafobu, U&amp;I, Mobile tech mvw, MAGICH COMMERCE S.R.L.S., Stellaris, LTDC SP. Z O.O., Re-Cell Technology Solutions, Nest Green, Cellular Tech, Alloccaz, Online-Phones 24, rego, PMO, CellShark</t>
         </is>
       </c>
       <c r="G34" t="n">
-        <v>973.488382352941</v>
+        <v>984.6616901408451</v>
       </c>
       <c r="H34" t="n">
-        <v>973.488382352941</v>
+        <v>984.6616901408451</v>
       </c>
     </row>
     <row r="35">
@@ -1542,30 +1542,30 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>蓝绿色</t>
+          <t>群青蓝</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>322</v>
+        <v>396</v>
       </c>
       <c r="D35" t="n">
-        <v>322</v>
+        <v>396</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Clevertronic, nuLAB Srl, TPC Mobile, Nest Green, FastMobile, 3Ciel, Re-Cell Technology Solutions, Wave Phones, Elytelecom, U&amp;I, Stellaris, Online-Phones 24, Tech Limited, LTDC SP. Z O.O., Cellular Tech, CellShark, Bafobu, MAGICH COMMERCE S.R.L.S.</t>
+          <t>U&amp;I, Stellaris, Zwapa Mobile, nuLAB Srl, UpCell, Bafobu, PMO, PreOwned, Wave Phones, Tech Limited, Nest Green, Alloccaz, LTDC SP. Z O.O., CellShark, Phone, Clevertronic, FastMobile, Simpatico Tech, Elytelecom, Re-Cell Technology Solutions, Online-Phones 24</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Clevertronic, nuLAB Srl, TPC Mobile, Nest Green, FastMobile, 3Ciel, Re-Cell Technology Solutions, Wave Phones, Elytelecom, U&amp;I, Stellaris, Online-Phones 24, Tech Limited, LTDC SP. Z O.O., Cellular Tech, CellShark, Bafobu, MAGICH COMMERCE S.R.L.S.</t>
+          <t>U&amp;I, Stellaris, Zwapa Mobile, nuLAB Srl, UpCell, Bafobu, PMO, PreOwned, Wave Phones, Tech Limited, Nest Green, Alloccaz, LTDC SP. Z O.O., CellShark, Phone, Clevertronic, FastMobile, Simpatico Tech, Elytelecom, Re-Cell Technology Solutions, Online-Phones 24</t>
         </is>
       </c>
       <c r="G35" t="n">
-        <v>972.0492307692307</v>
+        <v>975.1188235294118</v>
       </c>
       <c r="H35" t="n">
-        <v>972.0492307692307</v>
+        <v>975.1188235294118</v>
       </c>
     </row>
     <row r="36">
@@ -1574,30 +1574,30 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>群青蓝</t>
+          <t>蓝绿色</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>396</v>
+        <v>322</v>
       </c>
       <c r="D36" t="n">
-        <v>396</v>
+        <v>322</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Nest Green, UpCell, U&amp;I, Tech Limited, CellShark, PMO, Stellaris, Alloccaz, nuLAB Srl, Clevertronic, FastMobile, Zwapa Mobile, Re-Cell Technology Solutions, PreOwned, Phone, Wave Phones, Elytelecom, Simpatico Tech, Online-Phones 24, LTDC SP. Z O.O., Bafobu</t>
+          <t>Wave Phones, Tech Limited, nuLAB Srl, TPC Mobile, Clevertronic, U&amp;I, Bafobu, FastMobile, MAGICH COMMERCE S.R.L.S., Stellaris, Elytelecom, 3Ciel, Re-Cell Technology Solutions, Cellular Tech, Nest Green, Online-Phones 24, LTDC SP. Z O.O., CellShark</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Nest Green, UpCell, U&amp;I, Tech Limited, CellShark, PMO, Stellaris, Alloccaz, nuLAB Srl, Clevertronic, FastMobile, Zwapa Mobile, Re-Cell Technology Solutions, PreOwned, Phone, Wave Phones, Elytelecom, Simpatico Tech, Online-Phones 24, LTDC SP. Z O.O., Bafobu</t>
+          <t>Wave Phones, Tech Limited, nuLAB Srl, TPC Mobile, Clevertronic, U&amp;I, Bafobu, FastMobile, MAGICH COMMERCE S.R.L.S., Stellaris, Elytelecom, 3Ciel, Re-Cell Technology Solutions, Cellular Tech, Nest Green, Online-Phones 24, LTDC SP. Z O.O., CellShark</t>
         </is>
       </c>
       <c r="G36" t="n">
-        <v>975.1188235294118</v>
+        <v>972.0492307692307</v>
       </c>
       <c r="H36" t="n">
-        <v>975.1188235294118</v>
+        <v>972.0492307692307</v>
       </c>
     </row>
     <row r="37">
@@ -1606,30 +1606,30 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>玫瑰色</t>
+          <t>黑色</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>279</v>
+        <v>710</v>
       </c>
       <c r="D37" t="n">
-        <v>279</v>
+        <v>710</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Clevertronic, rego, Nest Green, EC Epinal, Loop Mobile, PMO, Mobile tech mvw, Re-Cell Technology Solutions, Wave Phones, Cellular Tech, Online-Phones 24, Tech Limited, LTDC SP. Z O.O., CellShark, Bafobu, MAGICH COMMERCE S.R.L.S.</t>
+          <t>U&amp;I, Mobile tech mvw, Stellaris, 3Ciel, ApexY, Nomo Phone, nuLAB Srl, Bafobu, PMO, Wave Phones, Tech Limited, Nest Green, Alloccaz, LTDC SP. Z O.O., We Cell, phonescom GmbH &amp; Co. KG, CellShark, ChancenBörse, Clevertronic, NAMANPHONE SL, Online-Phones 24, rego</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Clevertronic, rego, Nest Green, EC Epinal, Loop Mobile, PMO, Mobile tech mvw, Re-Cell Technology Solutions, Wave Phones, Cellular Tech, Online-Phones 24, Tech Limited, LTDC SP. Z O.O., CellShark, Bafobu, MAGICH COMMERCE S.R.L.S.</t>
+          <t>U&amp;I, Mobile tech mvw, Stellaris, 3Ciel, ApexY, Nomo Phone, nuLAB Srl, Bafobu, PMO, Wave Phones, Tech Limited, Nest Green, Alloccaz, LTDC SP. Z O.O., We Cell, phonescom GmbH &amp; Co. KG, CellShark, ChancenBörse, Clevertronic, NAMANPHONE SL, Online-Phones 24, rego</t>
         </is>
       </c>
       <c r="G37" t="n">
-        <v>986.6875</v>
+        <v>957.5342857142857</v>
       </c>
       <c r="H37" t="n">
-        <v>986.6875</v>
+        <v>957.5342857142857</v>
       </c>
     </row>
     <row r="38">
@@ -1638,30 +1638,30 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>黑色</t>
+          <t>白色</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>710</v>
+        <v>694</v>
       </c>
       <c r="D38" t="n">
-        <v>710</v>
+        <v>694</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Nest Green, Mobile tech mvw, Nomo Phone, U&amp;I, ChancenBörse, Tech Limited, CellShark, PMO, Stellaris, Alloccaz, Clevertronic, nuLAB Srl, ApexY, rego, 3Ciel, We Cell, NAMANPHONE SL, Wave Phones, Online-Phones 24, LTDC SP. Z O.O., Bafobu, phonescom GmbH &amp; Co. KG</t>
+          <t>Global Phones, U&amp;I, Stellaris, 3Ciel, Nomo Phone, nuLAB Srl, Intoringy OÜ, Bafobu, smrtek, Wave Phones, Tech Limited, Blumerch BV, LTDC SP. Z O.O., CellShark, Aureate Tech, ChancenBörse, Ironza, Clevertronic, FastMobile, Online-Phones 24, rego</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Nest Green, Mobile tech mvw, Nomo Phone, U&amp;I, ChancenBörse, Tech Limited, CellShark, PMO, Stellaris, Alloccaz, Clevertronic, nuLAB Srl, ApexY, rego, 3Ciel, We Cell, NAMANPHONE SL, Wave Phones, Online-Phones 24, LTDC SP. Z O.O., Bafobu, phonescom GmbH &amp; Co. KG</t>
+          <t>Global Phones, U&amp;I, Stellaris, 3Ciel, Nomo Phone, nuLAB Srl, Intoringy OÜ, Bafobu, smrtek, Wave Phones, Tech Limited, Blumerch BV, LTDC SP. Z O.O., CellShark, Aureate Tech, ChancenBörse, Ironza, Clevertronic, FastMobile, Online-Phones 24, rego</t>
         </is>
       </c>
       <c r="G38" t="n">
-        <v>957.5342857142857</v>
+        <v>952.7252054794519</v>
       </c>
       <c r="H38" t="n">
-        <v>957.5342857142857</v>
+        <v>952.7252054794519</v>
       </c>
     </row>
     <row r="39">
@@ -1670,30 +1670,30 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>白色</t>
+          <t>玫瑰色</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>694</v>
+        <v>279</v>
       </c>
       <c r="D39" t="n">
-        <v>694</v>
+        <v>279</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Global Phones, Nomo Phone, U&amp;I, ChancenBörse, Tech Limited, CellShark, Intoringy OÜ, Stellaris, Blumerch BV, nuLAB Srl, Clevertronic, rego, smrtek, FastMobile, 3Ciel, LTDC SP. Z O.O., Ironza, Wave Phones, Online-Phones 24, Aureate Tech, Bafobu</t>
+          <t>Loop Mobile, Tech Limited, Wave Phones, Clevertronic, Bafobu, EC Epinal, Mobile tech mvw, MAGICH COMMERCE S.R.L.S., LTDC SP. Z O.O., Re-Cell Technology Solutions, Nest Green, Cellular Tech, Online-Phones 24, rego, PMO, CellShark</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Global Phones, Nomo Phone, U&amp;I, ChancenBörse, Tech Limited, CellShark, Intoringy OÜ, Stellaris, Blumerch BV, nuLAB Srl, Clevertronic, rego, smrtek, FastMobile, 3Ciel, LTDC SP. Z O.O., Ironza, Wave Phones, Online-Phones 24, Aureate Tech, Bafobu</t>
+          <t>Loop Mobile, Tech Limited, Wave Phones, Clevertronic, Bafobu, EC Epinal, Mobile tech mvw, MAGICH COMMERCE S.R.L.S., LTDC SP. Z O.O., Re-Cell Technology Solutions, Nest Green, Cellular Tech, Online-Phones 24, rego, PMO, CellShark</t>
         </is>
       </c>
       <c r="G39" t="n">
-        <v>952.7252054794519</v>
+        <v>986.6875</v>
       </c>
       <c r="H39" t="n">
-        <v>952.7252054794519</v>
+        <v>986.6875</v>
       </c>
     </row>
     <row r="40">
@@ -1702,30 +1702,30 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>蓝绿色</t>
+          <t>群青蓝</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>309</v>
+        <v>384</v>
       </c>
       <c r="D40" t="n">
-        <v>309</v>
+        <v>384</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Clevertronic, We Cell, nuLAB Srl, rego, Nest Green, FastMobile, 3Ciel, Re-Cell Technology Solutions, Wave Phones, Elytelecom, Online-Phones 24, Tech Limited, LTDC SP. Z O.O., Cellular Tech, CellShark, Bafobu, MAGICH COMMERCE S.R.L.S.</t>
+          <t>U&amp;I, Stellaris, 3Ciel, Nomo Phone, UpCell, Bafobu, PMO, PreOwned, Wave Phones, Tech Limited, Nest Green, Alloccaz, LTDC SP. Z O.O., We Cell, CellShark, Phone, Clevertronic, FastMobile, Simpatico Tech, Elytelecom, Online-Phones 24</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Clevertronic, We Cell, nuLAB Srl, rego, Nest Green, FastMobile, 3Ciel, Re-Cell Technology Solutions, Wave Phones, Elytelecom, Online-Phones 24, Tech Limited, LTDC SP. Z O.O., Cellular Tech, CellShark, Bafobu, MAGICH COMMERCE S.R.L.S.</t>
+          <t>U&amp;I, Stellaris, 3Ciel, Nomo Phone, UpCell, Bafobu, PMO, PreOwned, Wave Phones, Tech Limited, Nest Green, Alloccaz, LTDC SP. Z O.O., We Cell, CellShark, Phone, Clevertronic, FastMobile, Simpatico Tech, Elytelecom, Online-Phones 24</t>
         </is>
       </c>
       <c r="G40" t="n">
-        <v>973.3349180327868</v>
+        <v>977.6610769230768</v>
       </c>
       <c r="H40" t="n">
-        <v>973.3349180327868</v>
+        <v>977.6610769230768</v>
       </c>
     </row>
     <row r="41">
@@ -1734,30 +1734,30 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>群青蓝</t>
+          <t>蓝绿色</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>384</v>
+        <v>309</v>
       </c>
       <c r="D41" t="n">
-        <v>384</v>
+        <v>309</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Nest Green, UpCell, Nomo Phone, U&amp;I, Tech Limited, CellShark, PMO, Stellaris, Alloccaz, Clevertronic, FastMobile, 3Ciel, PreOwned, We Cell, Phone, Wave Phones, Elytelecom, Simpatico Tech, Online-Phones 24, LTDC SP. Z O.O., Bafobu</t>
+          <t>Wave Phones, Tech Limited, nuLAB Srl, Clevertronic, Bafobu, FastMobile, MAGICH COMMERCE S.R.L.S., Elytelecom, 3Ciel, Re-Cell Technology Solutions, Cellular Tech, Nest Green, Online-Phones 24, rego, We Cell, LTDC SP. Z O.O., CellShark</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Nest Green, UpCell, Nomo Phone, U&amp;I, Tech Limited, CellShark, PMO, Stellaris, Alloccaz, Clevertronic, FastMobile, 3Ciel, PreOwned, We Cell, Phone, Wave Phones, Elytelecom, Simpatico Tech, Online-Phones 24, LTDC SP. Z O.O., Bafobu</t>
+          <t>Wave Phones, Tech Limited, nuLAB Srl, Clevertronic, Bafobu, FastMobile, MAGICH COMMERCE S.R.L.S., Elytelecom, 3Ciel, Re-Cell Technology Solutions, Cellular Tech, Nest Green, Online-Phones 24, rego, We Cell, LTDC SP. Z O.O., CellShark</t>
         </is>
       </c>
       <c r="G41" t="n">
-        <v>977.6610769230768</v>
+        <v>973.3349180327868</v>
       </c>
       <c r="H41" t="n">
-        <v>977.6610769230768</v>
+        <v>973.3349180327868</v>
       </c>
     </row>
     <row r="42">
@@ -1766,30 +1766,30 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>玫瑰色</t>
+          <t>黑色</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>304</v>
+        <v>689</v>
       </c>
       <c r="D42" t="n">
-        <v>304</v>
+        <v>689</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Clevertronic, ApexY, Nest Green, Mobile tech mvw, Re-Cell Technology Solutions, Wave Phones, Online-Phones 24, Tech Limited, LTDC SP. Z O.O., CellShark, Bafobu, VantaCore</t>
+          <t>Wave Phones, Tech Limited, VantaCore, nuLAB Srl, Clevertronic, U&amp;I, Bafobu, Mobile tech mvw, 3Ciel, UpCell, Re-Cell Technology Solutions, ApexY, Online-Phones 24, rego, We Cell, LTDC SP. Z O.O., Nest Green, Nomo Phone</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Clevertronic, ApexY, Nest Green, Mobile tech mvw, Re-Cell Technology Solutions, Wave Phones, Online-Phones 24, Tech Limited, LTDC SP. Z O.O., CellShark, Bafobu, VantaCore</t>
+          <t>Wave Phones, Tech Limited, VantaCore, nuLAB Srl, Clevertronic, U&amp;I, Bafobu, Mobile tech mvw, 3Ciel, UpCell, Re-Cell Technology Solutions, ApexY, Online-Phones 24, rego, We Cell, LTDC SP. Z O.O., Nest Green, Nomo Phone</t>
         </is>
       </c>
       <c r="G42" t="n">
-        <v>921.4921875</v>
+        <v>875.9522916666666</v>
       </c>
       <c r="H42" t="n">
-        <v>921.4921875</v>
+        <v>875.9522916666666</v>
       </c>
     </row>
     <row r="43">
@@ -1798,30 +1798,30 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>黑色</t>
+          <t>白色</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>689</v>
+        <v>536</v>
       </c>
       <c r="D43" t="n">
-        <v>689</v>
+        <v>536</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>We Cell, nuLAB Srl, ApexY, rego, Clevertronic, Nest Green, UpCell, Mobile tech mvw, 3Ciel, Re-Cell Technology Solutions, Nomo Phone, Wave Phones, U&amp;I, Online-Phones 24, Tech Limited, LTDC SP. Z O.O., Bafobu, VantaCore</t>
+          <t>Wave Phones, Tech Limited, ChancenBörse, VantaCore, nuLAB Srl, J.TECH LTD, rego, Bafobu, U&amp;I, Clevertronic, 3Ciel, UpCell, Cellular Tech, ApexY, Online-Phones 24, Re-Cell Technology Solutions, LTDC SP. Z O.O., smrtek</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>We Cell, nuLAB Srl, ApexY, rego, Clevertronic, Nest Green, UpCell, Mobile tech mvw, 3Ciel, Re-Cell Technology Solutions, Nomo Phone, Wave Phones, U&amp;I, Online-Phones 24, Tech Limited, LTDC SP. Z O.O., Bafobu, VantaCore</t>
+          <t>Wave Phones, Tech Limited, ChancenBörse, VantaCore, nuLAB Srl, J.TECH LTD, rego, Bafobu, U&amp;I, Clevertronic, 3Ciel, UpCell, Cellular Tech, ApexY, Online-Phones 24, Re-Cell Technology Solutions, LTDC SP. Z O.O., smrtek</t>
         </is>
       </c>
       <c r="G43" t="n">
-        <v>875.9522916666666</v>
+        <v>830.6706818181818</v>
       </c>
       <c r="H43" t="n">
-        <v>875.9522916666666</v>
+        <v>830.6706818181818</v>
       </c>
     </row>
     <row r="44">
@@ -1830,30 +1830,30 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>白色</t>
+          <t>玫瑰色</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>536</v>
+        <v>304</v>
       </c>
       <c r="D44" t="n">
-        <v>536</v>
+        <v>304</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>nuLAB Srl, J.TECH LTD, ApexY, rego, smrtek, Clevertronic, UpCell, 3Ciel, Re-Cell Technology Solutions, Wave Phones, ChancenBörse, U&amp;I, Online-Phones 24, Tech Limited, LTDC SP. Z O.O., Cellular Tech, Bafobu, VantaCore</t>
+          <t>Tech Limited, Wave Phones, VantaCore, Clevertronic, Bafobu, Mobile tech mvw, Re-Cell Technology Solutions, Nest Green, ApexY, Online-Phones 24, LTDC SP. Z O.O., CellShark</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>nuLAB Srl, J.TECH LTD, ApexY, rego, smrtek, Clevertronic, UpCell, 3Ciel, Re-Cell Technology Solutions, Wave Phones, ChancenBörse, U&amp;I, Online-Phones 24, Tech Limited, LTDC SP. Z O.O., Cellular Tech, Bafobu, VantaCore</t>
+          <t>Tech Limited, Wave Phones, VantaCore, Clevertronic, Bafobu, Mobile tech mvw, Re-Cell Technology Solutions, Nest Green, ApexY, Online-Phones 24, LTDC SP. Z O.O., CellShark</t>
         </is>
       </c>
       <c r="G44" t="n">
-        <v>830.6706818181818</v>
+        <v>921.4921875</v>
       </c>
       <c r="H44" t="n">
-        <v>830.6706818181818</v>
+        <v>921.4921875</v>
       </c>
     </row>
     <row r="45">
@@ -1862,30 +1862,30 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>蓝绿色</t>
+          <t>群青蓝</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>254</v>
+        <v>419</v>
       </c>
       <c r="D45" t="n">
-        <v>254</v>
+        <v>419</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Clevertronic, nuLAB Srl, ApexY, Nest Green, PMO, 3Ciel, Re-Cell Technology Solutions, Wave Phones, U&amp;I, Online-Phones 24, Tech Limited, LTDC SP. Z O.O., Bafobu, VantaCore</t>
+          <t>Zwapa Mobile, 3Ciel, ApexY, Nomo Phone, VantaCore, nuLAB Srl, UpCell, Bafobu, PMO, Wave Phones, Tech Limited, Nest Green, Cellular Tech, LTDC SP. Z O.O., CellShark, Phone, Clevertronic, Re-Cell Technology Solutions, Online-Phones 24</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Clevertronic, nuLAB Srl, ApexY, Nest Green, PMO, 3Ciel, Re-Cell Technology Solutions, Wave Phones, U&amp;I, Online-Phones 24, Tech Limited, LTDC SP. Z O.O., Bafobu, VantaCore</t>
+          <t>Zwapa Mobile, 3Ciel, ApexY, Nomo Phone, VantaCore, nuLAB Srl, UpCell, Bafobu, PMO, Wave Phones, Tech Limited, Nest Green, Cellular Tech, LTDC SP. Z O.O., CellShark, Phone, Clevertronic, Re-Cell Technology Solutions, Online-Phones 24</t>
         </is>
       </c>
       <c r="G45" t="n">
-        <v>880.6863636363636</v>
+        <v>880.626739130435</v>
       </c>
       <c r="H45" t="n">
-        <v>880.6863636363636</v>
+        <v>880.626739130435</v>
       </c>
     </row>
     <row r="46">
@@ -1894,30 +1894,30 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>群青蓝</t>
+          <t>蓝绿色</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>419</v>
+        <v>254</v>
       </c>
       <c r="D46" t="n">
-        <v>419</v>
+        <v>254</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Nest Green, UpCell, Nomo Phone, Tech Limited, Cellular Tech, CellShark, PMO, VantaCore, nuLAB Srl, Clevertronic, ApexY, Zwapa Mobile, 3Ciel, Re-Cell Technology Solutions, Phone, Wave Phones, Online-Phones 24, LTDC SP. Z O.O., Bafobu</t>
+          <t>Tech Limited, Wave Phones, VantaCore, nuLAB Srl, Clevertronic, Bafobu, U&amp;I, LTDC SP. Z O.O., 3Ciel, Re-Cell Technology Solutions, Nest Green, ApexY, Online-Phones 24, PMO</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Nest Green, UpCell, Nomo Phone, Tech Limited, Cellular Tech, CellShark, PMO, VantaCore, nuLAB Srl, Clevertronic, ApexY, Zwapa Mobile, 3Ciel, Re-Cell Technology Solutions, Phone, Wave Phones, Online-Phones 24, LTDC SP. Z O.O., Bafobu</t>
+          <t>Tech Limited, Wave Phones, VantaCore, nuLAB Srl, Clevertronic, Bafobu, U&amp;I, LTDC SP. Z O.O., 3Ciel, Re-Cell Technology Solutions, Nest Green, ApexY, Online-Phones 24, PMO</t>
         </is>
       </c>
       <c r="G46" t="n">
-        <v>880.626739130435</v>
+        <v>880.6863636363636</v>
       </c>
       <c r="H46" t="n">
-        <v>880.626739130435</v>
+        <v>880.6863636363636</v>
       </c>
     </row>
     <row r="47">
@@ -1926,30 +1926,30 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>玫瑰色</t>
+          <t>黑色</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>287</v>
+        <v>591</v>
       </c>
       <c r="D47" t="n">
-        <v>283</v>
+        <v>637</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Clevertronic, ApexY, Nest Green, Mobile tech mvw, Re-Cell Technology Solutions, Wave Phones, Aureate Tech, Online-Phones 24, Tech Limited, LTDC SP. Z O.O., TopOne GmbH, CASH 31, Bafobu, VantaCore</t>
+          <t>U&amp;I, 3Ciel, J.TECH LTD, ApexY, Nomo Phone, TopOne GmbH, VantaCore, UpCell, Bafobu, PMO, Wave Phones, Tech Limited, Nest Green, Cellular Tech, LTDC SP. Z O.O., CellShark, Clevertronic, NAMANPHONE SL, Online-Phones 24</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Clevertronic, ApexY, Nest Green, Mobile tech mvw, Re-Cell Technology Solutions, Wave Phones, Aureate Tech, Online-Phones 24, Tech Limited, LTDC SP. Z O.O., TopOne GmbH, CASH 31, CellShark, Bafobu, VantaCore</t>
+          <t>U&amp;I, 3Ciel, J.TECH LTD, ApexY, Nomo Phone, TopOne GmbH, VantaCore, nuLAB Srl, UpCell, Bafobu, PMO, Wave Phones, Tech Limited, Nest Green, Cellular Tech, LTDC SP. Z O.O., CellShark, Clevertronic, NAMANPHONE SL, Online-Phones 24</t>
         </is>
       </c>
       <c r="G47" t="n">
-        <v>995.7697826086954</v>
+        <v>962.6283018867925</v>
       </c>
       <c r="H47" t="n">
-        <v>994.5958695652172</v>
+        <v>961.8171698113207</v>
       </c>
     </row>
     <row r="48">
@@ -1958,30 +1958,30 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>黑色</t>
+          <t>白色</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>591</v>
+        <v>568</v>
       </c>
       <c r="D48" t="n">
-        <v>637</v>
+        <v>570</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Nest Green, UpCell, Nomo Phone, U&amp;I, Tech Limited, Cellular Tech, CellShark, PMO, TopOne GmbH, VantaCore, Clevertronic, ApexY, 3Ciel, J.TECH LTD, NAMANPHONE SL, Wave Phones, Online-Phones 24, LTDC SP. Z O.O., Bafobu</t>
+          <t>Global Phones, Stellaris, 3Ciel, J.TECH LTD, ApexY, Nomo Phone, VantaCore, UpCell, Bafobu, smrtek, Wave Phones, Tech Limited, Cellular Tech, Blumerch BV, LTDC SP. Z O.O., We Cell, Aureate Tech, EC Troyes, ChancenBörse, Ironza, Clevertronic, FastMobile, Online-Phones 24</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Nest Green, UpCell, Nomo Phone, U&amp;I, Tech Limited, Cellular Tech, CellShark, PMO, TopOne GmbH, VantaCore, nuLAB Srl, Clevertronic, ApexY, 3Ciel, J.TECH LTD, NAMANPHONE SL, Wave Phones, Online-Phones 24, LTDC SP. Z O.O., Bafobu</t>
+          <t>Global Phones, Stellaris, 3Ciel, J.TECH LTD, ApexY, Nomo Phone, VantaCore, nuLAB Srl, UpCell, Bafobu, smrtek, Wave Phones, Tech Limited, Cellular Tech, Blumerch BV, LTDC SP. Z O.O., We Cell, Aureate Tech, EC Troyes, ChancenBörse, Ironza, Clevertronic, FastMobile, Online-Phones 24</t>
         </is>
       </c>
       <c r="G48" t="n">
-        <v>962.6283018867925</v>
+        <v>931.6264999999999</v>
       </c>
       <c r="H48" t="n">
-        <v>961.8171698113207</v>
+        <v>931.2264999999999</v>
       </c>
     </row>
     <row r="49">
@@ -1990,30 +1990,30 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>白色</t>
+          <t>玫瑰色</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>568</v>
+        <v>287</v>
       </c>
       <c r="D49" t="n">
-        <v>570</v>
+        <v>283</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>UpCell, Global Phones, Nomo Phone, ChancenBörse, Tech Limited, Cellular Tech, Stellaris, VantaCore, Blumerch BV, Clevertronic, ApexY, smrtek, FastMobile, 3Ciel, LTDC SP. Z O.O., Ironza, We Cell, J.TECH LTD, Wave Phones, Online-Phones 24, Aureate Tech, EC Troyes, Bafobu</t>
+          <t>TopOne GmbH, Wave Phones, Tech Limited, VantaCore, Clevertronic, Bafobu, Mobile tech mvw, Re-Cell Technology Solutions, Nest Green, ApexY, Online-Phones 24, CASH 31, LTDC SP. Z O.O., Aureate Tech</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>UpCell, Global Phones, Nomo Phone, ChancenBörse, Tech Limited, Cellular Tech, Stellaris, VantaCore, Blumerch BV, nuLAB Srl, Clevertronic, ApexY, smrtek, FastMobile, 3Ciel, LTDC SP. Z O.O., Ironza, We Cell, J.TECH LTD, Wave Phones, Online-Phones 24, Aureate Tech, EC Troyes, Bafobu</t>
+          <t>TopOne GmbH, Wave Phones, Tech Limited, VantaCore, Clevertronic, Bafobu, Mobile tech mvw, Re-Cell Technology Solutions, Nest Green, ApexY, Online-Phones 24, CASH 31, LTDC SP. Z O.O., CellShark, Aureate Tech</t>
         </is>
       </c>
       <c r="G49" t="n">
-        <v>931.6264999999999</v>
+        <v>995.7697826086954</v>
       </c>
       <c r="H49" t="n">
-        <v>931.2264999999999</v>
+        <v>994.5958695652172</v>
       </c>
     </row>
     <row r="50">
@@ -2022,30 +2022,30 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>蓝绿色</t>
+          <t>群青蓝</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>202</v>
+        <v>280</v>
       </c>
       <c r="D50" t="n">
-        <v>221</v>
+        <v>309</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Clevertronic, ApexY, Nest Green, FastMobile, 3Ciel, Re-Cell Technology Solutions, Wave Phones, Elytelecom, U&amp;I, Online-Phones 24, Tech Limited, LTDC SP. Z O.O., TopOne GmbH, CellShark, Bafobu, VantaCore</t>
+          <t>Stellaris, Zwapa Mobile, 3Ciel, ApexY, Nomo Phone, nuLAB Srl, UpCell, Bafobu, PMO, Wave Phones, Tech Limited, Nest Green, Cellular Tech, LTDC SP. Z O.O., CellShark, Clevertronic, FastMobile, Simpatico Tech, Elytelecom, Online-Phones 24</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Clevertronic, ApexY, Nest Green, FastMobile, 3Ciel, Re-Cell Technology Solutions, Wave Phones, Elytelecom, U&amp;I, Online-Phones 24, Tech Limited, LTDC SP. Z O.O., TopOne GmbH, CellShark, Bafobu, VantaCore</t>
+          <t>Stellaris, Zwapa Mobile, 3Ciel, ApexY, Nomo Phone, nuLAB Srl, UpCell, Bafobu, PMO, asgoodasnew electronics, Wave Phones, Tech Limited, Nest Green, Cellular Tech, LTDC SP. Z O.O., CellShark, Clevertronic, FastMobile, Simpatico Tech, Elytelecom, Online-Phones 24</t>
         </is>
       </c>
       <c r="G50" t="n">
-        <v>948.2756363636364</v>
+        <v>980.1874545454546</v>
       </c>
       <c r="H50" t="n">
-        <v>948.9861818181819</v>
+        <v>976.5487272727273</v>
       </c>
     </row>
     <row r="51">
@@ -2054,30 +2054,30 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>群青蓝</t>
+          <t>蓝绿色</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>280</v>
+        <v>202</v>
       </c>
       <c r="D51" t="n">
-        <v>309</v>
+        <v>221</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Nest Green, UpCell, Nomo Phone, Tech Limited, Cellular Tech, CellShark, PMO, Stellaris, nuLAB Srl, Clevertronic, ApexY, FastMobile, Zwapa Mobile, 3Ciel, Wave Phones, Elytelecom, Simpatico Tech, Online-Phones 24, LTDC SP. Z O.O., Bafobu</t>
+          <t>TopOne GmbH, Tech Limited, Wave Phones, VantaCore, Clevertronic, Bafobu, U&amp;I, FastMobile, Elytelecom, 3Ciel, Nest Green, Re-Cell Technology Solutions, ApexY, Online-Phones 24, LTDC SP. Z O.O., CellShark</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Nest Green, UpCell, Nomo Phone, Tech Limited, Cellular Tech, CellShark, PMO, Stellaris, nuLAB Srl, Clevertronic, ApexY, FastMobile, Zwapa Mobile, 3Ciel, asgoodasnew electronics, Wave Phones, Elytelecom, Simpatico Tech, Online-Phones 24, LTDC SP. Z O.O., Bafobu</t>
+          <t>TopOne GmbH, Tech Limited, Wave Phones, VantaCore, Clevertronic, Bafobu, U&amp;I, FastMobile, Elytelecom, 3Ciel, Nest Green, Re-Cell Technology Solutions, ApexY, Online-Phones 24, LTDC SP. Z O.O., CellShark</t>
         </is>
       </c>
       <c r="G51" t="n">
-        <v>980.1874545454546</v>
+        <v>948.2756363636364</v>
       </c>
       <c r="H51" t="n">
-        <v>976.5487272727273</v>
+        <v>948.9861818181819</v>
       </c>
     </row>
     <row r="52">
@@ -2086,30 +2086,30 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>玫瑰色</t>
+          <t>黑色</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>251</v>
+        <v>386</v>
       </c>
       <c r="D52" t="n">
-        <v>268</v>
+        <v>434</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Clevertronic, ApexY, Nest Green, EC Epinal, Mobile tech mvw, Wave Phones, EU Telecoms BL LTD, Simpatico Tech, U&amp;I, FOX ONLINE, LTDC SP. Z O.O., TopOne GmbH, CASH 31, Bafobu, phonescom GmbH &amp; Co. KG</t>
+          <t>U&amp;I, Mobile tech mvw, 3Ciel, J.TECH LTD, ApexY, Nomo Phone, EU Telecoms BL LTD, COOLKK, Bafobu, CarreMobile, PMO, Wave Phones, Tech Limited, Nest Green, LTDC SP. Z O.O., CellShark, Clevertronic, NAMANPHONE SL, Online-Phones 24</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Clevertronic, ApexY, Nest Green, EC Epinal, Mobile tech mvw, Wave Phones, EU Telecoms BL LTD, Simpatico Tech, U&amp;I, Online-Phones 24, FOX ONLINE, LTDC SP. Z O.O., TopOne GmbH, CASH 31, Bafobu, phonescom GmbH &amp; Co. KG</t>
+          <t>U&amp;I, Mobile tech mvw, 3Ciel, J.TECH LTD, ApexY, Nomo Phone, EU Telecoms BL LTD, COOLKK, Bafobu, CarreMobile, PMO, Wave Phones, Tech Limited, Nest Green, LTDC SP. Z O.O., CellShark, Clevertronic, NAMANPHONE SL, Online-Phones 24</t>
         </is>
       </c>
       <c r="G52" t="n">
-        <v>1052.227083333333</v>
+        <v>961.8185714285714</v>
       </c>
       <c r="H52" t="n">
-        <v>1050.560416666666</v>
+        <v>961.5011111111111</v>
       </c>
     </row>
     <row r="53">
@@ -2118,30 +2118,30 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>黑色</t>
+          <t>白色</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>386</v>
+        <v>260</v>
       </c>
       <c r="D53" t="n">
-        <v>434</v>
+        <v>342</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Nest Green, Mobile tech mvw, COOLKK, Nomo Phone, U&amp;I, Tech Limited, CellShark, PMO, EU Telecoms BL LTD, Clevertronic, ApexY, 3Ciel, J.TECH LTD, NAMANPHONE SL, Wave Phones, CarreMobile, Online-Phones 24, LTDC SP. Z O.O., Bafobu</t>
+          <t>EC Troyes, PreOwned, Wave Phones, Tech Limited, Global Phones, Intoringy OÜ, Ironza, Bafobu, FastMobile, Clevertronic, MAGICH COMMERCE S.R.L.S., 3Ciel, Nest Green, Cellular Tech, ApexY, Online-Phones 24, LTDC SP. Z O.O., smrtek</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Nest Green, Mobile tech mvw, COOLKK, Nomo Phone, U&amp;I, Tech Limited, CellShark, PMO, EU Telecoms BL LTD, Clevertronic, ApexY, 3Ciel, J.TECH LTD, NAMANPHONE SL, Wave Phones, CarreMobile, Online-Phones 24, LTDC SP. Z O.O., Bafobu</t>
+          <t>EC Troyes, PreOwned, Wave Phones, Tech Limited, Global Phones, Intoringy OÜ, Ironza, Bafobu, FastMobile, Clevertronic, MAGICH COMMERCE S.R.L.S., 3Ciel, Nest Green, Cellular Tech, ApexY, Online-Phones 24, LTDC SP. Z O.O., smrtek</t>
         </is>
       </c>
       <c r="G53" t="n">
-        <v>961.8185714285714</v>
+        <v>968.0610526315787</v>
       </c>
       <c r="H53" t="n">
-        <v>961.5011111111111</v>
+        <v>967.657543859649</v>
       </c>
     </row>
     <row r="54">
@@ -2150,30 +2150,30 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>白色</t>
+          <t>玫瑰色</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="D54" t="n">
-        <v>342</v>
+        <v>268</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Ironza, Clevertronic, ApexY, Nest Green, smrtek, FastMobile, Global Phones, Intoringy OÜ, 3Ciel, Wave Phones, Online-Phones 24, Tech Limited, LTDC SP. Z O.O., EC Troyes, Cellular Tech, PreOwned, Bafobu, MAGICH COMMERCE S.R.L.S.</t>
+          <t>TopOne GmbH, Wave Phones, EU Telecoms BL LTD, Clevertronic, EC Epinal, U&amp;I, Simpatico Tech, Mobile tech mvw, FOX ONLINE, Nest Green, ApexY, Bafobu, CASH 31, LTDC SP. Z O.O., phonescom GmbH &amp; Co. KG</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Ironza, Clevertronic, ApexY, Nest Green, smrtek, FastMobile, Global Phones, Intoringy OÜ, 3Ciel, Wave Phones, Online-Phones 24, Tech Limited, LTDC SP. Z O.O., EC Troyes, Cellular Tech, PreOwned, Bafobu, MAGICH COMMERCE S.R.L.S.</t>
+          <t>TopOne GmbH, Wave Phones, EU Telecoms BL LTD, Clevertronic, Bafobu, EC Epinal, U&amp;I, Simpatico Tech, Mobile tech mvw, FOX ONLINE, Nest Green, ApexY, Online-Phones 24, CASH 31, LTDC SP. Z O.O., phonescom GmbH &amp; Co. KG</t>
         </is>
       </c>
       <c r="G54" t="n">
-        <v>968.0610526315787</v>
+        <v>1052.227083333333</v>
       </c>
       <c r="H54" t="n">
-        <v>967.657543859649</v>
+        <v>1050.560416666666</v>
       </c>
     </row>
     <row r="55">
@@ -2182,30 +2182,30 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>蓝绿色</t>
+          <t>群青蓝</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>119</v>
+        <v>199</v>
       </c>
       <c r="D55" t="n">
-        <v>119</v>
+        <v>193</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Clevertronic, ApexY, Nest Green, FastMobile, 3Ciel, Wave Phones, Elytelecom, U&amp;I, CarreMobile, Online-Phones 24, Tech Limited, LTDC SP. Z O.O., TopOne GmbH, Cellular Tech, CellShark, Bafobu</t>
+          <t>Wave Phones, Tech Limited, phonescom GmbH &amp; Co. KG, EC VANNES, PMO, Bafobu, U&amp;I, FastMobile, Simpatico Tech, Zwapa Mobile, Elytelecom, Cellular Tech, ApexY, Online-Phones 24, LTDC SP. Z O.O., asgoodasnew electronics, Nomo Phone</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Clevertronic, ApexY, Nest Green, FastMobile, 3Ciel, Wave Phones, Elytelecom, U&amp;I, CarreMobile, Online-Phones 24, Tech Limited, LTDC SP. Z O.O., TopOne GmbH, Cellular Tech, CellShark, Bafobu</t>
+          <t>Wave Phones, Tech Limited, phonescom GmbH &amp; Co. KG, EC VANNES, PMO, U&amp;I, Bafobu, FastMobile, Simpatico Tech, Zwapa Mobile, Elytelecom, Cellular Tech, ApexY, Online-Phones 24, LTDC SP. Z O.O., asgoodasnew electronics, Nomo Phone</t>
         </is>
       </c>
       <c r="G55" t="n">
-        <v>1014.506976744186</v>
+        <v>1033.946086956522</v>
       </c>
       <c r="H55" t="n">
-        <v>1014.483720930233</v>
+        <v>1033.315652173913</v>
       </c>
     </row>
     <row r="56">
@@ -2214,30 +2214,30 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>群青蓝</t>
+          <t>蓝绿色</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>199</v>
+        <v>119</v>
       </c>
       <c r="D56" t="n">
-        <v>193</v>
+        <v>119</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>ApexY, FastMobile, Zwapa Mobile, PMO, Nomo Phone, Wave Phones, asgoodasnew electronics, Elytelecom, Simpatico Tech, U&amp;I, Online-Phones 24, Tech Limited, LTDC SP. Z O.O., EC VANNES, Cellular Tech, Bafobu, phonescom GmbH &amp; Co. KG</t>
+          <t>TopOne GmbH, Tech Limited, Wave Phones, Clevertronic, Bafobu, U&amp;I, FastMobile, Elytelecom, 3Ciel, Nest Green, Cellular Tech, ApexY, Online-Phones 24, CarreMobile, LTDC SP. Z O.O., CellShark</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>ApexY, FastMobile, Zwapa Mobile, PMO, Nomo Phone, Wave Phones, asgoodasnew electronics, Elytelecom, Simpatico Tech, U&amp;I, Online-Phones 24, Tech Limited, LTDC SP. Z O.O., EC VANNES, Cellular Tech, Bafobu, phonescom GmbH &amp; Co. KG</t>
+          <t>TopOne GmbH, Tech Limited, Wave Phones, Clevertronic, Bafobu, U&amp;I, FastMobile, Elytelecom, 3Ciel, Nest Green, Cellular Tech, ApexY, Online-Phones 24, CarreMobile, LTDC SP. Z O.O., CellShark</t>
         </is>
       </c>
       <c r="G56" t="n">
-        <v>1033.946086956522</v>
+        <v>1014.506976744186</v>
       </c>
       <c r="H56" t="n">
-        <v>1033.315652173913</v>
+        <v>1014.483720930233</v>
       </c>
     </row>
     <row r="57">
@@ -2246,30 +2246,30 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>玫瑰色</t>
+          <t>黑色</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>310</v>
+        <v>504</v>
       </c>
       <c r="D57" t="n">
-        <v>311</v>
+        <v>539</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Clevertronic, J.TECH LTD, ApexY, Nest Green, smrtek, PMO, CASH 31, Mobile tech mvw, Wave Phones, U&amp;I, Online-Phones 24, FOX ONLINE, LTDC SP. Z O.O., TopOne GmbH, Alloccaz, Bafobu, MAGICH COMMERCE S.R.L.S.</t>
+          <t>TopOne GmbH, Wave Phones, Intoringy OÜ, PMO, U&amp;I, Bafobu, J.TECH LTD, Simpatico Tech, NAMANPHONE SL, Mobile tech mvw, 3Ciel, Nest Green, ApexY, Online-Phones 24, LTDC SP. Z O.O., CellShark, Nomo Phone</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Clevertronic, J.TECH LTD, ApexY, Nest Green, smrtek, PMO, CASH 31, Mobile tech mvw, Wave Phones, U&amp;I, Online-Phones 24, FOX ONLINE, LTDC SP. Z O.O., TopOne GmbH, Alloccaz, Bafobu, MAGICH COMMERCE S.R.L.S.</t>
+          <t>TopOne GmbH, Wave Phones, J.TECH LTD, PMO, U&amp;I, Simpatico Tech, NAMANPHONE SL, Mobile tech mvw, CellShark, 3Ciel, Nest Green, ApexY, Bafobu, LTDC SP. Z O.O., Online-Phones 24, Nomo Phone</t>
         </is>
       </c>
       <c r="G57" t="n">
-        <v>1009.555081967213</v>
+        <v>977.5705555555555</v>
       </c>
       <c r="H57" t="n">
-        <v>1007.846229508197</v>
+        <v>973.515</v>
       </c>
     </row>
     <row r="58">
@@ -2278,30 +2278,30 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>黑色</t>
+          <t>白色</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>504</v>
+        <v>454</v>
       </c>
       <c r="D58" t="n">
-        <v>539</v>
+        <v>531</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>J.TECH LTD, ApexY, Nest Green, PMO, Intoringy OÜ, 3Ciel, NAMANPHONE SL, Nomo Phone, Wave Phones, Mobile tech mvw, Simpatico Tech, U&amp;I, Online-Phones 24, LTDC SP. Z O.O., TopOne GmbH, CellShark, Bafobu</t>
+          <t>MAGICH COMMERCE S.R.L.S., Stellaris, 3Ciel, ApexY, J.TECH LTD, Intoringy OÜ, Bafobu, smrtek, PreOwned, Wave Phones, Tech Limited, Nest Green, Cellular Tech, LTDC SP. Z O.O., EC Troyes, Ironza, Clevertronic, FastMobile, Online-Phones 24</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>J.TECH LTD, ApexY, Nest Green, PMO, Mobile tech mvw, 3Ciel, NAMANPHONE SL, Nomo Phone, Wave Phones, Simpatico Tech, U&amp;I, Online-Phones 24, LTDC SP. Z O.O., TopOne GmbH, CellShark, Bafobu</t>
+          <t>MAGICH COMMERCE S.R.L.S., Stellaris, 3Ciel, ApexY, J.TECH LTD, Nomo Phone, Bafobu, smrtek, PreOwned, Wave Phones, Tech Limited, Nest Green, Cellular Tech, LTDC SP. Z O.O., EC Troyes, Ironza, Clevertronic, FastMobile, Online-Phones 24</t>
         </is>
       </c>
       <c r="G58" t="n">
-        <v>977.5705555555555</v>
+        <v>982.5407692307691</v>
       </c>
       <c r="H58" t="n">
-        <v>973.515</v>
+        <v>982.1321538461538</v>
       </c>
     </row>
     <row r="59">
@@ -2310,30 +2310,30 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>白色</t>
+          <t>玫瑰色</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>454</v>
+        <v>310</v>
       </c>
       <c r="D59" t="n">
-        <v>531</v>
+        <v>311</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Nest Green, Tech Limited, Cellular Tech, Intoringy OÜ, Stellaris, MAGICH COMMERCE S.R.L.S., Clevertronic, ApexY, smrtek, FastMobile, 3Ciel, PreOwned, Ironza, J.TECH LTD, Wave Phones, Online-Phones 24, LTDC SP. Z O.O., EC Troyes, Bafobu</t>
+          <t>TopOne GmbH, Wave Phones, ApexY, J.TECH LTD, Clevertronic, U&amp;I, PMO, Mobile tech mvw, MAGICH COMMERCE S.R.L.S., FOX ONLINE, Nest Green, Alloccaz, Bafobu, CASH 31, LTDC SP. Z O.O., Online-Phones 24, smrtek</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Nest Green, Nomo Phone, Tech Limited, Cellular Tech, Stellaris, MAGICH COMMERCE S.R.L.S., Clevertronic, ApexY, smrtek, FastMobile, 3Ciel, PreOwned, Ironza, J.TECH LTD, Wave Phones, Online-Phones 24, LTDC SP. Z O.O., EC Troyes, Bafobu</t>
+          <t>TopOne GmbH, Wave Phones, ApexY, J.TECH LTD, Clevertronic, U&amp;I, PMO, Mobile tech mvw, MAGICH COMMERCE S.R.L.S., FOX ONLINE, Nest Green, Alloccaz, Bafobu, CASH 31, LTDC SP. Z O.O., Online-Phones 24, smrtek</t>
         </is>
       </c>
       <c r="G59" t="n">
-        <v>982.5407692307691</v>
+        <v>1009.555081967213</v>
       </c>
       <c r="H59" t="n">
-        <v>982.1321538461538</v>
+        <v>1007.846229508197</v>
       </c>
     </row>
     <row r="60">
@@ -2342,30 +2342,30 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>蓝绿色</t>
+          <t>群青蓝</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>171</v>
+        <v>324</v>
       </c>
       <c r="D60" t="n">
-        <v>172</v>
+        <v>323</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>J.TECH LTD, Clevertronic, ApexY, Nest Green, FastMobile, PMO, 3Ciel, Wave Phones, Elytelecom, U&amp;I, Stellaris, Online-Phones 24, Tech Limited, LTDC SP. Z O.O., Cellular Tech, CellShark, Bafobu, MAGICH COMMERCE S.R.L.S.</t>
+          <t>TopOne GmbH, Wave Phones, Tech Limited, PMO, Bafobu, FastMobile, Simpatico Tech, Stellaris, Alloccaz, Zwapa Mobile, Elytelecom, Nest Green, Cellular Tech, ApexY, Online-Phones 24, LTDC SP. Z O.O., asgoodasnew electronics, Nomo Phone</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>J.TECH LTD, Clevertronic, ApexY, Nest Green, FastMobile, PMO, 3Ciel, Wave Phones, Elytelecom, U&amp;I, Stellaris, Online-Phones 24, Tech Limited, LTDC SP. Z O.O., Cellular Tech, CellShark, Bafobu, MAGICH COMMERCE S.R.L.S.</t>
+          <t>TopOne GmbH, Wave Phones, Tech Limited, PMO, Bafobu, FastMobile, Simpatico Tech, Stellaris, Alloccaz, Zwapa Mobile, Elytelecom, Nest Green, Cellular Tech, ApexY, Online-Phones 24, LTDC SP. Z O.O., asgoodasnew electronics, Nomo Phone</t>
         </is>
       </c>
       <c r="G60" t="n">
-        <v>986.1437931034482</v>
+        <v>1006.603050847458</v>
       </c>
       <c r="H60" t="n">
-        <v>985.7693103448275</v>
+        <v>1006.603050847458</v>
       </c>
     </row>
     <row r="61">
@@ -2374,30 +2374,30 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>群青蓝</t>
+          <t>蓝绿色</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>324</v>
+        <v>171</v>
       </c>
       <c r="D61" t="n">
-        <v>323</v>
+        <v>172</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>ApexY, Nest Green, FastMobile, Zwapa Mobile, PMO, Nomo Phone, Wave Phones, asgoodasnew electronics, Elytelecom, Simpatico Tech, Stellaris, Online-Phones 24, Tech Limited, LTDC SP. Z O.O., TopOne GmbH, Alloccaz, Cellular Tech, Bafobu</t>
+          <t>Tech Limited, Wave Phones, J.TECH LTD, Clevertronic, Bafobu, U&amp;I, FastMobile, MAGICH COMMERCE S.R.L.S., Stellaris, LTDC SP. Z O.O., Elytelecom, 3Ciel, Nest Green, Cellular Tech, ApexY, Online-Phones 24, PMO, CellShark</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>ApexY, Nest Green, FastMobile, Zwapa Mobile, PMO, Nomo Phone, Wave Phones, asgoodasnew electronics, Elytelecom, Simpatico Tech, Stellaris, Online-Phones 24, Tech Limited, LTDC SP. Z O.O., TopOne GmbH, Alloccaz, Cellular Tech, Bafobu</t>
+          <t>Tech Limited, Wave Phones, J.TECH LTD, Clevertronic, Bafobu, U&amp;I, FastMobile, MAGICH COMMERCE S.R.L.S., Stellaris, LTDC SP. Z O.O., Elytelecom, 3Ciel, Nest Green, Cellular Tech, ApexY, Online-Phones 24, PMO, CellShark</t>
         </is>
       </c>
       <c r="G61" t="n">
-        <v>1006.603050847458</v>
+        <v>986.1437931034482</v>
       </c>
       <c r="H61" t="n">
-        <v>1006.603050847458</v>
+        <v>985.7693103448275</v>
       </c>
     </row>
     <row r="62">
@@ -2406,30 +2406,30 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>玫瑰色</t>
+          <t>黑色</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="D62" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Clevertronic, J.TECH LTD, ApexY, Nest Green, PMO, CASH 31, Mobile tech mvw, Wave Phones, Stellaris, Online-Phones 24, FOX ONLINE, LTDC SP. Z O.O., TopOne GmbH, Alloccaz, TechBloom, Bafobu</t>
+          <t>U&amp;I, Mobile tech mvw, Stellaris, 3Ciel, J.TECH LTD, ApexY, Nomo Phone, TopOne GmbH, Bafobu, PMO, smrtek, Wave Phones, MG Trading, Nest Green, LTDC SP. Z O.O., CellShark, Up-Tech Lepel B.V., Futurephones-shop, NAMANPHONE SL, Online-Phones 24, Tecnoutlet2020</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Clevertronic, J.TECH LTD, ApexY, Nest Green, PMO, CASH 31, Mobile tech mvw, Wave Phones, Stellaris, Online-Phones 24, FOX ONLINE, LTDC SP. Z O.O., TopOne GmbH, Alloccaz, TechBloom, Bafobu</t>
+          <t>U&amp;I, Mobile tech mvw, Stellaris, 3Ciel, J.TECH LTD, ApexY, Nomo Phone, TopOne GmbH, Bafobu, PMO, smrtek, Wave Phones, MG Trading, Nest Green, LTDC SP. Z O.O., CellShark, Up-Tech Lepel B.V., Futurephones-shop, NAMANPHONE SL, Online-Phones 24, Tecnoutlet2020</t>
         </is>
       </c>
       <c r="G62" t="n">
-        <v>1005.5425</v>
+        <v>960.7806849315069</v>
       </c>
       <c r="H62" t="n">
-        <v>1005.5425</v>
+        <v>960.7806849315069</v>
       </c>
     </row>
     <row r="63">
@@ -2438,30 +2438,30 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>黑色</t>
+          <t>白色</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>500</v>
+        <v>527</v>
       </c>
       <c r="D63" t="n">
-        <v>500</v>
+        <v>527</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Nest Green, Mobile tech mvw, Nomo Phone, U&amp;I, CellShark, PMO, Stellaris, TopOne GmbH, ApexY, smrtek, 3Ciel, MG Trading, J.TECH LTD, Up-Tech Lepel B.V., NAMANPHONE SL, Wave Phones, Futurephones-shop, Online-Phones 24, LTDC SP. Z O.O., Bafobu, Tecnoutlet2020</t>
+          <t>PreOwned, Wave Phones, Tech Limited, Intoringy OÜ, J.TECH LTD, Bafobu, Ironza, FastMobile, Stellaris, Cellular Tech, ApexY, Online-Phones 24, TechBloom, Tecnoutlet2020, LTDC SP. Z O.O., smrtek</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Nest Green, Mobile tech mvw, Nomo Phone, U&amp;I, CellShark, PMO, Stellaris, TopOne GmbH, ApexY, smrtek, 3Ciel, MG Trading, J.TECH LTD, Up-Tech Lepel B.V., NAMANPHONE SL, Wave Phones, Futurephones-shop, Online-Phones 24, LTDC SP. Z O.O., Bafobu, Tecnoutlet2020</t>
+          <t>PreOwned, Wave Phones, Tech Limited, Intoringy OÜ, J.TECH LTD, Bafobu, Ironza, FastMobile, Stellaris, Cellular Tech, ApexY, Online-Phones 24, TechBloom, Tecnoutlet2020, LTDC SP. Z O.O., smrtek</t>
         </is>
       </c>
       <c r="G63" t="n">
-        <v>960.7806849315069</v>
+        <v>970.1093442622949</v>
       </c>
       <c r="H63" t="n">
-        <v>960.7806849315069</v>
+        <v>970.1093442622949</v>
       </c>
     </row>
     <row r="64">
@@ -2470,30 +2470,30 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>白色</t>
+          <t>玫瑰色</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>527</v>
+        <v>300</v>
       </c>
       <c r="D64" t="n">
-        <v>527</v>
+        <v>300</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>J.TECH LTD, ApexY, smrtek, FastMobile, Intoringy OÜ, TechBloom, Wave Phones, Stellaris, Online-Phones 24, Tech Limited, LTDC SP. Z O.O., Cellular Tech, PreOwned, Bafobu, Tecnoutlet2020, Ironza</t>
+          <t>TopOne GmbH, Wave Phones, J.TECH LTD, Clevertronic, Bafobu, Mobile tech mvw, Stellaris, CASH 31, LTDC SP. Z O.O., FOX ONLINE, Alloccaz, Nest Green, ApexY, Online-Phones 24, TechBloom, PMO</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>J.TECH LTD, ApexY, smrtek, FastMobile, Intoringy OÜ, TechBloom, Wave Phones, Stellaris, Online-Phones 24, Tech Limited, LTDC SP. Z O.O., Cellular Tech, PreOwned, Bafobu, Tecnoutlet2020, Ironza</t>
+          <t>TopOne GmbH, Wave Phones, J.TECH LTD, Clevertronic, Bafobu, Mobile tech mvw, Stellaris, CASH 31, LTDC SP. Z O.O., FOX ONLINE, Alloccaz, Nest Green, ApexY, Online-Phones 24, TechBloom, PMO</t>
         </is>
       </c>
       <c r="G64" t="n">
-        <v>970.1093442622949</v>
+        <v>1005.5425</v>
       </c>
       <c r="H64" t="n">
-        <v>970.1093442622949</v>
+        <v>1005.5425</v>
       </c>
     </row>
     <row r="65">
@@ -2502,30 +2502,30 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>蓝绿色</t>
+          <t>群青蓝</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>206</v>
+        <v>310</v>
       </c>
       <c r="D65" t="n">
-        <v>206</v>
+        <v>310</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>J.TECH LTD, Clevertronic, ApexY, Nest Green, FastMobile, PMO, Intoringy OÜ, 3Ciel, Wave Phones, Elytelecom, Online-Phones 24, Tech Limited, LTDC SP. Z O.O., Cellular Tech, CellShark, Bafobu, Tecnoutlet2020</t>
+          <t>TopOne GmbH, Wave Phones, Tech Limited, Clevertronic, Bafobu, PMO, Simpatico Tech, Stellaris, Alloccaz, Elytelecom, 3Ciel, ApexY, Online-Phones 24, CarreMobile, LTDC SP. Z O.O., asgoodasnew electronics, Nomo Phone</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>J.TECH LTD, Clevertronic, ApexY, Nest Green, FastMobile, PMO, Intoringy OÜ, 3Ciel, Wave Phones, Elytelecom, Online-Phones 24, Tech Limited, LTDC SP. Z O.O., Cellular Tech, CellShark, Bafobu, Tecnoutlet2020</t>
+          <t>TopOne GmbH, Wave Phones, Tech Limited, Clevertronic, Bafobu, PMO, Simpatico Tech, Stellaris, Alloccaz, Elytelecom, 3Ciel, ApexY, Online-Phones 24, CarreMobile, LTDC SP. Z O.O., asgoodasnew electronics, Nomo Phone</t>
         </is>
       </c>
       <c r="G65" t="n">
-        <v>970.1678846153845</v>
+        <v>1004.6396</v>
       </c>
       <c r="H65" t="n">
-        <v>970.1678846153845</v>
+        <v>1004.6396</v>
       </c>
     </row>
     <row r="66">
@@ -2534,30 +2534,30 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>群青蓝</t>
+          <t>蓝绿色</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>310</v>
+        <v>206</v>
       </c>
       <c r="D66" t="n">
-        <v>310</v>
+        <v>206</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Clevertronic, ApexY, PMO, 3Ciel, Nomo Phone, Wave Phones, asgoodasnew electronics, Elytelecom, Simpatico Tech, CarreMobile, Stellaris, Online-Phones 24, Tech Limited, LTDC SP. Z O.O., TopOne GmbH, Alloccaz, Bafobu</t>
+          <t>Wave Phones, Tech Limited, ApexY, Intoringy OÜ, Clevertronic, Bafobu, FastMobile, LTDC SP. Z O.O., Elytelecom, 3Ciel, Nest Green, Cellular Tech, J.TECH LTD, Online-Phones 24, Tecnoutlet2020, PMO, CellShark</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Clevertronic, ApexY, PMO, 3Ciel, Nomo Phone, Wave Phones, asgoodasnew electronics, Elytelecom, Simpatico Tech, CarreMobile, Stellaris, Online-Phones 24, Tech Limited, LTDC SP. Z O.O., TopOne GmbH, Alloccaz, Bafobu</t>
+          <t>Wave Phones, Tech Limited, ApexY, Intoringy OÜ, Clevertronic, Bafobu, FastMobile, LTDC SP. Z O.O., Elytelecom, 3Ciel, Nest Green, Cellular Tech, J.TECH LTD, Online-Phones 24, Tecnoutlet2020, PMO, CellShark</t>
         </is>
       </c>
       <c r="G66" t="n">
-        <v>1004.6396</v>
+        <v>970.1678846153845</v>
       </c>
       <c r="H66" t="n">
-        <v>1004.6396</v>
+        <v>970.1678846153845</v>
       </c>
     </row>
     <row r="67">
@@ -2566,30 +2566,30 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>玫瑰色</t>
+          <t>黑色</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>500</v>
+        <v>718</v>
       </c>
       <c r="D67" t="n">
-        <v>496</v>
+        <v>804</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Clevertronic, ApexY, Alloccaz, Mobile tech mvw, 3Ciel, Wave Phones, U&amp;I, Online-Phones 24, FOX ONLINE, LTDC SP. Z O.O., TopOne GmbH, CASH 31, Bafobu, VantaCore, ELITE GADGET LIMITED</t>
+          <t>U&amp;I, Mobile tech mvw, Stellaris, 3Ciel, ApexY, J.TECH LTD, Nomo Phone, EU Telecoms BL LTD, VantaCore, Bafobu, PMO, asgoodasnew electronics, smrtek, Wave Phones, IT Place, Nest Green, LTDC SP. Z O.O., CellShark, Up-Tech Lepel B.V., Clevertronic, NAMANPHONE SL, Online-Phones 24, Tecnoutlet2020</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Clevertronic, ApexY, Alloccaz, Mobile tech mvw, 3Ciel, Wave Phones, U&amp;I, Online-Phones 24, FOX ONLINE, LTDC SP. Z O.O., TopOne GmbH, CASH 31, Bafobu, VantaCore, ELITE GADGET LIMITED</t>
+          <t>U&amp;I, Mobile tech mvw, Stellaris, 3Ciel, ApexY, J.TECH LTD, PhoneStore, Nomo Phone, EU Telecoms BL LTD, VantaCore, Bafobu, PMO, smrtek, Wave Phones, Tech Limited, IT Place, Nest Green, Cellular Tech, LTDC SP. Z O.O., CellShark, Up-Tech Lepel B.V., Clevertronic, NAMANPHONE SL, Online-Phones 24, Tecnoutlet2020</t>
         </is>
       </c>
       <c r="G67" t="n">
-        <v>999.6344927536231</v>
+        <v>954.6588749999999</v>
       </c>
       <c r="H67" t="n">
-        <v>999.6055072463768</v>
+        <v>949.8228750000001</v>
       </c>
     </row>
     <row r="68">
@@ -2598,30 +2598,30 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>黑色</t>
+          <t>白色</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>718</v>
+        <v>485</v>
       </c>
       <c r="D68" t="n">
-        <v>804</v>
+        <v>475</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Nest Green, Mobile tech mvw, Nomo Phone, U&amp;I, CellShark, PMO, EU Telecoms BL LTD, Stellaris, VantaCore, Clevertronic, ApexY, smrtek, 3Ciel, asgoodasnew electronics, IT Place, J.TECH LTD, Up-Tech Lepel B.V., NAMANPHONE SL, Wave Phones, Online-Phones 24, LTDC SP. Z O.O., Bafobu, Tecnoutlet2020</t>
+          <t>Mobile tech mvw, Stellaris, 3Ciel, J.TECH LTD, ApexY, Nomo Phone, EU Telecoms BL LTD, VantaCore, Intoringy OÜ, Bafobu, PMO, smrtek, Wave Phones, Tech Limited, Cellular Tech, LTDC SP. Z O.O., Ironza, Clevertronic, FastMobile, Online-Phones 24, Tecnoutlet2020</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Nest Green, Mobile tech mvw, Nomo Phone, U&amp;I, Tech Limited, CellShark, Cellular Tech, PhoneStore, PMO, EU Telecoms BL LTD, Stellaris, VantaCore, Clevertronic, ApexY, smrtek, 3Ciel, IT Place, J.TECH LTD, Up-Tech Lepel B.V., NAMANPHONE SL, Wave Phones, Online-Phones 24, LTDC SP. Z O.O., Bafobu, Tecnoutlet2020</t>
+          <t>Mobile tech mvw, Stellaris, 3Ciel, J.TECH LTD, ApexY, Nomo Phone, EU Telecoms BL LTD, VantaCore, Intoringy OÜ, Bafobu, PMO, smrtek, Wave Phones, Tech Limited, Cellular Tech, LTDC SP. Z O.O., Ironza, Clevertronic, FastMobile, Online-Phones 24, Tecnoutlet2020</t>
         </is>
       </c>
       <c r="G68" t="n">
-        <v>954.6588749999999</v>
+        <v>967.3002702702701</v>
       </c>
       <c r="H68" t="n">
-        <v>949.8228750000001</v>
+        <v>971.9231081081078</v>
       </c>
     </row>
     <row r="69">
@@ -2630,30 +2630,30 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>白色</t>
+          <t>玫瑰色</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>485</v>
+        <v>500</v>
       </c>
       <c r="D69" t="n">
-        <v>475</v>
+        <v>496</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Mobile tech mvw, Nomo Phone, Tech Limited, Cellular Tech, PMO, Intoringy OÜ, EU Telecoms BL LTD, Stellaris, VantaCore, Clevertronic, ApexY, smrtek, FastMobile, 3Ciel, Ironza, J.TECH LTD, Wave Phones, Online-Phones 24, LTDC SP. Z O.O., Bafobu, Tecnoutlet2020</t>
+          <t>TopOne GmbH, Wave Phones, VantaCore, Clevertronic, U&amp;I, Bafobu, Mobile tech mvw, FOX ONLINE, Alloccaz, 3Ciel, ApexY, Online-Phones 24, CASH 31, LTDC SP. Z O.O., ELITE GADGET LIMITED</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Mobile tech mvw, Nomo Phone, Tech Limited, Cellular Tech, PMO, Intoringy OÜ, EU Telecoms BL LTD, Stellaris, VantaCore, Clevertronic, ApexY, smrtek, FastMobile, 3Ciel, Ironza, J.TECH LTD, Wave Phones, Online-Phones 24, LTDC SP. Z O.O., Bafobu, Tecnoutlet2020</t>
+          <t>TopOne GmbH, Wave Phones, VantaCore, Clevertronic, U&amp;I, Bafobu, Mobile tech mvw, FOX ONLINE, Alloccaz, 3Ciel, ApexY, Online-Phones 24, CASH 31, LTDC SP. Z O.O., ELITE GADGET LIMITED</t>
         </is>
       </c>
       <c r="G69" t="n">
-        <v>967.3002702702701</v>
+        <v>999.6344927536231</v>
       </c>
       <c r="H69" t="n">
-        <v>971.9231081081078</v>
+        <v>999.6055072463768</v>
       </c>
     </row>
     <row r="70">
@@ -2662,30 +2662,30 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>蓝绿色</t>
+          <t>群青蓝</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>306</v>
+        <v>378</v>
       </c>
       <c r="D70" t="n">
-        <v>303</v>
+        <v>386</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Nest Green, Mobile tech mvw, Tech Limited, Cellular Tech, CellShark, PMO, Intoringy OÜ, EU Telecoms BL LTD, Stellaris, TopOne GmbH, Alloccaz, VantaCore, Clevertronic, ApexY, FastMobile, 3Ciel, J.TECH LTD, Wave Phones, Elytelecom, Online-Phones 24, LTDC SP. Z O.O., Bafobu, Tecnoutlet2020</t>
+          <t>Mobile tech mvw, Stellaris, Zwapa Mobile, 3Ciel, ApexY, Nomo Phone, Bafobu, CarreMobile, PMO, asgoodasnew electronics, Wave Phones, Tech Limited, Nest Green, Alloccaz, LTDC SP. Z O.O., Clevertronic, Simpatico Tech, Elytelecom, Online-Phones 24</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Nest Green, Mobile tech mvw, Tech Limited, Cellular Tech, CellShark, PMO, EU Telecoms BL LTD, Stellaris, TopOne GmbH, Alloccaz, VantaCore, Clevertronic, ApexY, FastMobile, 3Ciel, J.TECH LTD, Wave Phones, Elytelecom, Online-Phones 24, LTDC SP. Z O.O., Bafobu, Tecnoutlet2020</t>
+          <t>Mobile tech mvw, Stellaris, Zwapa Mobile, 3Ciel, ApexY, Nomo Phone, VantaCore, Bafobu, CarreMobile, PMO, asgoodasnew electronics, Wave Phones, Tech Limited, Nest Green, Alloccaz, LTDC SP. Z O.O., Clevertronic, Simpatico Tech, Elytelecom, Online-Phones 24</t>
         </is>
       </c>
       <c r="G70" t="n">
-        <v>944.5204411764706</v>
+        <v>989.3173529411765</v>
       </c>
       <c r="H70" t="n">
-        <v>943.1126470588234</v>
+        <v>987.1373529411767</v>
       </c>
     </row>
     <row r="71">
@@ -2694,30 +2694,30 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>群青蓝</t>
+          <t>蓝绿色</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>378</v>
+        <v>306</v>
       </c>
       <c r="D71" t="n">
-        <v>387</v>
+        <v>303</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Nest Green, Mobile tech mvw, Nomo Phone, Tech Limited, PMO, Stellaris, Alloccaz, Clevertronic, ApexY, Zwapa Mobile, 3Ciel, asgoodasnew electronics, Wave Phones, Elytelecom, Simpatico Tech, CarreMobile, Online-Phones 24, LTDC SP. Z O.O., Bafobu</t>
+          <t>Mobile tech mvw, Stellaris, 3Ciel, ApexY, J.TECH LTD, TopOne GmbH, EU Telecoms BL LTD, VantaCore, Intoringy OÜ, Bafobu, PMO, Tech Limited, Wave Phones, Nest Green, Cellular Tech, Alloccaz, LTDC SP. Z O.O., CellShark, Clevertronic, FastMobile, Elytelecom, Online-Phones 24, Tecnoutlet2020</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Nest Green, Mobile tech mvw, Nomo Phone, Tech Limited, PMO, Stellaris, Alloccaz, VantaCore, Clevertronic, ApexY, Zwapa Mobile, 3Ciel, asgoodasnew electronics, Wave Phones, Elytelecom, Simpatico Tech, CarreMobile, Online-Phones 24, LTDC SP. Z O.O., Bafobu</t>
+          <t>Mobile tech mvw, Stellaris, 3Ciel, ApexY, J.TECH LTD, TopOne GmbH, EU Telecoms BL LTD, VantaCore, Bafobu, PMO, Wave Phones, Tech Limited, Nest Green, Cellular Tech, Alloccaz, LTDC SP. Z O.O., CellShark, Clevertronic, FastMobile, Elytelecom, Online-Phones 24, Tecnoutlet2020</t>
         </is>
       </c>
       <c r="G71" t="n">
-        <v>989.3173529411765</v>
+        <v>944.5204411764706</v>
       </c>
       <c r="H71" t="n">
-        <v>987.1373529411767</v>
+        <v>943.1126470588234</v>
       </c>
     </row>
     <row r="72">
@@ -2726,30 +2726,30 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>玫瑰色</t>
+          <t>黑色</t>
         </is>
       </c>
       <c r="C72" t="n">
-        <v>455</v>
+        <v>596</v>
       </c>
       <c r="D72" t="n">
-        <v>454</v>
+        <v>597</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Nest Green, Mobile tech mvw, U&amp;I, CASH 31, PMO, TopOne GmbH, Alloccaz, TechBloom, VantaCore, Clevertronic, ApexY, 3Ciel, J.TECH LTD, Wave Phones, Online-Phones 24, FOX ONLINE, LTDC SP. Z O.O., ELITE GADGET LIMITED, Bafobu</t>
+          <t>U&amp;I, Mobile tech mvw, Stellaris, 3Ciel, J.TECH LTD, ApexY, PhoneStore, Nomo Phone, VantaCore, Bafobu, CarreMobile, PMO, asgoodasnew electronics, Wave Phones, IT Place, Nest Green, Cellular Tech, LTDC SP. Z O.O., CellShark, Clevertronic, NAMANPHONE SL, Online-Phones 24, Tecnoutlet2020</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Nest Green, Mobile tech mvw, U&amp;I, CASH 31, PMO, TopOne GmbH, Alloccaz, TechBloom, VantaCore, Clevertronic, ApexY, 3Ciel, J.TECH LTD, Wave Phones, Online-Phones 24, FOX ONLINE, LTDC SP. Z O.O., ELITE GADGET LIMITED, Bafobu</t>
+          <t>U&amp;I, Mobile tech mvw, Stellaris, 3Ciel, J.TECH LTD, ApexY, PhoneStore, Nomo Phone, VantaCore, Bafobu, CarreMobile, PMO, asgoodasnew electronics, Wave Phones, IT Place, Nest Green, Cellular Tech, LTDC SP. Z O.O., CellShark, Clevertronic, NAMANPHONE SL, Online-Phones 24, rego, Tecnoutlet2020</t>
         </is>
       </c>
       <c r="G72" t="n">
-        <v>1009.391774193548</v>
+        <v>953.9693506493506</v>
       </c>
       <c r="H72" t="n">
-        <v>1009.690806451613</v>
+        <v>953.8264935064935</v>
       </c>
     </row>
     <row r="73">
@@ -2758,30 +2758,30 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>黑色</t>
+          <t>白色</t>
         </is>
       </c>
       <c r="C73" t="n">
-        <v>596</v>
+        <v>584</v>
       </c>
       <c r="D73" t="n">
-        <v>597</v>
+        <v>584</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Nest Green, Mobile tech mvw, Nomo Phone, U&amp;I, CellShark, Cellular Tech, PhoneStore, PMO, Stellaris, VantaCore, Clevertronic, ApexY, 3Ciel, asgoodasnew electronics, IT Place, J.TECH LTD, NAMANPHONE SL, Wave Phones, CarreMobile, Online-Phones 24, LTDC SP. Z O.O., Bafobu, Tecnoutlet2020</t>
+          <t>Stellaris, 3Ciel, ApexY, J.TECH LTD, Nomo Phone, VantaCore, Intoringy OÜ, Bafobu, CarreMobile, smrtek, Wave Phones, Tech Limited, Cellular Tech, LTDC SP. Z O.O., ChancenBörse, Ironza, Clevertronic, FastMobile, Online-Phones 24, Tecnoutlet2020</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Nest Green, Mobile tech mvw, Nomo Phone, U&amp;I, CellShark, Cellular Tech, PhoneStore, PMO, Stellaris, VantaCore, Clevertronic, ApexY, rego, 3Ciel, asgoodasnew electronics, IT Place, J.TECH LTD, NAMANPHONE SL, Wave Phones, CarreMobile, Online-Phones 24, LTDC SP. Z O.O., Bafobu, Tecnoutlet2020</t>
+          <t>Stellaris, 3Ciel, ApexY, J.TECH LTD, Nomo Phone, VantaCore, Intoringy OÜ, Bafobu, CarreMobile, smrtek, Wave Phones, Tech Limited, Cellular Tech, LTDC SP. Z O.O., ChancenBörse, Ironza, Clevertronic, FastMobile, Online-Phones 24, Tecnoutlet2020</t>
         </is>
       </c>
       <c r="G73" t="n">
-        <v>953.9693506493506</v>
+        <v>964.3789041095891</v>
       </c>
       <c r="H73" t="n">
-        <v>953.8264935064935</v>
+        <v>962.471506849315</v>
       </c>
     </row>
     <row r="74">
@@ -2790,30 +2790,30 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>白色</t>
+          <t>玫瑰色</t>
         </is>
       </c>
       <c r="C74" t="n">
-        <v>584</v>
+        <v>455</v>
       </c>
       <c r="D74" t="n">
-        <v>584</v>
+        <v>454</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Nomo Phone, ChancenBörse, Tech Limited, Cellular Tech, Intoringy OÜ, Stellaris, VantaCore, Clevertronic, ApexY, smrtek, FastMobile, 3Ciel, Ironza, J.TECH LTD, Wave Phones, CarreMobile, Online-Phones 24, LTDC SP. Z O.O., Bafobu, Tecnoutlet2020</t>
+          <t>U&amp;I, Mobile tech mvw, FOX ONLINE, 3Ciel, ApexY, J.TECH LTD, TechBloom, TopOne GmbH, VantaCore, Bafobu, PMO, Wave Phones, Nest Green, Alloccaz, LTDC SP. Z O.O., ELITE GADGET LIMITED, Clevertronic, Online-Phones 24, CASH 31</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Nomo Phone, ChancenBörse, Tech Limited, Cellular Tech, Intoringy OÜ, Stellaris, VantaCore, Clevertronic, ApexY, smrtek, FastMobile, 3Ciel, Ironza, J.TECH LTD, Wave Phones, CarreMobile, Online-Phones 24, LTDC SP. Z O.O., Bafobu, Tecnoutlet2020</t>
+          <t>U&amp;I, Mobile tech mvw, FOX ONLINE, 3Ciel, ApexY, J.TECH LTD, TechBloom, TopOne GmbH, VantaCore, Bafobu, PMO, Wave Phones, Nest Green, Alloccaz, LTDC SP. Z O.O., ELITE GADGET LIMITED, Clevertronic, Online-Phones 24, CASH 31</t>
         </is>
       </c>
       <c r="G74" t="n">
-        <v>964.3789041095891</v>
+        <v>1009.391774193548</v>
       </c>
       <c r="H74" t="n">
-        <v>962.471506849315</v>
+        <v>1009.690806451613</v>
       </c>
     </row>
     <row r="75">
@@ -2822,30 +2822,30 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>蓝绿色</t>
+          <t>群青蓝</t>
         </is>
       </c>
       <c r="C75" t="n">
-        <v>305</v>
+        <v>325</v>
       </c>
       <c r="D75" t="n">
-        <v>303</v>
+        <v>288</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Nest Green, Walchen New Life GmbH, Nomo Phone, Tech Limited, Cellular Tech, CellShark, PMO, Stellaris, VantaCore, Clevertronic, ApexY, FastMobile, 3Ciel, J.TECH LTD, Wave Phones, Elytelecom, Online-Phones 24, LTDC SP. Z O.O., Bafobu, Tecnoutlet2020</t>
+          <t>Stellaris, Zwapa Mobile, 3Ciel, ApexY, Nomo Phone, VantaCore, Bafobu, CarreMobile, PMO, Wave Phones, Tech Limited, IT Place, Nest Green, Alloccaz, LTDC SP. Z O.O., Phone, Clevertronic, Walchen New Life GmbH, Elytelecom, Online-Phones 24</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Nest Green, Walchen New Life GmbH, Nomo Phone, Tech Limited, Cellular Tech, CellShark, PMO, Stellaris, VantaCore, Clevertronic, ApexY, FastMobile, 3Ciel, J.TECH LTD, Wave Phones, Elytelecom, Online-Phones 24, LTDC SP. Z O.O., Bafobu, Tecnoutlet2020</t>
+          <t>Stellaris, Zwapa Mobile, 3Ciel, ApexY, Nomo Phone, VantaCore, Bafobu, PMO, Wave Phones, Tech Limited, IT Place, Nest Green, Alloccaz, LTDC SP. Z O.O., Phone, Clevertronic, Elytelecom, Online-Phones 24, rego</t>
         </is>
       </c>
       <c r="G75" t="n">
-        <v>959.2188059701492</v>
+        <v>979.7991304347826</v>
       </c>
       <c r="H75" t="n">
-        <v>960.6964179104477</v>
+        <v>977.5491304347826</v>
       </c>
     </row>
     <row r="76">
@@ -2854,30 +2854,30 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>群青蓝</t>
+          <t>蓝绿色</t>
         </is>
       </c>
       <c r="C76" t="n">
-        <v>325</v>
+        <v>305</v>
       </c>
       <c r="D76" t="n">
-        <v>288</v>
+        <v>303</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Nest Green, Walchen New Life GmbH, Nomo Phone, Tech Limited, PMO, Stellaris, Alloccaz, VantaCore, Clevertronic, ApexY, Zwapa Mobile, 3Ciel, IT Place, Phone, Wave Phones, Elytelecom, CarreMobile, Online-Phones 24, LTDC SP. Z O.O., Bafobu</t>
+          <t>Stellaris, 3Ciel, ApexY, J.TECH LTD, Nomo Phone, VantaCore, Bafobu, PMO, Wave Phones, Tech Limited, Nest Green, Cellular Tech, LTDC SP. Z O.O., CellShark, Clevertronic, FastMobile, Walchen New Life GmbH, Elytelecom, Online-Phones 24, Tecnoutlet2020</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Nest Green, Nomo Phone, Tech Limited, PMO, Stellaris, Alloccaz, VantaCore, Clevertronic, ApexY, rego, Zwapa Mobile, 3Ciel, IT Place, Phone, Wave Phones, Elytelecom, Online-Phones 24, LTDC SP. Z O.O., Bafobu</t>
+          <t>Stellaris, 3Ciel, ApexY, J.TECH LTD, Nomo Phone, VantaCore, Bafobu, PMO, Wave Phones, Tech Limited, Nest Green, Cellular Tech, LTDC SP. Z O.O., CellShark, Clevertronic, FastMobile, Walchen New Life GmbH, Elytelecom, Online-Phones 24, Tecnoutlet2020</t>
         </is>
       </c>
       <c r="G76" t="n">
-        <v>979.7991304347826</v>
+        <v>959.2188059701492</v>
       </c>
       <c r="H76" t="n">
-        <v>977.5491304347826</v>
+        <v>960.6964179104477</v>
       </c>
     </row>
     <row r="77">
@@ -2886,30 +2886,30 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>玫瑰色</t>
+          <t>黑色</t>
         </is>
       </c>
       <c r="C77" t="n">
-        <v>489</v>
+        <v>1223</v>
       </c>
       <c r="D77" t="n">
-        <v>443</v>
+        <v>1233</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Clevertronic, ApexY, Nest Green, PMO, Mobile tech mvw, COOLKK, 3Ciel, Wave Phones, Online-Phones 24, FOX ONLINE, LTDC SP. Z O.O., TopOne GmbH, Alloccaz, Bafobu, VantaCore, ELITE GADGET LIMITED</t>
+          <t>Techlovers, U&amp;I, Mobile tech mvw, Stellaris, 3Ciel, ApexY, Nomo Phone, EU Telecoms BL LTD, VantaCore, COOLKK, Bafobu, CarreMobile, PMO, Wave Phones, Nest Green, Cellular Tech, LTDC SP. Z O.O., We Cell, CellShark, Clevertronic, FastMobile, NAMANPHONE SL, Re-Cell Technology Solutions, Online-Phones 24, rego, Tecnoutlet2020</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Clevertronic, ApexY, Nest Green, PMO, Mobile tech mvw, COOLKK, 3Ciel, Wave Phones, Online-Phones 24, FOX ONLINE, LTDC SP. Z O.O., TopOne GmbH, Alloccaz, Bafobu, VantaCore, ELITE GADGET LIMITED</t>
+          <t>Techlovers, Mobile tech mvw, Stellaris, 3Ciel, ApexY, Nomo Phone, EU Telecoms BL LTD, VantaCore, COOLKK, Bafobu, CarreMobile, PMO, Wave Phones, Nest Green, Cellular Tech, LTDC SP. Z O.O., We Cell, CellShark, Clevertronic, FastMobile, NAMANPHONE SL, Re-Cell Technology Solutions, Online-Phones 24, rego, Tecnoutlet2020</t>
         </is>
       </c>
       <c r="G77" t="n">
-        <v>980.0660273972603</v>
+        <v>858.7419266055048</v>
       </c>
       <c r="H77" t="n">
-        <v>979.6002739726028</v>
+        <v>859.4197247706423</v>
       </c>
     </row>
     <row r="78">
@@ -2918,30 +2918,30 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>黑色</t>
+          <t>白色</t>
         </is>
       </c>
       <c r="C78" t="n">
-        <v>1223</v>
+        <v>810</v>
       </c>
       <c r="D78" t="n">
-        <v>1233</v>
+        <v>810</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Nest Green, Mobile tech mvw, COOLKK, Nomo Phone, U&amp;I, CellShark, Cellular Tech, Techlovers, PMO, EU Telecoms BL LTD, Stellaris, VantaCore, Clevertronic, ApexY, rego, FastMobile, 3Ciel, Re-Cell Technology Solutions, We Cell, NAMANPHONE SL, Wave Phones, CarreMobile, Online-Phones 24, LTDC SP. Z O.O., Bafobu, Tecnoutlet2020</t>
+          <t>Mobile tech mvw, Stellaris, 3Ciel, ApexY, Nomo Phone, EU Telecoms BL LTD, VantaCore, Bafobu, CarreMobile, PMO, asgoodasnew electronics, smrtek, Wave Phones, Tech Limited, Meadia-Tech, Nest Green, Cellular Tech, LTDC SP. Z O.O., We Cell, Ironza, Clevertronic, Onlinehandel Kustynowicz, Online-Phones 24, rego, Techlovers</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Nest Green, Mobile tech mvw, COOLKK, Nomo Phone, Cellular Tech, CellShark, Techlovers, PMO, EU Telecoms BL LTD, Stellaris, VantaCore, Clevertronic, ApexY, rego, FastMobile, 3Ciel, Re-Cell Technology Solutions, We Cell, NAMANPHONE SL, Wave Phones, CarreMobile, Online-Phones 24, LTDC SP. Z O.O., Bafobu, Tecnoutlet2020</t>
+          <t>Mobile tech mvw, Stellaris, 3Ciel, ApexY, Nomo Phone, EU Telecoms BL LTD, VantaCore, Bafobu, CarreMobile, PMO, asgoodasnew electronics, smrtek, Wave Phones, Tech Limited, Meadia-Tech, Nest Green, Cellular Tech, LTDC SP. Z O.O., We Cell, Ironza, Clevertronic, Onlinehandel Kustynowicz, Online-Phones 24, rego, Techlovers</t>
         </is>
       </c>
       <c r="G78" t="n">
-        <v>858.7419266055048</v>
+        <v>890.3969565217392</v>
       </c>
       <c r="H78" t="n">
-        <v>859.4197247706423</v>
+        <v>890.3969565217392</v>
       </c>
     </row>
     <row r="79">
@@ -2950,30 +2950,30 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>白色</t>
+          <t>玫瑰色</t>
         </is>
       </c>
       <c r="C79" t="n">
-        <v>810</v>
+        <v>489</v>
       </c>
       <c r="D79" t="n">
-        <v>810</v>
+        <v>443</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Nest Green, Mobile tech mvw, Onlinehandel Kustynowicz, Nomo Phone, Tech Limited, Cellular Tech, Techlovers, PMO, EU Telecoms BL LTD, Stellaris, VantaCore, Clevertronic, ApexY, rego, smrtek, 3Ciel, asgoodasnew electronics, Meadia-Tech, Ironza, We Cell, Wave Phones, CarreMobile, Online-Phones 24, LTDC SP. Z O.O., Bafobu</t>
+          <t>TopOne GmbH, Wave Phones, VantaCore, Clevertronic, Bafobu, COOLKK, Mobile tech mvw, LTDC SP. Z O.O., FOX ONLINE, 3Ciel, Alloccaz, Nest Green, ApexY, Online-Phones 24, PMO, ELITE GADGET LIMITED</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Nest Green, Mobile tech mvw, Onlinehandel Kustynowicz, Nomo Phone, Tech Limited, Cellular Tech, Techlovers, PMO, EU Telecoms BL LTD, Stellaris, VantaCore, Clevertronic, ApexY, rego, smrtek, 3Ciel, asgoodasnew electronics, Meadia-Tech, Ironza, We Cell, Wave Phones, CarreMobile, Online-Phones 24, LTDC SP. Z O.O., Bafobu</t>
+          <t>TopOne GmbH, Wave Phones, VantaCore, Clevertronic, Bafobu, COOLKK, Mobile tech mvw, LTDC SP. Z O.O., FOX ONLINE, 3Ciel, Alloccaz, Nest Green, ApexY, Online-Phones 24, PMO, ELITE GADGET LIMITED</t>
         </is>
       </c>
       <c r="G79" t="n">
-        <v>890.3969565217392</v>
+        <v>980.0660273972603</v>
       </c>
       <c r="H79" t="n">
-        <v>890.3969565217392</v>
+        <v>979.6002739726028</v>
       </c>
     </row>
     <row r="80">
@@ -2982,30 +2982,30 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>蓝绿色</t>
+          <t>群青蓝</t>
         </is>
       </c>
       <c r="C80" t="n">
-        <v>333</v>
+        <v>424</v>
       </c>
       <c r="D80" t="n">
-        <v>333</v>
+        <v>423</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Nest Green, Walchen New Life GmbH, Mobile tech mvw, COOLKK, Tech Limited, Cellular Tech, CellShark, Techlovers, PMO, EU Telecoms BL LTD, Stellaris, VantaCore, Clevertronic, ApexY, rego, 3Ciel, J.TECH LTD, Wave Phones, Online-Phones 24, LTDC SP. Z O.O., Bafobu, Tecnoutlet2020</t>
+          <t>Stellaris, Zwapa Mobile, 3Ciel, ApexY, Nomo Phone, EU Telecoms BL LTD, VantaCore, COOLKK, Bafobu, CarreMobile, PMO, Wave Phones, Tech Limited, Nest Green, Alloccaz, LTDC SP. Z O.O., CellShark, Phone, Clevertronic, Online-Phones 24</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Nest Green, Walchen New Life GmbH, Mobile tech mvw, COOLKK, Tech Limited, Cellular Tech, CellShark, Techlovers, PMO, EU Telecoms BL LTD, Stellaris, VantaCore, Clevertronic, ApexY, rego, 3Ciel, J.TECH LTD, Wave Phones, Online-Phones 24, LTDC SP. Z O.O., Bafobu, Tecnoutlet2020</t>
+          <t>Stellaris, Zwapa Mobile, 3Ciel, ApexY, Nomo Phone, EU Telecoms BL LTD, VantaCore, COOLKK, Bafobu, CarreMobile, PMO, Wave Phones, Tech Limited, Nest Green, Alloccaz, LTDC SP. Z O.O., CellShark, Phone, Clevertronic, Online-Phones 24</t>
         </is>
       </c>
       <c r="G80" t="n">
-        <v>946.8278260869564</v>
+        <v>959.7179166666667</v>
       </c>
       <c r="H80" t="n">
-        <v>946.8278260869564</v>
+        <v>959.7179166666667</v>
       </c>
     </row>
     <row r="81">
@@ -3014,30 +3014,30 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>群青蓝</t>
+          <t>蓝绿色</t>
         </is>
       </c>
       <c r="C81" t="n">
-        <v>424</v>
+        <v>333</v>
       </c>
       <c r="D81" t="n">
-        <v>423</v>
+        <v>333</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Nest Green, COOLKK, Nomo Phone, Tech Limited, CellShark, PMO, EU Telecoms BL LTD, Stellaris, Alloccaz, VantaCore, Clevertronic, ApexY, Zwapa Mobile, 3Ciel, Phone, Wave Phones, CarreMobile, Online-Phones 24, LTDC SP. Z O.O., Bafobu</t>
+          <t>Mobile tech mvw, Stellaris, 3Ciel, ApexY, J.TECH LTD, EU Telecoms BL LTD, VantaCore, COOLKK, Tecnoutlet2020, Bafobu, PMO, Wave Phones, Tech Limited, Nest Green, Cellular Tech, LTDC SP. Z O.O., CellShark, Clevertronic, Walchen New Life GmbH, Online-Phones 24, rego, Techlovers</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Nest Green, COOLKK, Nomo Phone, Tech Limited, CellShark, PMO, EU Telecoms BL LTD, Stellaris, Alloccaz, VantaCore, Clevertronic, ApexY, Zwapa Mobile, 3Ciel, Phone, Wave Phones, CarreMobile, Online-Phones 24, LTDC SP. Z O.O., Bafobu</t>
+          <t>Mobile tech mvw, Stellaris, 3Ciel, ApexY, J.TECH LTD, EU Telecoms BL LTD, VantaCore, COOLKK, Tecnoutlet2020, Bafobu, PMO, Wave Phones, Tech Limited, Nest Green, Cellular Tech, LTDC SP. Z O.O., CellShark, Clevertronic, Walchen New Life GmbH, Online-Phones 24, rego, Techlovers</t>
         </is>
       </c>
       <c r="G81" t="n">
-        <v>959.7179166666667</v>
+        <v>946.8278260869564</v>
       </c>
       <c r="H81" t="n">
-        <v>959.7179166666667</v>
+        <v>946.8278260869564</v>
       </c>
     </row>
     <row r="82">
@@ -3046,30 +3046,30 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>玫瑰色</t>
+          <t>黑色</t>
         </is>
       </c>
       <c r="C82" t="n">
-        <v>394</v>
+        <v>1171</v>
       </c>
       <c r="D82" t="n">
-        <v>394</v>
+        <v>1171</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Clevertronic, ApexY, PMO, Mobile tech mvw, 3Ciel, COOLKK, Wave Phones, GY Telecom, Online-Phones 24, FOX ONLINE, LTDC SP. Z O.O., TopOne GmbH, Alloccaz, TechBloom, Bafobu, VantaCore, ELITE GADGET LIMITED</t>
+          <t>Techlovers, U&amp;I, Mobile tech mvw, Stellaris, 3Ciel, ApexY, Nomo Phone, EU Telecoms BL LTD, VantaCore, COOLKK, Bafobu, CarreMobile, PMO, Wave Phones, IT Place, Nest Green, Cellular Tech, LTDC SP. Z O.O., GY Telecom, We Cell, CellShark, EC Echirolles, Clevertronic, FastMobile, NAMANPHONE SL, Re-Cell Technology Solutions, Online-Phones 24, rego, Tecnoutlet2020</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Clevertronic, ApexY, PMO, Mobile tech mvw, 3Ciel, COOLKK, Wave Phones, GY Telecom, Online-Phones 24, FOX ONLINE, LTDC SP. Z O.O., TopOne GmbH, Alloccaz, TechBloom, Bafobu, VantaCore, ELITE GADGET LIMITED</t>
+          <t>Techlovers, U&amp;I, Mobile tech mvw, Stellaris, 3Ciel, ApexY, Nomo Phone, EU Telecoms BL LTD, VantaCore, COOLKK, Bafobu, CarreMobile, PMO, Wave Phones, IT Place, Nest Green, Cellular Tech, LTDC SP. Z O.O., GY Telecom, We Cell, CellShark, EC Echirolles, Clevertronic, FastMobile, NAMANPHONE SL, Re-Cell Technology Solutions, Online-Phones 24, rego, Tecnoutlet2020</t>
         </is>
       </c>
       <c r="G82" t="n">
-        <v>970.7204918032786</v>
+        <v>851.9731578947368</v>
       </c>
       <c r="H82" t="n">
-        <v>970.7204918032786</v>
+        <v>851.9731578947368</v>
       </c>
     </row>
     <row r="83">
@@ -3078,30 +3078,30 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>黑色</t>
+          <t>白色</t>
         </is>
       </c>
       <c r="C83" t="n">
-        <v>1171</v>
+        <v>666</v>
       </c>
       <c r="D83" t="n">
-        <v>1171</v>
+        <v>666</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Nest Green, Mobile tech mvw, COOLKK, Nomo Phone, U&amp;I, CellShark, Cellular Tech, Techlovers, PMO, EU Telecoms BL LTD, Stellaris, VantaCore, Clevertronic, ApexY, rego, FastMobile, 3Ciel, Re-Cell Technology Solutions, GY Telecom, IT Place, EC Echirolles, We Cell, NAMANPHONE SL, Wave Phones, CarreMobile, Online-Phones 24, LTDC SP. Z O.O., Bafobu, Tecnoutlet2020</t>
+          <t>Mobile tech mvw, Stellaris, 3Ciel, ApexY, J.TECH LTD, Nomo Phone, EU Telecoms BL LTD, VantaCore, Bafobu, CarreMobile, smrtek, Wave Phones, Tech Limited, Meadia-Tech, Nest Green, Cellular Tech, LTDC SP. Z O.O., We Cell, GY Telecom, Ironza, FastMobile, Onlinehandel Kustynowicz, Online-Phones 24, Techlovers</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Nest Green, Mobile tech mvw, COOLKK, Nomo Phone, U&amp;I, CellShark, Cellular Tech, Techlovers, PMO, EU Telecoms BL LTD, Stellaris, VantaCore, Clevertronic, ApexY, rego, FastMobile, 3Ciel, Re-Cell Technology Solutions, GY Telecom, IT Place, EC Echirolles, We Cell, NAMANPHONE SL, Wave Phones, CarreMobile, Online-Phones 24, LTDC SP. Z O.O., Bafobu, Tecnoutlet2020</t>
+          <t>Mobile tech mvw, Stellaris, 3Ciel, ApexY, J.TECH LTD, Nomo Phone, EU Telecoms BL LTD, VantaCore, Bafobu, CarreMobile, smrtek, Wave Phones, Tech Limited, Meadia-Tech, Nest Green, Cellular Tech, LTDC SP. Z O.O., We Cell, GY Telecom, Ironza, FastMobile, Onlinehandel Kustynowicz, Online-Phones 24, Techlovers</t>
         </is>
       </c>
       <c r="G83" t="n">
-        <v>851.9731578947368</v>
+        <v>875.3649367088608</v>
       </c>
       <c r="H83" t="n">
-        <v>851.9731578947368</v>
+        <v>875.2889873417722</v>
       </c>
     </row>
     <row r="84">
@@ -3110,30 +3110,30 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>白色</t>
+          <t>玫瑰色</t>
         </is>
       </c>
       <c r="C84" t="n">
-        <v>666</v>
+        <v>394</v>
       </c>
       <c r="D84" t="n">
-        <v>666</v>
+        <v>394</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Nest Green, Onlinehandel Kustynowicz, Mobile tech mvw, Nomo Phone, Tech Limited, Cellular Tech, Techlovers, EU Telecoms BL LTD, Stellaris, VantaCore, ApexY, smrtek, FastMobile, 3Ciel, GY Telecom, Meadia-Tech, Ironza, J.TECH LTD, We Cell, Wave Phones, CarreMobile, Online-Phones 24, LTDC SP. Z O.O., Bafobu</t>
+          <t>TopOne GmbH, Wave Phones, VantaCore, Clevertronic, Bafobu, COOLKK, Mobile tech mvw, LTDC SP. Z O.O., FOX ONLINE, 3Ciel, Alloccaz, ApexY, Online-Phones 24, TechBloom, GY Telecom, PMO, ELITE GADGET LIMITED</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Nest Green, Onlinehandel Kustynowicz, Mobile tech mvw, Nomo Phone, Tech Limited, Cellular Tech, Techlovers, EU Telecoms BL LTD, Stellaris, VantaCore, ApexY, smrtek, FastMobile, 3Ciel, GY Telecom, Meadia-Tech, Ironza, J.TECH LTD, We Cell, Wave Phones, CarreMobile, Online-Phones 24, LTDC SP. Z O.O., Bafobu</t>
+          <t>TopOne GmbH, Wave Phones, VantaCore, Clevertronic, Bafobu, COOLKK, Mobile tech mvw, LTDC SP. Z O.O., FOX ONLINE, 3Ciel, Alloccaz, ApexY, Online-Phones 24, TechBloom, GY Telecom, PMO, ELITE GADGET LIMITED</t>
         </is>
       </c>
       <c r="G84" t="n">
-        <v>875.3649367088608</v>
+        <v>970.7204918032786</v>
       </c>
       <c r="H84" t="n">
-        <v>875.2889873417722</v>
+        <v>970.7204918032786</v>
       </c>
     </row>
     <row r="85">
@@ -3142,30 +3142,30 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>蓝绿色</t>
+          <t>群青蓝</t>
         </is>
       </c>
       <c r="C85" t="n">
-        <v>315</v>
+        <v>402</v>
       </c>
       <c r="D85" t="n">
-        <v>315</v>
+        <v>402</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Nest Green, Walchen New Life GmbH, Mobile tech mvw, Tech Limited, Cellular Tech, CellShark, Techlovers, PMO, EU Telecoms BL LTD, VantaCore, ApexY, 3Ciel, GY Telecom, J.TECH LTD, Wave Phones, Elytelecom, Online-Phones 24, LTDC SP. Z O.O., Bafobu, Tecnoutlet2020</t>
+          <t>Stellaris, Zwapa Mobile, 3Ciel, ApexY, Nomo Phone, EU Telecoms BL LTD, VantaCore, Bafobu, CarreMobile, PMO, Wave Phones, Tech Limited, IT Place, Nest Green, Alloccaz, LTDC SP. Z O.O., GY Telecom, CellShark, Phone, Clevertronic, Walchen New Life GmbH, Elytelecom, Online-Phones 24, rego</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Nest Green, Walchen New Life GmbH, Mobile tech mvw, Tech Limited, Cellular Tech, CellShark, Techlovers, PMO, EU Telecoms BL LTD, VantaCore, ApexY, 3Ciel, GY Telecom, J.TECH LTD, Wave Phones, Elytelecom, Online-Phones 24, LTDC SP. Z O.O., Bafobu, Tecnoutlet2020</t>
+          <t>Stellaris, Zwapa Mobile, 3Ciel, ApexY, Nomo Phone, EU Telecoms BL LTD, VantaCore, Bafobu, CarreMobile, PMO, Wave Phones, Tech Limited, IT Place, Nest Green, Alloccaz, LTDC SP. Z O.O., GY Telecom, CellShark, Phone, Clevertronic, Walchen New Life GmbH, Elytelecom, Online-Phones 24, rego</t>
         </is>
       </c>
       <c r="G85" t="n">
-        <v>927.395</v>
+        <v>933.7939344262295</v>
       </c>
       <c r="H85" t="n">
-        <v>927.395</v>
+        <v>933.7939344262295</v>
       </c>
     </row>
     <row r="86">
@@ -3174,30 +3174,30 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>群青蓝</t>
+          <t>蓝绿色</t>
         </is>
       </c>
       <c r="C86" t="n">
-        <v>402</v>
+        <v>315</v>
       </c>
       <c r="D86" t="n">
-        <v>402</v>
+        <v>315</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Nest Green, Walchen New Life GmbH, Nomo Phone, Tech Limited, CellShark, PMO, EU Telecoms BL LTD, Stellaris, Alloccaz, VantaCore, Clevertronic, ApexY, rego, Zwapa Mobile, 3Ciel, GY Telecom, IT Place, Phone, Wave Phones, Elytelecom, CarreMobile, Online-Phones 24, LTDC SP. Z O.O., Bafobu</t>
+          <t>Mobile tech mvw, 3Ciel, ApexY, J.TECH LTD, EU Telecoms BL LTD, VantaCore, Tecnoutlet2020, Bafobu, PMO, Wave Phones, Tech Limited, Nest Green, Cellular Tech, LTDC SP. Z O.O., GY Telecom, CellShark, Walchen New Life GmbH, Elytelecom, Online-Phones 24, Techlovers</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Nest Green, Walchen New Life GmbH, Nomo Phone, Tech Limited, CellShark, PMO, EU Telecoms BL LTD, Stellaris, Alloccaz, VantaCore, Clevertronic, ApexY, rego, Zwapa Mobile, 3Ciel, GY Telecom, IT Place, Phone, Wave Phones, Elytelecom, CarreMobile, Online-Phones 24, LTDC SP. Z O.O., Bafobu</t>
+          <t>Mobile tech mvw, 3Ciel, ApexY, J.TECH LTD, EU Telecoms BL LTD, VantaCore, Tecnoutlet2020, Bafobu, PMO, Wave Phones, Tech Limited, Nest Green, Cellular Tech, LTDC SP. Z O.O., GY Telecom, CellShark, Walchen New Life GmbH, Elytelecom, Online-Phones 24, Techlovers</t>
         </is>
       </c>
       <c r="G86" t="n">
-        <v>933.7939344262295</v>
+        <v>927.395</v>
       </c>
       <c r="H86" t="n">
-        <v>933.7939344262295</v>
+        <v>927.395</v>
       </c>
     </row>
     <row r="87">
@@ -3206,30 +3206,30 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>玫瑰色</t>
+          <t>黑色</t>
         </is>
       </c>
       <c r="C87" t="n">
-        <v>419</v>
+        <v>651</v>
       </c>
       <c r="D87" t="n">
-        <v>458</v>
+        <v>746</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Clevertronic, ApexY, Nest Green, PMO, Mobile tech mvw, 3Ciel, Wave Phones, Online-Phones 24, FOX ONLINE, LTDC SP. Z O.O., TopOne GmbH, Alloccaz, Bafobu, VantaCore, ELITE GADGET LIMITED</t>
+          <t>U&amp;I, Mobile tech mvw, FOX ONLINE, 3Ciel, ApexY, TechBloom, Nomo Phone, EU Telecoms BL LTD, VantaCore, Bafobu, CarreMobile, PMO, Wave Phones, Nest Green, LTDC SP. Z O.O., CellShark, Clevertronic, NAMANPHONE SL, Online-Phones 24, Tecnoutlet2020</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Clevertronic, ApexY, Nest Green, PMO, Mobile tech mvw, 3Ciel, Wave Phones, Online-Phones 24, FOX ONLINE, LTDC SP. Z O.O., TopOne GmbH, Alloccaz, Bafobu, VantaCore</t>
+          <t>U&amp;I, Mobile tech mvw, Stellaris, FOX ONLINE, 3Ciel, ApexY, TechBloom, Nomo Phone, EU Telecoms BL LTD, VantaCore, Bafobu, CarreMobile, PMO, Wave Phones, Nest Green, LTDC SP. Z O.O., CellShark, Clevertronic, NAMANPHONE SL, Online-Phones 24, Tecnoutlet2020</t>
         </is>
       </c>
       <c r="G87" t="n">
-        <v>982.6487837837838</v>
+        <v>942.8694936708861</v>
       </c>
       <c r="H87" t="n">
-        <v>987.0316216216215</v>
+        <v>944.010253164557</v>
       </c>
     </row>
     <row r="88">
@@ -3238,30 +3238,30 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>黑色</t>
+          <t>白色</t>
         </is>
       </c>
       <c r="C88" t="n">
-        <v>651</v>
+        <v>451</v>
       </c>
       <c r="D88" t="n">
-        <v>746</v>
+        <v>573</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Nest Green, Mobile tech mvw, Nomo Phone, U&amp;I, CellShark, PMO, EU Telecoms BL LTD, TechBloom, VantaCore, Clevertronic, ApexY, 3Ciel, NAMANPHONE SL, Wave Phones, CarreMobile, Online-Phones 24, FOX ONLINE, LTDC SP. Z O.O., Bafobu, Tecnoutlet2020</t>
+          <t>3Ciel, ApexY, J.TECH LTD, Nomo Phone, EU Telecoms BL LTD, VantaCore, Bafobu, PMO, smrtek, Wave Phones, Tech Limited, Cellular Tech, Alloccaz, LTDC SP. Z O.O., Ironza, Clevertronic, FastMobile, Online-Phones 24, rego</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Nest Green, Mobile tech mvw, Nomo Phone, U&amp;I, CellShark, PMO, EU Telecoms BL LTD, Stellaris, TechBloom, VantaCore, Clevertronic, ApexY, 3Ciel, NAMANPHONE SL, Wave Phones, CarreMobile, Online-Phones 24, FOX ONLINE, LTDC SP. Z O.O., Bafobu, Tecnoutlet2020</t>
+          <t>3Ciel, ApexY, J.TECH LTD, Nomo Phone, EU Telecoms BL LTD, VantaCore, Bafobu, PMO, smrtek, Wave Phones, Tech Limited, Cellular Tech, Alloccaz, LTDC SP. Z O.O., Ironza, Clevertronic, FastMobile, Online-Phones 24, rego</t>
         </is>
       </c>
       <c r="G88" t="n">
-        <v>942.8694936708861</v>
+        <v>966.2073913043475</v>
       </c>
       <c r="H88" t="n">
-        <v>944.010253164557</v>
+        <v>964.9415942028984</v>
       </c>
     </row>
     <row r="89">
@@ -3270,30 +3270,30 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>白色</t>
+          <t>玫瑰色</t>
         </is>
       </c>
       <c r="C89" t="n">
-        <v>451</v>
+        <v>419</v>
       </c>
       <c r="D89" t="n">
-        <v>573</v>
+        <v>458</v>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Nomo Phone, Tech Limited, Cellular Tech, PMO, EU Telecoms BL LTD, Alloccaz, VantaCore, Clevertronic, ApexY, rego, smrtek, FastMobile, 3Ciel, Ironza, J.TECH LTD, Wave Phones, Online-Phones 24, LTDC SP. Z O.O., Bafobu</t>
+          <t>TopOne GmbH, Wave Phones, VantaCore, Clevertronic, Bafobu, Mobile tech mvw, LTDC SP. Z O.O., FOX ONLINE, 3Ciel, Alloccaz, Nest Green, ApexY, Online-Phones 24, PMO, ELITE GADGET LIMITED</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Nomo Phone, Tech Limited, Cellular Tech, PMO, EU Telecoms BL LTD, Alloccaz, VantaCore, Clevertronic, ApexY, rego, smrtek, FastMobile, 3Ciel, Ironza, J.TECH LTD, Wave Phones, Online-Phones 24, LTDC SP. Z O.O., Bafobu</t>
+          <t>TopOne GmbH, Wave Phones, VantaCore, Clevertronic, Bafobu, Mobile tech mvw, LTDC SP. Z O.O., FOX ONLINE, 3Ciel, Alloccaz, Nest Green, ApexY, Online-Phones 24, PMO</t>
         </is>
       </c>
       <c r="G89" t="n">
-        <v>966.2073913043475</v>
+        <v>982.6487837837838</v>
       </c>
       <c r="H89" t="n">
-        <v>964.9415942028984</v>
+        <v>987.0316216216215</v>
       </c>
     </row>
     <row r="90">
@@ -3302,30 +3302,30 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>蓝绿色</t>
+          <t>群青蓝</t>
         </is>
       </c>
       <c r="C90" t="n">
-        <v>294</v>
+        <v>451</v>
       </c>
       <c r="D90" t="n">
-        <v>349</v>
+        <v>517</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Clevertronic, J.TECH LTD, ApexY, Nest Green, Techlovers, Walchen New Life GmbH, PMO, Mobile tech mvw, 3Ciel, Wave Phones, Elytelecom, Cellular Tech, Online-Phones 24, Tech Limited, LTDC SP. Z O.O., CellShark, Bafobu, VantaCore</t>
+          <t>Zwapa Mobile, 3Ciel, ApexY, Nomo Phone, EU Telecoms BL LTD, VantaCore, Bafobu, CarreMobile, PMO, asgoodasnew electronics, Wave Phones, Tech Limited, IT Place, Nest Green, Alloccaz, LTDC SP. Z O.O., CellShark, Phone, Clevertronic, Walchen New Life GmbH, Simpatico Tech, Elytelecom, Online-Phones 24</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Nest Green, Walchen New Life GmbH, Mobile tech mvw, Tech Limited, Cellular Tech, CellShark, Techlovers, PMO, EU Telecoms BL LTD, VantaCore, Clevertronic, ApexY, 3Ciel, J.TECH LTD, Wave Phones, Elytelecom, Online-Phones 24, LTDC SP. Z O.O., Bafobu</t>
+          <t>Zwapa Mobile, 3Ciel, ApexY, Nomo Phone, EU Telecoms BL LTD, VantaCore, Bafobu, CarreMobile, PMO, asgoodasnew electronics, Wave Phones, Tech Limited, IT Place, Nest Green, Alloccaz, LTDC SP. Z O.O., Phone, Clevertronic, Walchen New Life GmbH, Simpatico Tech, Elytelecom, Online-Phones 24</t>
         </is>
       </c>
       <c r="G90" t="n">
-        <v>954.6781818181819</v>
+        <v>963.7951388888889</v>
       </c>
       <c r="H90" t="n">
-        <v>951.3000000000001</v>
+        <v>966.9222222222221</v>
       </c>
     </row>
     <row r="91">
@@ -3334,30 +3334,30 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>群青蓝</t>
+          <t>蓝绿色</t>
         </is>
       </c>
       <c r="C91" t="n">
-        <v>451</v>
+        <v>294</v>
       </c>
       <c r="D91" t="n">
-        <v>517</v>
+        <v>349</v>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Nest Green, Walchen New Life GmbH, Nomo Phone, Tech Limited, CellShark, PMO, EU Telecoms BL LTD, Alloccaz, VantaCore, Clevertronic, ApexY, Zwapa Mobile, 3Ciel, asgoodasnew electronics, IT Place, Phone, Wave Phones, Elytelecom, Simpatico Tech, CarreMobile, Online-Phones 24, LTDC SP. Z O.O., Bafobu</t>
+          <t>Techlovers, Wave Phones, Tech Limited, VantaCore, J.TECH LTD, Clevertronic, Bafobu, Walchen New Life GmbH, Mobile tech mvw, LTDC SP. Z O.O., Elytelecom, 3Ciel, Nest Green, Cellular Tech, ApexY, Online-Phones 24, PMO, CellShark</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Nest Green, Walchen New Life GmbH, Nomo Phone, Tech Limited, PMO, EU Telecoms BL LTD, Alloccaz, VantaCore, Clevertronic, ApexY, Zwapa Mobile, 3Ciel, asgoodasnew electronics, IT Place, Phone, Wave Phones, Elytelecom, Simpatico Tech, CarreMobile, Online-Phones 24, LTDC SP. Z O.O., Bafobu</t>
+          <t>Mobile tech mvw, 3Ciel, J.TECH LTD, ApexY, EU Telecoms BL LTD, VantaCore, Bafobu, PMO, Wave Phones, Tech Limited, Nest Green, Cellular Tech, LTDC SP. Z O.O., CellShark, Clevertronic, Walchen New Life GmbH, Elytelecom, Online-Phones 24, Techlovers</t>
         </is>
       </c>
       <c r="G91" t="n">
-        <v>963.7951388888889</v>
+        <v>954.6781818181819</v>
       </c>
       <c r="H91" t="n">
-        <v>966.9222222222221</v>
+        <v>951.3000000000001</v>
       </c>
     </row>
     <row r="92">
@@ -3366,30 +3366,30 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>玫瑰色</t>
+          <t>黑色</t>
         </is>
       </c>
       <c r="C92" t="n">
-        <v>700</v>
+        <v>1596</v>
       </c>
       <c r="D92" t="n">
-        <v>700</v>
+        <v>1596</v>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>Clevertronic, We Cell, ApexY, Nest Green, PMO, 3Ciel, Wave Phones, Online-Phones 24, FOX ONLINE, LTDC SP. Z O.O., TopOne GmbH, Alloccaz, Bafobu, VantaCore</t>
+          <t>U&amp;I, Mobile tech mvw, FOX ONLINE, 3Ciel, ApexY, TechBloom, PhoneStore, Nomo Phone, EU Telecoms BL LTD, VantaCore, Bafobu, CarreMobile, PMO, asgoodasnew electronics, Wave Phones, Nest Green, LTDC SP. Z O.O., We Cell, CellShark, Clevertronic, NAMANPHONE SL, Online-Phones 24, Tecnoutlet2020</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Clevertronic, We Cell, ApexY, Nest Green, PMO, 3Ciel, Wave Phones, Online-Phones 24, FOX ONLINE, LTDC SP. Z O.O., TopOne GmbH, Alloccaz, Bafobu, VantaCore</t>
+          <t>U&amp;I, Mobile tech mvw, FOX ONLINE, 3Ciel, ApexY, TechBloom, PhoneStore, Nomo Phone, EU Telecoms BL LTD, VantaCore, Bafobu, CarreMobile, PMO, asgoodasnew electronics, Wave Phones, Nest Green, LTDC SP. Z O.O., We Cell, CellShark, Clevertronic, NAMANPHONE SL, Online-Phones 24, Tecnoutlet2020</t>
         </is>
       </c>
       <c r="G92" t="n">
-        <v>985.7986153846153</v>
+        <v>945.2062337662338</v>
       </c>
       <c r="H92" t="n">
-        <v>985.7986153846153</v>
+        <v>945.2062337662338</v>
       </c>
     </row>
     <row r="93">
@@ -3398,30 +3398,30 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>黑色</t>
+          <t>白色</t>
         </is>
       </c>
       <c r="C93" t="n">
-        <v>1596</v>
+        <v>1039</v>
       </c>
       <c r="D93" t="n">
-        <v>1596</v>
+        <v>1039</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>Nest Green, Mobile tech mvw, Nomo Phone, U&amp;I, CellShark, PhoneStore, PMO, EU Telecoms BL LTD, TechBloom, VantaCore, Clevertronic, ApexY, 3Ciel, asgoodasnew electronics, We Cell, NAMANPHONE SL, Wave Phones, CarreMobile, Online-Phones 24, FOX ONLINE, LTDC SP. Z O.O., Bafobu, Tecnoutlet2020</t>
+          <t>U&amp;I, Stellaris, 3Ciel, ApexY, J.TECH LTD, TechBloom, Nomo Phone, EU Telecoms BL LTD, VantaCore, Bafobu, PMO, smrtek, Wave Phones, Tech Limited, Cellular Tech, Alloccaz, LTDC SP. Z O.O., We Cell, Ironza, Clevertronic, FastMobile, Online-Phones 24</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Nest Green, Mobile tech mvw, Nomo Phone, U&amp;I, CellShark, PhoneStore, PMO, EU Telecoms BL LTD, TechBloom, VantaCore, Clevertronic, ApexY, 3Ciel, asgoodasnew electronics, We Cell, NAMANPHONE SL, Wave Phones, CarreMobile, Online-Phones 24, FOX ONLINE, LTDC SP. Z O.O., Bafobu, Tecnoutlet2020</t>
+          <t>U&amp;I, Stellaris, 3Ciel, ApexY, J.TECH LTD, TechBloom, Nomo Phone, EU Telecoms BL LTD, VantaCore, Bafobu, PMO, smrtek, Wave Phones, Tech Limited, Cellular Tech, Alloccaz, LTDC SP. Z O.O., We Cell, Ironza, Clevertronic, FastMobile, Online-Phones 24</t>
         </is>
       </c>
       <c r="G93" t="n">
-        <v>945.2062337662338</v>
+        <v>958.3541666666666</v>
       </c>
       <c r="H93" t="n">
-        <v>945.2062337662338</v>
+        <v>958.3541666666666</v>
       </c>
     </row>
     <row r="94">
@@ -3430,30 +3430,30 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>白色</t>
+          <t>玫瑰色</t>
         </is>
       </c>
       <c r="C94" t="n">
-        <v>1039</v>
+        <v>700</v>
       </c>
       <c r="D94" t="n">
-        <v>1039</v>
+        <v>700</v>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Nomo Phone, U&amp;I, Tech Limited, Cellular Tech, PMO, EU Telecoms BL LTD, Stellaris, Alloccaz, TechBloom, VantaCore, Clevertronic, ApexY, smrtek, FastMobile, 3Ciel, Ironza, J.TECH LTD, We Cell, Wave Phones, Online-Phones 24, LTDC SP. Z O.O., Bafobu</t>
+          <t>TopOne GmbH, Wave Phones, VantaCore, Clevertronic, Bafobu, LTDC SP. Z O.O., FOX ONLINE, 3Ciel, Alloccaz, Nest Green, ApexY, Online-Phones 24, We Cell, PMO</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Nomo Phone, U&amp;I, Tech Limited, Cellular Tech, PMO, EU Telecoms BL LTD, Stellaris, Alloccaz, TechBloom, VantaCore, Clevertronic, ApexY, smrtek, FastMobile, 3Ciel, Ironza, J.TECH LTD, We Cell, Wave Phones, Online-Phones 24, LTDC SP. Z O.O., Bafobu</t>
+          <t>TopOne GmbH, Wave Phones, VantaCore, Clevertronic, Bafobu, LTDC SP. Z O.O., FOX ONLINE, 3Ciel, Alloccaz, Nest Green, ApexY, Online-Phones 24, We Cell, PMO</t>
         </is>
       </c>
       <c r="G94" t="n">
-        <v>958.3541666666666</v>
+        <v>985.7986153846153</v>
       </c>
       <c r="H94" t="n">
-        <v>958.3541666666666</v>
+        <v>985.7986153846153</v>
       </c>
     </row>
     <row r="95">
@@ -3462,30 +3462,30 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>蓝绿色</t>
+          <t>群青蓝</t>
         </is>
       </c>
       <c r="C95" t="n">
-        <v>526</v>
+        <v>432</v>
       </c>
       <c r="D95" t="n">
-        <v>526</v>
+        <v>432</v>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>Nest Green, Walchen New Life GmbH, COOLKK, U&amp;I, Tech Limited, Cellular Tech, CellShark, Techlovers, PMO, Stellaris, VantaCore, Clevertronic, ApexY, 3Ciel, asgoodasnew electronics, We Cell, J.TECH LTD, Wave Phones, Elytelecom, Online-Phones 24, LTDC SP. Z O.O., Bafobu</t>
+          <t>U&amp;I, Stellaris, Zwapa Mobile, 3Ciel, ApexY, Nomo Phone, EU Telecoms BL LTD, VantaCore, Bafobu, PMO, asgoodasnew electronics, Wave Phones, Tech Limited, IT Place, Nest Green, Alloccaz, LTDC SP. Z O.O., Phone, Clevertronic, Walchen New Life GmbH, Elytelecom, Online-Phones 24</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Nest Green, Walchen New Life GmbH, COOLKK, U&amp;I, Tech Limited, Cellular Tech, CellShark, Techlovers, PMO, Stellaris, VantaCore, Clevertronic, ApexY, 3Ciel, asgoodasnew electronics, We Cell, J.TECH LTD, Wave Phones, Elytelecom, Online-Phones 24, LTDC SP. Z O.O., Bafobu</t>
+          <t>U&amp;I, Stellaris, Zwapa Mobile, 3Ciel, ApexY, Nomo Phone, EU Telecoms BL LTD, VantaCore, Bafobu, PMO, asgoodasnew electronics, Wave Phones, Tech Limited, IT Place, Nest Green, Alloccaz, LTDC SP. Z O.O., Phone, Clevertronic, Walchen New Life GmbH, Elytelecom, Online-Phones 24</t>
         </is>
       </c>
       <c r="G95" t="n">
-        <v>947.300476190476</v>
+        <v>971.550945945946</v>
       </c>
       <c r="H95" t="n">
-        <v>947.300476190476</v>
+        <v>971.550945945946</v>
       </c>
     </row>
     <row r="96">
@@ -3494,30 +3494,30 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>群青蓝</t>
+          <t>蓝绿色</t>
         </is>
       </c>
       <c r="C96" t="n">
-        <v>432</v>
+        <v>526</v>
       </c>
       <c r="D96" t="n">
-        <v>432</v>
+        <v>526</v>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Nest Green, Walchen New Life GmbH, Nomo Phone, U&amp;I, Tech Limited, PMO, EU Telecoms BL LTD, Stellaris, Alloccaz, VantaCore, Clevertronic, ApexY, Zwapa Mobile, 3Ciel, asgoodasnew electronics, IT Place, Phone, Wave Phones, Elytelecom, Online-Phones 24, LTDC SP. Z O.O., Bafobu</t>
+          <t>U&amp;I, Stellaris, 3Ciel, ApexY, J.TECH LTD, VantaCore, COOLKK, Bafobu, PMO, asgoodasnew electronics, Wave Phones, Tech Limited, Nest Green, Cellular Tech, LTDC SP. Z O.O., We Cell, CellShark, Clevertronic, Walchen New Life GmbH, Elytelecom, Online-Phones 24, Techlovers</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Nest Green, Walchen New Life GmbH, Nomo Phone, U&amp;I, Tech Limited, PMO, EU Telecoms BL LTD, Stellaris, Alloccaz, VantaCore, Clevertronic, ApexY, Zwapa Mobile, 3Ciel, asgoodasnew electronics, IT Place, Phone, Wave Phones, Elytelecom, Online-Phones 24, LTDC SP. Z O.O., Bafobu</t>
+          <t>U&amp;I, Stellaris, 3Ciel, ApexY, J.TECH LTD, VantaCore, COOLKK, Bafobu, PMO, asgoodasnew electronics, Wave Phones, Tech Limited, Nest Green, Cellular Tech, LTDC SP. Z O.O., We Cell, CellShark, Clevertronic, Walchen New Life GmbH, Elytelecom, Online-Phones 24, Techlovers</t>
         </is>
       </c>
       <c r="G96" t="n">
-        <v>971.550945945946</v>
+        <v>947.300476190476</v>
       </c>
       <c r="H96" t="n">
-        <v>971.550945945946</v>
+        <v>947.300476190476</v>
       </c>
     </row>
     <row r="97">
@@ -3526,30 +3526,30 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>玫瑰色</t>
+          <t>黑色</t>
         </is>
       </c>
       <c r="C97" t="n">
-        <v>874</v>
+        <v>1646</v>
       </c>
       <c r="D97" t="n">
-        <v>874</v>
+        <v>1646</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Clevertronic, We Cell, ApexY, EC Epinal, PMO, COOLKK, 3Ciel, Wave Phones, Online-Phones 24, FOX ONLINE, LTDC SP. Z O.O., TopOne GmbH, Alloccaz, Bafobu, VantaCore</t>
+          <t>U&amp;I, Mobile tech mvw, 3Ciel, ApexY, Nomo Phone, EU Telecoms BL LTD, VantaCore, COOLKK, Bafobu, CarreMobile, PMO, asgoodasnew electronics, Wave Phones, Nest Green, LTDC SP. Z O.O., We Cell, CellShark, ChancenBörse, Clevertronic, NAMANPHONE SL, Online-Phones 24, rego</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>Clevertronic, We Cell, ApexY, EC Epinal, PMO, COOLKK, 3Ciel, Wave Phones, Online-Phones 24, FOX ONLINE, LTDC SP. Z O.O., TopOne GmbH, Alloccaz, Bafobu, VantaCore</t>
+          <t>U&amp;I, Mobile tech mvw, 3Ciel, ApexY, Nomo Phone, EU Telecoms BL LTD, VantaCore, COOLKK, Bafobu, CarreMobile, PMO, asgoodasnew electronics, Wave Phones, Nest Green, LTDC SP. Z O.O., We Cell, CellShark, ChancenBörse, Clevertronic, NAMANPHONE SL, Online-Phones 24, rego</t>
         </is>
       </c>
       <c r="G97" t="n">
-        <v>972.2093333333333</v>
+        <v>933.5421126760563</v>
       </c>
       <c r="H97" t="n">
-        <v>972.2093333333333</v>
+        <v>933.5421126760563</v>
       </c>
     </row>
     <row r="98">
@@ -3558,30 +3558,30 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>黑色</t>
+          <t>白色</t>
         </is>
       </c>
       <c r="C98" t="n">
-        <v>1646</v>
+        <v>754</v>
       </c>
       <c r="D98" t="n">
-        <v>1646</v>
+        <v>811</v>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>Nest Green, Mobile tech mvw, COOLKK, Nomo Phone, U&amp;I, ChancenBörse, CellShark, PMO, EU Telecoms BL LTD, VantaCore, Clevertronic, ApexY, rego, 3Ciel, asgoodasnew electronics, We Cell, NAMANPHONE SL, Wave Phones, CarreMobile, Online-Phones 24, LTDC SP. Z O.O., Bafobu</t>
+          <t>U&amp;I, Mobile tech mvw, 3Ciel, ApexY, J.TECH LTD, Nomo Phone, EU Telecoms BL LTD, VantaCore, COOLKK, Bafobu, CarreMobile, PMO, smrtek, Wave Phones, Tech Limited, Cellular Tech, LTDC SP. Z O.O., We Cell, ChancenBörse, Ironza, FastMobile, Online-Phones 24, rego</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>Nest Green, Mobile tech mvw, COOLKK, Nomo Phone, U&amp;I, ChancenBörse, CellShark, PMO, EU Telecoms BL LTD, VantaCore, Clevertronic, ApexY, rego, 3Ciel, asgoodasnew electronics, We Cell, NAMANPHONE SL, Wave Phones, CarreMobile, Online-Phones 24, LTDC SP. Z O.O., Bafobu</t>
+          <t>U&amp;I, Mobile tech mvw, 3Ciel, ApexY, J.TECH LTD, Nomo Phone, EU Telecoms BL LTD, VantaCore, COOLKK, Bafobu, CarreMobile, PMO, smrtek, Wave Phones, Tech Limited, Cellular Tech, LTDC SP. Z O.O., We Cell, ChancenBörse, Ironza, FastMobile, Online-Phones 24, rego</t>
         </is>
       </c>
       <c r="G98" t="n">
-        <v>933.5421126760563</v>
+        <v>933.1239436619717</v>
       </c>
       <c r="H98" t="n">
-        <v>933.5421126760563</v>
+        <v>933.0535211267604</v>
       </c>
     </row>
     <row r="99">
@@ -3590,30 +3590,30 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>白色</t>
+          <t>玫瑰色</t>
         </is>
       </c>
       <c r="C99" t="n">
-        <v>754</v>
+        <v>874</v>
       </c>
       <c r="D99" t="n">
-        <v>811</v>
+        <v>874</v>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Mobile tech mvw, COOLKK, Nomo Phone, ChancenBörse, U&amp;I, Tech Limited, Cellular Tech, PMO, EU Telecoms BL LTD, VantaCore, ApexY, rego, smrtek, FastMobile, 3Ciel, Ironza, J.TECH LTD, We Cell, Wave Phones, CarreMobile, Online-Phones 24, LTDC SP. Z O.O., Bafobu</t>
+          <t>TopOne GmbH, Wave Phones, VantaCore, Clevertronic, EC Epinal, Bafobu, COOLKK, LTDC SP. Z O.O., FOX ONLINE, 3Ciel, Alloccaz, ApexY, Online-Phones 24, We Cell, PMO</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>Mobile tech mvw, COOLKK, Nomo Phone, ChancenBörse, U&amp;I, Tech Limited, Cellular Tech, PMO, EU Telecoms BL LTD, VantaCore, ApexY, rego, smrtek, FastMobile, 3Ciel, Ironza, J.TECH LTD, We Cell, Wave Phones, CarreMobile, Online-Phones 24, LTDC SP. Z O.O., Bafobu</t>
+          <t>TopOne GmbH, Wave Phones, VantaCore, Clevertronic, EC Epinal, Bafobu, COOLKK, LTDC SP. Z O.O., FOX ONLINE, 3Ciel, Alloccaz, ApexY, Online-Phones 24, We Cell, PMO</t>
         </is>
       </c>
       <c r="G99" t="n">
-        <v>933.1239436619717</v>
+        <v>972.2093333333333</v>
       </c>
       <c r="H99" t="n">
-        <v>933.0535211267604</v>
+        <v>972.2093333333333</v>
       </c>
     </row>
     <row r="100">
@@ -3622,30 +3622,30 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>蓝绿色</t>
+          <t>群青蓝</t>
         </is>
       </c>
       <c r="C100" t="n">
-        <v>517</v>
+        <v>745</v>
       </c>
       <c r="D100" t="n">
-        <v>517</v>
+        <v>745</v>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>Nest Green, Walchen New Life GmbH, Global Phones, COOLKK, U&amp;I, Cellular Tech, CellShark, Techlovers, PMO, EU Telecoms BL LTD, TopOne GmbH, VantaCore, ApexY, 3Ciel, We Cell, Wave Phones, Elytelecom, Online-Phones 24, LTDC SP. Z O.O., Spicydeals, Bafobu</t>
+          <t>Spicydeals, U&amp;I, Zwapa Mobile, 3Ciel, ApexY, Nomo Phone, EU Telecoms BL LTD, COOLKK, Bafobu, PMO, Wave Phones, Tech Limited, Nest Green, Alloccaz, LTDC SP. Z O.O., We Cell, ChancenBörse, Phone, Clevertronic, Elytelecom, Online-Phones 24</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>Nest Green, Walchen New Life GmbH, Global Phones, COOLKK, U&amp;I, Cellular Tech, CellShark, Techlovers, PMO, EU Telecoms BL LTD, TopOne GmbH, VantaCore, ApexY, 3Ciel, We Cell, Wave Phones, Elytelecom, Online-Phones 24, LTDC SP. Z O.O., Spicydeals, Bafobu</t>
+          <t>Spicydeals, U&amp;I, Zwapa Mobile, 3Ciel, ApexY, Nomo Phone, EU Telecoms BL LTD, COOLKK, Bafobu, PMO, Wave Phones, Tech Limited, Nest Green, Alloccaz, LTDC SP. Z O.O., We Cell, ChancenBörse, Phone, Clevertronic, Elytelecom, Online-Phones 24</t>
         </is>
       </c>
       <c r="G100" t="n">
-        <v>930.3945901639344</v>
+        <v>952.203768115942</v>
       </c>
       <c r="H100" t="n">
-        <v>930.3945901639344</v>
+        <v>952.203768115942</v>
       </c>
     </row>
     <row r="101">
@@ -3654,30 +3654,30 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>群青蓝</t>
+          <t>蓝绿色</t>
         </is>
       </c>
       <c r="C101" t="n">
-        <v>745</v>
+        <v>517</v>
       </c>
       <c r="D101" t="n">
-        <v>745</v>
+        <v>517</v>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Nest Green, COOLKK, Nomo Phone, ChancenBörse, U&amp;I, Tech Limited, PMO, EU Telecoms BL LTD, Alloccaz, Clevertronic, ApexY, Zwapa Mobile, 3Ciel, We Cell, Phone, Wave Phones, Elytelecom, Online-Phones 24, LTDC SP. Z O.O., Spicydeals, Bafobu</t>
+          <t>Global Phones, Spicydeals, U&amp;I, 3Ciel, ApexY, TopOne GmbH, EU Telecoms BL LTD, VantaCore, COOLKK, Bafobu, PMO, Wave Phones, Nest Green, Cellular Tech, LTDC SP. Z O.O., We Cell, CellShark, Walchen New Life GmbH, Elytelecom, Online-Phones 24, Techlovers</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>Nest Green, COOLKK, Nomo Phone, ChancenBörse, U&amp;I, Tech Limited, PMO, EU Telecoms BL LTD, Alloccaz, Clevertronic, ApexY, Zwapa Mobile, 3Ciel, We Cell, Phone, Wave Phones, Elytelecom, Online-Phones 24, LTDC SP. Z O.O., Spicydeals, Bafobu</t>
+          <t>Global Phones, Spicydeals, U&amp;I, 3Ciel, ApexY, TopOne GmbH, EU Telecoms BL LTD, VantaCore, COOLKK, Bafobu, PMO, Wave Phones, Nest Green, Cellular Tech, LTDC SP. Z O.O., We Cell, CellShark, Walchen New Life GmbH, Elytelecom, Online-Phones 24, Techlovers</t>
         </is>
       </c>
       <c r="G101" t="n">
-        <v>952.203768115942</v>
+        <v>930.3945901639344</v>
       </c>
       <c r="H101" t="n">
-        <v>952.203768115942</v>
+        <v>930.3945901639344</v>
       </c>
     </row>
     <row r="102">
@@ -3686,30 +3686,30 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>玫瑰色</t>
+          <t>黑色</t>
         </is>
       </c>
       <c r="C102" t="n">
-        <v>754</v>
+        <v>1741</v>
       </c>
       <c r="D102" t="n">
-        <v>754</v>
+        <v>1741</v>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>Clevertronic, We Cell, ApexY, EC Epinal, PMO, COOLKK, 3Ciel, Re-Cell Technology Solutions, Wave Phones, GY Telecom, Online-Phones 24, FOX ONLINE, LTDC SP. Z O.O., TopOne GmbH, Alloccaz, Bafobu, VantaCore, ELITE GADGET LIMITED</t>
+          <t>Mobile tech mvw, 3Ciel, ApexY, Nomo Phone, EU Telecoms BL LTD, VantaCore, nuLAB Srl, COOLKK, Bafobu, PMO, asgoodasnew electronics, Wave Phones, Nest Green, LTDC SP. Z O.O., GY Telecom, CellShark, ChancenBörse, Clevertronic, FastMobile, Walchen New Life GmbH, NAMANPHONE SL, Re-Cell Technology Solutions, Online-Phones 24, rego</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>Clevertronic, We Cell, ApexY, EC Epinal, PMO, COOLKK, 3Ciel, Re-Cell Technology Solutions, Wave Phones, GY Telecom, Online-Phones 24, FOX ONLINE, LTDC SP. Z O.O., TopOne GmbH, Alloccaz, Bafobu, VantaCore, ELITE GADGET LIMITED</t>
+          <t>Mobile tech mvw, 3Ciel, ApexY, Nomo Phone, EU Telecoms BL LTD, VantaCore, nuLAB Srl, COOLKK, Bafobu, PMO, asgoodasnew electronics, Wave Phones, Nest Green, LTDC SP. Z O.O., GY Telecom, CellShark, ChancenBörse, Clevertronic, FastMobile, Walchen New Life GmbH, NAMANPHONE SL, Re-Cell Technology Solutions, Online-Phones 24, rego</t>
         </is>
       </c>
       <c r="G102" t="n">
-        <v>972.2413846153845</v>
+        <v>928.5266666666665</v>
       </c>
       <c r="H102" t="n">
-        <v>972.2413846153845</v>
+        <v>928.5266666666665</v>
       </c>
     </row>
     <row r="103">
@@ -3718,30 +3718,30 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>黑色</t>
+          <t>白色</t>
         </is>
       </c>
       <c r="C103" t="n">
-        <v>1741</v>
+        <v>837</v>
       </c>
       <c r="D103" t="n">
-        <v>1741</v>
+        <v>837</v>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>Nest Green, Walchen New Life GmbH, Mobile tech mvw, COOLKK, Nomo Phone, ChancenBörse, CellShark, PMO, EU Telecoms BL LTD, VantaCore, nuLAB Srl, Clevertronic, ApexY, rego, FastMobile, 3Ciel, Re-Cell Technology Solutions, asgoodasnew electronics, GY Telecom, NAMANPHONE SL, Wave Phones, Online-Phones 24, LTDC SP. Z O.O., Bafobu</t>
+          <t>U&amp;I, Stellaris, 3Ciel, J.TECH LTD, ApexY, Nomo Phone, EU Telecoms BL LTD, VantaCore, COOLKK, Bafobu, PMO, smrtek, Wave Phones, Tech Limited, Cellular Tech, LTDC SP. Z O.O., GY Telecom, Ironza, FastMobile, Re-Cell Technology Solutions, Online-Phones 24, rego</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>Nest Green, Walchen New Life GmbH, Mobile tech mvw, COOLKK, Nomo Phone, ChancenBörse, CellShark, PMO, EU Telecoms BL LTD, VantaCore, nuLAB Srl, Clevertronic, ApexY, rego, FastMobile, 3Ciel, Re-Cell Technology Solutions, asgoodasnew electronics, GY Telecom, NAMANPHONE SL, Wave Phones, Online-Phones 24, LTDC SP. Z O.O., Bafobu</t>
+          <t>U&amp;I, Stellaris, 3Ciel, J.TECH LTD, ApexY, Nomo Phone, EU Telecoms BL LTD, VantaCore, COOLKK, Bafobu, PMO, smrtek, Wave Phones, Tech Limited, Cellular Tech, LTDC SP. Z O.O., GY Telecom, Ironza, FastMobile, Re-Cell Technology Solutions, Online-Phones 24, rego</t>
         </is>
       </c>
       <c r="G103" t="n">
-        <v>928.5266666666665</v>
+        <v>922.607792207792</v>
       </c>
       <c r="H103" t="n">
-        <v>928.5266666666665</v>
+        <v>922.607792207792</v>
       </c>
     </row>
     <row r="104">
@@ -3750,30 +3750,30 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>白色</t>
+          <t>玫瑰色</t>
         </is>
       </c>
       <c r="C104" t="n">
-        <v>837</v>
+        <v>754</v>
       </c>
       <c r="D104" t="n">
-        <v>837</v>
+        <v>754</v>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>COOLKK, Nomo Phone, U&amp;I, Tech Limited, Cellular Tech, PMO, EU Telecoms BL LTD, Stellaris, VantaCore, ApexY, rego, smrtek, FastMobile, 3Ciel, Re-Cell Technology Solutions, GY Telecom, Ironza, J.TECH LTD, Wave Phones, Online-Phones 24, LTDC SP. Z O.O., Bafobu</t>
+          <t>TopOne GmbH, Wave Phones, VantaCore, Clevertronic, EC Epinal, Bafobu, COOLKK, LTDC SP. Z O.O., FOX ONLINE, 3Ciel, Re-Cell Technology Solutions, Alloccaz, ApexY, Online-Phones 24, GY Telecom, PMO, ELITE GADGET LIMITED, We Cell</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>COOLKK, Nomo Phone, U&amp;I, Tech Limited, Cellular Tech, PMO, EU Telecoms BL LTD, Stellaris, VantaCore, ApexY, rego, smrtek, FastMobile, 3Ciel, Re-Cell Technology Solutions, GY Telecom, Ironza, J.TECH LTD, Wave Phones, Online-Phones 24, LTDC SP. Z O.O., Bafobu</t>
+          <t>TopOne GmbH, Wave Phones, VantaCore, Clevertronic, EC Epinal, Bafobu, COOLKK, LTDC SP. Z O.O., FOX ONLINE, 3Ciel, Re-Cell Technology Solutions, Alloccaz, ApexY, Online-Phones 24, GY Telecom, PMO, ELITE GADGET LIMITED, We Cell</t>
         </is>
       </c>
       <c r="G104" t="n">
-        <v>922.607792207792</v>
+        <v>972.2413846153845</v>
       </c>
       <c r="H104" t="n">
-        <v>922.607792207792</v>
+        <v>972.2413846153845</v>
       </c>
     </row>
     <row r="105">
@@ -3782,30 +3782,30 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>蓝绿色</t>
+          <t>群青蓝</t>
         </is>
       </c>
       <c r="C105" t="n">
-        <v>518</v>
+        <v>638</v>
       </c>
       <c r="D105" t="n">
-        <v>518</v>
+        <v>638</v>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>Nest Green, Walchen New Life GmbH, Global Phones, COOLKK, ChancenBörse, Cellular Tech, CellShark, Techlovers, PMO, EU Telecoms BL LTD, TopOne GmbH, TechBloom, VantaCore, nuLAB Srl, ApexY, 3Ciel, Re-Cell Technology Solutions, asgoodasnew electronics, GY Telecom, Wave Phones, Elytelecom, Online-Phones 24, LTDC SP. Z O.O., Bafobu</t>
+          <t>Spicydeals, U&amp;I, Stellaris, Zwapa Mobile, 3Ciel, ApexY, Nomo Phone, EU Telecoms BL LTD, COOLKK, Bafobu, PMO, Wave Phones, Tech Limited, Nest Green, Alloccaz, LTDC SP. Z O.O., GY Telecom, ChancenBörse, Phone, Simpatico Tech, Elytelecom, Re-Cell Technology Solutions, Online-Phones 24</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>Nest Green, Walchen New Life GmbH, Global Phones, COOLKK, ChancenBörse, Cellular Tech, CellShark, Techlovers, PMO, EU Telecoms BL LTD, TopOne GmbH, TechBloom, VantaCore, nuLAB Srl, ApexY, 3Ciel, Re-Cell Technology Solutions, asgoodasnew electronics, GY Telecom, Wave Phones, Elytelecom, Online-Phones 24, LTDC SP. Z O.O., Bafobu</t>
+          <t>Spicydeals, U&amp;I, Stellaris, Zwapa Mobile, 3Ciel, ApexY, Nomo Phone, EU Telecoms BL LTD, COOLKK, Bafobu, PMO, Wave Phones, Tech Limited, Nest Green, Alloccaz, LTDC SP. Z O.O., GY Telecom, ChancenBörse, Phone, Simpatico Tech, Elytelecom, Re-Cell Technology Solutions, Online-Phones 24</t>
         </is>
       </c>
       <c r="G105" t="n">
-        <v>921.8728571428571</v>
+        <v>948.5297468354431</v>
       </c>
       <c r="H105" t="n">
-        <v>921.8728571428571</v>
+        <v>948.5297468354431</v>
       </c>
     </row>
     <row r="106">
@@ -3814,30 +3814,30 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>群青蓝</t>
+          <t>蓝绿色</t>
         </is>
       </c>
       <c r="C106" t="n">
-        <v>638</v>
+        <v>518</v>
       </c>
       <c r="D106" t="n">
-        <v>638</v>
+        <v>518</v>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>Nest Green, COOLKK, Nomo Phone, ChancenBörse, U&amp;I, Tech Limited, PMO, EU Telecoms BL LTD, Stellaris, Alloccaz, ApexY, Zwapa Mobile, 3Ciel, Re-Cell Technology Solutions, GY Telecom, Phone, Wave Phones, Elytelecom, Simpatico Tech, Online-Phones 24, LTDC SP. Z O.O., Spicydeals, Bafobu</t>
+          <t>Global Phones, 3Ciel, ApexY, TechBloom, TopOne GmbH, EU Telecoms BL LTD, VantaCore, nuLAB Srl, COOLKK, Bafobu, PMO, asgoodasnew electronics, Wave Phones, Nest Green, Cellular Tech, LTDC SP. Z O.O., GY Telecom, CellShark, ChancenBörse, Walchen New Life GmbH, Elytelecom, Re-Cell Technology Solutions, Online-Phones 24, Techlovers</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>Nest Green, COOLKK, Nomo Phone, ChancenBörse, U&amp;I, Tech Limited, PMO, EU Telecoms BL LTD, Stellaris, Alloccaz, ApexY, Zwapa Mobile, 3Ciel, Re-Cell Technology Solutions, GY Telecom, Phone, Wave Phones, Elytelecom, Simpatico Tech, Online-Phones 24, LTDC SP. Z O.O., Spicydeals, Bafobu</t>
+          <t>Global Phones, 3Ciel, ApexY, TechBloom, TopOne GmbH, EU Telecoms BL LTD, VantaCore, nuLAB Srl, COOLKK, Bafobu, PMO, asgoodasnew electronics, Wave Phones, Nest Green, Cellular Tech, LTDC SP. Z O.O., GY Telecom, CellShark, ChancenBörse, Walchen New Life GmbH, Elytelecom, Re-Cell Technology Solutions, Online-Phones 24, Techlovers</t>
         </is>
       </c>
       <c r="G106" t="n">
-        <v>948.5297468354431</v>
+        <v>921.8728571428571</v>
       </c>
       <c r="H106" t="n">
-        <v>948.5297468354431</v>
+        <v>921.8728571428571</v>
       </c>
     </row>
     <row r="107">
@@ -3846,30 +3846,30 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>玫瑰色</t>
+          <t>黑色</t>
         </is>
       </c>
       <c r="C107" t="n">
-        <v>715</v>
+        <v>1040</v>
       </c>
       <c r="D107" t="n">
-        <v>715</v>
+        <v>1040</v>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>Nest Green, COOLKK, Tech Limited, ReVibe Tech, PMO, Alloccaz, VantaCore, Clevertronic, ApexY, EC Epinal, 3Ciel, Re-Cell Technology Solutions, We Cell, Wave Phones, Online-Phones 24, FOX ONLINE, LTDC SP. Z O.O., ELITE GADGET LIMITED, Bafobu</t>
+          <t>U&amp;I, Mobile tech mvw, Stellaris, 3Ciel, ApexY, Nomo Phone, VantaCore, COOLKK, Bafobu, CarreMobile, Wave Phones, Tech Limited, MG Trading, Nest Green, LTDC SP. Z O.O., CellShark, ChancenBörse, EC Echirolles, Clevertronic, NAMANPHONE SL, Re-Cell Technology Solutions, Online-Phones 24, rego, Techlovers</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>Nest Green, COOLKK, Tech Limited, ReVibe Tech, PMO, Alloccaz, VantaCore, Clevertronic, ApexY, EC Epinal, 3Ciel, Re-Cell Technology Solutions, We Cell, Wave Phones, Online-Phones 24, FOX ONLINE, LTDC SP. Z O.O., ELITE GADGET LIMITED, Bafobu</t>
+          <t>U&amp;I, Mobile tech mvw, Stellaris, 3Ciel, ApexY, Nomo Phone, VantaCore, COOLKK, Bafobu, CarreMobile, Wave Phones, Tech Limited, MG Trading, Nest Green, LTDC SP. Z O.O., CellShark, ChancenBörse, EC Echirolles, Clevertronic, NAMANPHONE SL, Re-Cell Technology Solutions, Online-Phones 24, rego, Techlovers</t>
         </is>
       </c>
       <c r="G107" t="n">
-        <v>971.8119696969695</v>
+        <v>897.3192391304349</v>
       </c>
       <c r="H107" t="n">
-        <v>971.8119696969695</v>
+        <v>897.3192391304349</v>
       </c>
     </row>
     <row r="108">
@@ -3878,30 +3878,30 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>黑色</t>
+          <t>白色</t>
         </is>
       </c>
       <c r="C108" t="n">
-        <v>1040</v>
+        <v>706</v>
       </c>
       <c r="D108" t="n">
-        <v>1040</v>
+        <v>706</v>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>Nest Green, Mobile tech mvw, COOLKK, Nomo Phone, U&amp;I, ChancenBörse, Tech Limited, CellShark, Techlovers, Stellaris, VantaCore, Clevertronic, ApexY, rego, 3Ciel, Re-Cell Technology Solutions, MG Trading, EC Echirolles, NAMANPHONE SL, Wave Phones, CarreMobile, Online-Phones 24, LTDC SP. Z O.O., Bafobu</t>
+          <t>U&amp;I, Mobile tech mvw, Stellaris, 3Ciel, ApexY, Nomo Phone, VantaCore, nuLAB Srl, Intoringy OÜ, COOLKK, PerleTech, Bafobu, PMO, smrtek, PreOwned, Wave Phones, Tech Limited, Cellular Tech, LTDC SP. Z O.O., ChancenBörse, Ironza, Clevertronic, FastMobile, Re-Cell Technology Solutions, Onlinehandel Kustynowicz, Online-Phones 24, rego</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>Nest Green, Mobile tech mvw, COOLKK, Nomo Phone, U&amp;I, ChancenBörse, Tech Limited, CellShark, Techlovers, Stellaris, VantaCore, Clevertronic, ApexY, rego, 3Ciel, Re-Cell Technology Solutions, MG Trading, EC Echirolles, NAMANPHONE SL, Wave Phones, CarreMobile, Online-Phones 24, LTDC SP. Z O.O., Bafobu</t>
+          <t>U&amp;I, Mobile tech mvw, Stellaris, 3Ciel, ApexY, Nomo Phone, VantaCore, nuLAB Srl, Intoringy OÜ, COOLKK, PerleTech, Bafobu, PMO, smrtek, PreOwned, Wave Phones, Tech Limited, Cellular Tech, LTDC SP. Z O.O., ChancenBörse, Ironza, Clevertronic, FastMobile, Re-Cell Technology Solutions, Onlinehandel Kustynowicz, Online-Phones 24, rego</t>
         </is>
       </c>
       <c r="G108" t="n">
-        <v>897.3192391304349</v>
+        <v>915.6201162790696</v>
       </c>
       <c r="H108" t="n">
-        <v>897.3192391304349</v>
+        <v>915.6201162790696</v>
       </c>
     </row>
     <row r="109">
@@ -3910,30 +3910,30 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>白色</t>
+          <t>玫瑰色</t>
         </is>
       </c>
       <c r="C109" t="n">
-        <v>706</v>
+        <v>715</v>
       </c>
       <c r="D109" t="n">
-        <v>706</v>
+        <v>715</v>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>PerleTech, Onlinehandel Kustynowicz, Mobile tech mvw, COOLKK, Nomo Phone, ChancenBörse, U&amp;I, Tech Limited, Cellular Tech, PMO, Intoringy OÜ, Stellaris, VantaCore, nuLAB Srl, Clevertronic, ApexY, rego, smrtek, FastMobile, 3Ciel, Re-Cell Technology Solutions, PreOwned, Ironza, Wave Phones, Online-Phones 24, LTDC SP. Z O.O., Bafobu</t>
+          <t>FOX ONLINE, 3Ciel, ApexY, ReVibe Tech, VantaCore, EC Epinal, COOLKK, Bafobu, PMO, Wave Phones, Tech Limited, Nest Green, Alloccaz, LTDC SP. Z O.O., We Cell, ELITE GADGET LIMITED, Clevertronic, Re-Cell Technology Solutions, Online-Phones 24</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>PerleTech, Onlinehandel Kustynowicz, Mobile tech mvw, COOLKK, Nomo Phone, ChancenBörse, U&amp;I, Tech Limited, Cellular Tech, PMO, Intoringy OÜ, Stellaris, VantaCore, nuLAB Srl, Clevertronic, ApexY, rego, smrtek, FastMobile, 3Ciel, Re-Cell Technology Solutions, PreOwned, Ironza, Wave Phones, Online-Phones 24, LTDC SP. Z O.O., Bafobu</t>
+          <t>FOX ONLINE, 3Ciel, ApexY, ReVibe Tech, VantaCore, EC Epinal, COOLKK, Bafobu, PMO, Wave Phones, Tech Limited, Nest Green, Alloccaz, LTDC SP. Z O.O., We Cell, ELITE GADGET LIMITED, Clevertronic, Re-Cell Technology Solutions, Online-Phones 24</t>
         </is>
       </c>
       <c r="G109" t="n">
-        <v>915.6201162790696</v>
+        <v>971.8119696969695</v>
       </c>
       <c r="H109" t="n">
-        <v>915.6201162790696</v>
+        <v>971.8119696969695</v>
       </c>
     </row>
     <row r="110">
@@ -3942,30 +3942,30 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>蓝绿色</t>
+          <t>群青蓝</t>
         </is>
       </c>
       <c r="C110" t="n">
-        <v>386</v>
+        <v>560</v>
       </c>
       <c r="D110" t="n">
-        <v>386</v>
+        <v>560</v>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>Nest Green, Global Phones, COOLKK, ChancenBörse, Tech Limited, CellShark, Techlovers, PMO, EU Telecoms BL LTD, VantaCore, ApexY, 3Ciel, Re-Cell Technology Solutions, asgoodasnew electronics, J.TECH LTD, Wave Phones, Elytelecom, CarreMobile, Online-Phones 24, LTDC SP. Z O.O., Bafobu</t>
+          <t>Stellaris, Zwapa Mobile, 3Ciel, ApexY, J.TECH LTD, ReVibe Tech, Nomo Phone, EU Telecoms BL LTD, COOLKK, Bafobu, PMO, Wave Phones, Tech Limited, Nest Green, Alloccaz, LTDC SP. Z O.O., CellShark, ChancenBörse, Phone, Simpatico Tech, Elytelecom, Re-Cell Technology Solutions, Online-Phones 24</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>Nest Green, Global Phones, COOLKK, ChancenBörse, Tech Limited, CellShark, Techlovers, PMO, EU Telecoms BL LTD, VantaCore, ApexY, 3Ciel, Re-Cell Technology Solutions, asgoodasnew electronics, J.TECH LTD, Wave Phones, Elytelecom, CarreMobile, Online-Phones 24, LTDC SP. Z O.O., Bafobu</t>
+          <t>Stellaris, Zwapa Mobile, 3Ciel, ApexY, J.TECH LTD, ReVibe Tech, Nomo Phone, EU Telecoms BL LTD, COOLKK, Bafobu, PMO, Wave Phones, Tech Limited, Nest Green, Alloccaz, LTDC SP. Z O.O., CellShark, ChancenBörse, Phone, Simpatico Tech, Elytelecom, Re-Cell Technology Solutions, Online-Phones 24</t>
         </is>
       </c>
       <c r="G110" t="n">
-        <v>935.5040625</v>
+        <v>958.7688157894736</v>
       </c>
       <c r="H110" t="n">
-        <v>935.5040625</v>
+        <v>958.7688157894736</v>
       </c>
     </row>
     <row r="111">
@@ -3974,30 +3974,30 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>群青蓝</t>
+          <t>蓝绿色</t>
         </is>
       </c>
       <c r="C111" t="n">
-        <v>560</v>
+        <v>386</v>
       </c>
       <c r="D111" t="n">
-        <v>560</v>
+        <v>386</v>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>Nest Green, COOLKK, Nomo Phone, ChancenBörse, Tech Limited, CellShark, ReVibe Tech, PMO, EU Telecoms BL LTD, Stellaris, Alloccaz, ApexY, Zwapa Mobile, 3Ciel, Re-Cell Technology Solutions, J.TECH LTD, Phone, Wave Phones, Elytelecom, Simpatico Tech, Online-Phones 24, LTDC SP. Z O.O., Bafobu</t>
+          <t>Global Phones, 3Ciel, ApexY, J.TECH LTD, EU Telecoms BL LTD, VantaCore, COOLKK, Bafobu, CarreMobile, PMO, asgoodasnew electronics, Wave Phones, Tech Limited, Nest Green, LTDC SP. Z O.O., CellShark, ChancenBörse, Elytelecom, Re-Cell Technology Solutions, Online-Phones 24, Techlovers</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>Nest Green, COOLKK, Nomo Phone, ChancenBörse, Tech Limited, CellShark, ReVibe Tech, PMO, EU Telecoms BL LTD, Stellaris, Alloccaz, ApexY, Zwapa Mobile, 3Ciel, Re-Cell Technology Solutions, J.TECH LTD, Phone, Wave Phones, Elytelecom, Simpatico Tech, Online-Phones 24, LTDC SP. Z O.O., Bafobu</t>
+          <t>Global Phones, 3Ciel, ApexY, J.TECH LTD, EU Telecoms BL LTD, VantaCore, COOLKK, Bafobu, CarreMobile, PMO, asgoodasnew electronics, Wave Phones, Tech Limited, Nest Green, LTDC SP. Z O.O., CellShark, ChancenBörse, Elytelecom, Re-Cell Technology Solutions, Online-Phones 24, Techlovers</t>
         </is>
       </c>
       <c r="G111" t="n">
-        <v>958.7688157894736</v>
+        <v>935.5040625</v>
       </c>
       <c r="H111" t="n">
-        <v>958.7688157894736</v>
+        <v>935.5040625</v>
       </c>
     </row>
     <row r="112">
@@ -4006,30 +4006,30 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>玫瑰色</t>
+          <t>黑色</t>
         </is>
       </c>
       <c r="C112" t="n">
-        <v>762</v>
+        <v>1091</v>
       </c>
       <c r="D112" t="n">
-        <v>762</v>
+        <v>1090</v>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>Nest Green, Mobile tech mvw, COOLKK, Tech Limited, PMO, Alloccaz, Clevertronic, ApexY, EC Epinal, 3Ciel, Re-Cell Technology Solutions, GY Telecom, We Cell, Wave Phones, Online-Phones 24, FOX ONLINE, LTDC SP. Z O.O., ELITE GADGET LIMITED, Bafobu</t>
+          <t>U&amp;I, Mobile tech mvw, 3Ciel, ApexY, Nomo Phone, VantaCore, COOLKK, Bafobu, CarreMobile, Wave Phones, Tech Limited, IT Place, MG Trading, Meadia-Tech, Nest Green, Cellular Tech, LTDC SP. Z O.O., GY Telecom, We Cell, CellShark, ChancenBörse, EC Echirolles, Clevertronic, NAMANPHONE SL, Re-Cell Technology Solutions, Online-Phones 24, rego, Techlovers</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>Nest Green, Mobile tech mvw, COOLKK, Tech Limited, PMO, Alloccaz, Clevertronic, ApexY, EC Epinal, 3Ciel, Re-Cell Technology Solutions, GY Telecom, We Cell, Wave Phones, Online-Phones 24, FOX ONLINE, LTDC SP. Z O.O., ELITE GADGET LIMITED, Bafobu</t>
+          <t>U&amp;I, Mobile tech mvw, 3Ciel, ApexY, Nomo Phone, VantaCore, COOLKK, Bafobu, CarreMobile, Wave Phones, Tech Limited, IT Place, MG Trading, Meadia-Tech, Nest Green, Cellular Tech, LTDC SP. Z O.O., GY Telecom, We Cell, CellShark, ChancenBörse, EC Echirolles, Clevertronic, NAMANPHONE SL, Re-Cell Technology Solutions, Online-Phones 24, rego, Techlovers</t>
         </is>
       </c>
       <c r="G112" t="n">
-        <v>964.6922535211266</v>
+        <v>868.273495145631</v>
       </c>
       <c r="H112" t="n">
-        <v>964.6922535211266</v>
+        <v>868.273495145631</v>
       </c>
     </row>
     <row r="113">
@@ -4038,30 +4038,30 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>黑色</t>
+          <t>白色</t>
         </is>
       </c>
       <c r="C113" t="n">
-        <v>1091</v>
+        <v>883</v>
       </c>
       <c r="D113" t="n">
-        <v>1090</v>
+        <v>883</v>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>Nest Green, Mobile tech mvw, COOLKK, Nomo Phone, U&amp;I, ChancenBörse, Tech Limited, CellShark, Cellular Tech, Techlovers, VantaCore, Clevertronic, ApexY, rego, 3Ciel, Re-Cell Technology Solutions, GY Telecom, Meadia-Tech, IT Place, MG Trading, EC Echirolles, We Cell, NAMANPHONE SL, Wave Phones, CarreMobile, Online-Phones 24, LTDC SP. Z O.O., Bafobu</t>
+          <t>U&amp;I, Mobile tech mvw, 3Ciel, ApexY, J.TECH LTD, Nomo Phone, VantaCore, Intoringy OÜ, COOLKK, PerleTech, Bafobu, PMO, smrtek, PreOwned, Wave Phones, Tech Limited, Cellular Tech, LTDC SP. Z O.O., GY Telecom, We Cell, Ironza, FastMobile, Re-Cell Technology Solutions, Onlinehandel Kustynowicz, Online-Phones 24, rego</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>Nest Green, Mobile tech mvw, COOLKK, Nomo Phone, U&amp;I, ChancenBörse, Tech Limited, CellShark, Cellular Tech, Techlovers, VantaCore, Clevertronic, ApexY, rego, 3Ciel, Re-Cell Technology Solutions, GY Telecom, Meadia-Tech, IT Place, MG Trading, EC Echirolles, We Cell, NAMANPHONE SL, Wave Phones, CarreMobile, Online-Phones 24, LTDC SP. Z O.O., Bafobu</t>
+          <t>U&amp;I, Mobile tech mvw, 3Ciel, ApexY, J.TECH LTD, Nomo Phone, VantaCore, Intoringy OÜ, COOLKK, PerleTech, Bafobu, PMO, smrtek, PreOwned, Wave Phones, Tech Limited, Cellular Tech, LTDC SP. Z O.O., GY Telecom, We Cell, Ironza, FastMobile, Re-Cell Technology Solutions, Onlinehandel Kustynowicz, Online-Phones 24, rego</t>
         </is>
       </c>
       <c r="G113" t="n">
-        <v>868.273495145631</v>
+        <v>888.9154444444442</v>
       </c>
       <c r="H113" t="n">
-        <v>868.273495145631</v>
+        <v>888.9154444444442</v>
       </c>
     </row>
     <row r="114">
@@ -4070,30 +4070,30 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>白色</t>
+          <t>玫瑰色</t>
         </is>
       </c>
       <c r="C114" t="n">
-        <v>883</v>
+        <v>762</v>
       </c>
       <c r="D114" t="n">
-        <v>883</v>
+        <v>762</v>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>PerleTech, Mobile tech mvw, Onlinehandel Kustynowicz, COOLKK, Nomo Phone, U&amp;I, Tech Limited, Cellular Tech, PMO, Intoringy OÜ, VantaCore, ApexY, rego, smrtek, FastMobile, 3Ciel, Re-Cell Technology Solutions, GY Telecom, PreOwned, Ironza, J.TECH LTD, We Cell, Wave Phones, Online-Phones 24, LTDC SP. Z O.O., Bafobu</t>
+          <t>Mobile tech mvw, FOX ONLINE, 3Ciel, ApexY, EC Epinal, COOLKK, Bafobu, PMO, Wave Phones, Tech Limited, Nest Green, Alloccaz, LTDC SP. Z O.O., GY Telecom, We Cell, ELITE GADGET LIMITED, Clevertronic, Re-Cell Technology Solutions, Online-Phones 24</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>PerleTech, Mobile tech mvw, Onlinehandel Kustynowicz, COOLKK, Nomo Phone, U&amp;I, Tech Limited, Cellular Tech, PMO, Intoringy OÜ, VantaCore, ApexY, rego, smrtek, FastMobile, 3Ciel, Re-Cell Technology Solutions, GY Telecom, PreOwned, Ironza, J.TECH LTD, We Cell, Wave Phones, Online-Phones 24, LTDC SP. Z O.O., Bafobu</t>
+          <t>Mobile tech mvw, FOX ONLINE, 3Ciel, ApexY, EC Epinal, COOLKK, Bafobu, PMO, Wave Phones, Tech Limited, Nest Green, Alloccaz, LTDC SP. Z O.O., GY Telecom, We Cell, ELITE GADGET LIMITED, Clevertronic, Re-Cell Technology Solutions, Online-Phones 24</t>
         </is>
       </c>
       <c r="G114" t="n">
-        <v>888.9154444444442</v>
+        <v>964.6922535211266</v>
       </c>
       <c r="H114" t="n">
-        <v>888.9154444444442</v>
+        <v>964.6922535211266</v>
       </c>
     </row>
     <row r="115">
@@ -4102,30 +4102,30 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>蓝绿色</t>
+          <t>群青蓝</t>
         </is>
       </c>
       <c r="C115" t="n">
-        <v>399</v>
+        <v>651</v>
       </c>
       <c r="D115" t="n">
-        <v>399</v>
+        <v>636</v>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>Nest Green, Global Phones, Mobile tech mvw, COOLKK, Tech Limited, CellShark, Techlovers, PMO, TechBloom, Clevertronic, ApexY, 3Ciel, Re-Cell Technology Solutions, asgoodasnew electronics, GY Telecom, Wave Phones, Elytelecom, CarreMobile, Online-Phones 24, LTDC SP. Z O.O., Bafobu</t>
+          <t>Mobile tech mvw, Stellaris, Zwapa Mobile, 3Ciel, ApexY, J.TECH LTD, ReVibe Tech, Nomo Phone, EU Telecoms BL LTD, COOLKK, Bafobu, CarreMobile, PMO, Wave Phones, Tech Limited, Nest Green, Alloccaz, LTDC SP. Z O.O., GY Telecom, CellShark, ChancenBörse, Phone, Walchen New Life GmbH, Simpatico Tech, Elytelecom, Re-Cell Technology Solutions, Online-Phones 24</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>Nest Green, Global Phones, Mobile tech mvw, COOLKK, Tech Limited, CellShark, Techlovers, PMO, TechBloom, Clevertronic, ApexY, 3Ciel, Re-Cell Technology Solutions, asgoodasnew electronics, GY Telecom, Wave Phones, Elytelecom, CarreMobile, Online-Phones 24, LTDC SP. Z O.O., Bafobu</t>
+          <t>Mobile tech mvw, Stellaris, Zwapa Mobile, 3Ciel, ApexY, J.TECH LTD, ReVibe Tech, Nomo Phone, EU Telecoms BL LTD, COOLKK, Bafobu, CarreMobile, PMO, Wave Phones, Tech Limited, Nest Green, Alloccaz, LTDC SP. Z O.O., GY Telecom, CellShark, ChancenBörse, Phone, Walchen New Life GmbH, Simpatico Tech, Elytelecom, Re-Cell Technology Solutions, Online-Phones 24</t>
         </is>
       </c>
       <c r="G115" t="n">
-        <v>931.3250769230768</v>
+        <v>937.0216438356165</v>
       </c>
       <c r="H115" t="n">
-        <v>931.3250769230768</v>
+        <v>936.4057534246575</v>
       </c>
     </row>
     <row r="116">
@@ -4134,30 +4134,30 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>群青蓝</t>
+          <t>蓝绿色</t>
         </is>
       </c>
       <c r="C116" t="n">
-        <v>651</v>
+        <v>399</v>
       </c>
       <c r="D116" t="n">
-        <v>636</v>
+        <v>399</v>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>Nest Green, Walchen New Life GmbH, Mobile tech mvw, COOLKK, Nomo Phone, ChancenBörse, Tech Limited, CellShark, ReVibe Tech, PMO, EU Telecoms BL LTD, Stellaris, Alloccaz, ApexY, Zwapa Mobile, 3Ciel, Re-Cell Technology Solutions, GY Telecom, J.TECH LTD, Phone, Wave Phones, Elytelecom, Simpatico Tech, CarreMobile, Online-Phones 24, LTDC SP. Z O.O., Bafobu</t>
+          <t>Global Phones, Mobile tech mvw, 3Ciel, ApexY, TechBloom, COOLKK, Bafobu, CarreMobile, PMO, asgoodasnew electronics, Wave Phones, Tech Limited, Nest Green, LTDC SP. Z O.O., GY Telecom, CellShark, Clevertronic, Elytelecom, Re-Cell Technology Solutions, Online-Phones 24, Techlovers</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>Nest Green, Walchen New Life GmbH, Mobile tech mvw, COOLKK, Nomo Phone, ChancenBörse, Tech Limited, CellShark, ReVibe Tech, PMO, EU Telecoms BL LTD, Stellaris, Alloccaz, ApexY, Zwapa Mobile, 3Ciel, Re-Cell Technology Solutions, GY Telecom, J.TECH LTD, Phone, Wave Phones, Elytelecom, Simpatico Tech, CarreMobile, Online-Phones 24, LTDC SP. Z O.O., Bafobu</t>
+          <t>Global Phones, Mobile tech mvw, 3Ciel, ApexY, TechBloom, COOLKK, Bafobu, CarreMobile, PMO, asgoodasnew electronics, Wave Phones, Tech Limited, Nest Green, LTDC SP. Z O.O., GY Telecom, CellShark, Clevertronic, Elytelecom, Re-Cell Technology Solutions, Online-Phones 24, Techlovers</t>
         </is>
       </c>
       <c r="G116" t="n">
-        <v>937.0216438356165</v>
+        <v>931.3250769230768</v>
       </c>
       <c r="H116" t="n">
-        <v>936.4057534246575</v>
+        <v>931.3250769230768</v>
       </c>
     </row>
     <row r="117">
@@ -4166,30 +4166,30 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>玫瑰色</t>
+          <t>黑色</t>
         </is>
       </c>
       <c r="C117" t="n">
-        <v>538</v>
+        <v>517</v>
       </c>
       <c r="D117" t="n">
-        <v>538</v>
+        <v>517</v>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>Nest Green, Mobile tech mvw, COOLKK, U&amp;I, Tech Limited, PMO, Stellaris, Alloccaz, VantaCore, Clevertronic, ApexY, EC Epinal, 3Ciel, Re-Cell Technology Solutions, We Cell, Wave Phones, Online-Phones 24, FOX ONLINE, LTDC SP. Z O.O., Bafobu</t>
+          <t>U&amp;I, Mobile tech mvw, FOX ONLINE, 3Ciel, ReVibe Tech, Nomo Phone, VantaCore, nuLAB Srl, COOLKK, Bafobu, CarreMobile, CellZone, Wave Phones, MG Trading, Nest Green, Cellular Tech, LTDC SP. Z O.O., CellShark, ChancenBörse, Clevertronic, NAMANPHONE SL, Re-Cell Technology Solutions, Onlinehandel Kustynowicz, Online-Phones 24, rego</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>Nest Green, Mobile tech mvw, COOLKK, U&amp;I, Tech Limited, PMO, Stellaris, Alloccaz, VantaCore, Clevertronic, ApexY, EC Epinal, 3Ciel, Re-Cell Technology Solutions, We Cell, Wave Phones, Online-Phones 24, FOX ONLINE, LTDC SP. Z O.O., Bafobu</t>
+          <t>U&amp;I, Mobile tech mvw, FOX ONLINE, 3Ciel, ReVibe Tech, Nomo Phone, VantaCore, nuLAB Srl, COOLKK, Bafobu, CarreMobile, CellZone, Wave Phones, MG Trading, Nest Green, Cellular Tech, LTDC SP. Z O.O., CellShark, ChancenBörse, Clevertronic, NAMANPHONE SL, Re-Cell Technology Solutions, Onlinehandel Kustynowicz, Online-Phones 24, rego</t>
         </is>
       </c>
       <c r="G117" t="n">
-        <v>972.6257352941175</v>
+        <v>929.020135135135</v>
       </c>
       <c r="H117" t="n">
-        <v>972.6257352941175</v>
+        <v>929.020135135135</v>
       </c>
     </row>
     <row r="118">
@@ -4198,30 +4198,30 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>黑色</t>
+          <t>白色</t>
         </is>
       </c>
       <c r="C118" t="n">
-        <v>517</v>
+        <v>590</v>
       </c>
       <c r="D118" t="n">
-        <v>517</v>
+        <v>590</v>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>Nest Green, Onlinehandel Kustynowicz, Mobile tech mvw, COOLKK, Nomo Phone, U&amp;I, ChancenBörse, CellShark, Cellular Tech, ReVibe Tech, VantaCore, nuLAB Srl, Clevertronic, rego, 3Ciel, Re-Cell Technology Solutions, CellZone, MG Trading, NAMANPHONE SL, Wave Phones, CarreMobile, Online-Phones 24, FOX ONLINE, LTDC SP. Z O.O., Bafobu</t>
+          <t>U&amp;I, Mobile tech mvw, Stellaris, 3Ciel, ApexY, J.TECH LTD, Nomo Phone, EU Telecoms BL LTD, VantaCore, nuLAB Srl, Intoringy OÜ, PerleTech, Bafobu, PMO, smrtek, PreOwned, CellZone, Wave Phones, Tech Limited, Cellular Tech, LTDC SP. Z O.O., ChancenBörse, Ironza, FastMobile, Re-Cell Technology Solutions, Online-Phones 24, rego</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>Nest Green, Onlinehandel Kustynowicz, Mobile tech mvw, COOLKK, Nomo Phone, U&amp;I, ChancenBörse, CellShark, Cellular Tech, ReVibe Tech, VantaCore, nuLAB Srl, Clevertronic, rego, 3Ciel, Re-Cell Technology Solutions, CellZone, MG Trading, NAMANPHONE SL, Wave Phones, CarreMobile, Online-Phones 24, FOX ONLINE, LTDC SP. Z O.O., Bafobu</t>
+          <t>U&amp;I, Mobile tech mvw, Stellaris, 3Ciel, ApexY, J.TECH LTD, Nomo Phone, EU Telecoms BL LTD, VantaCore, nuLAB Srl, Intoringy OÜ, PerleTech, Bafobu, PMO, smrtek, PreOwned, CellZone, Wave Phones, Tech Limited, Cellular Tech, LTDC SP. Z O.O., ChancenBörse, Ironza, FastMobile, Re-Cell Technology Solutions, Online-Phones 24, rego</t>
         </is>
       </c>
       <c r="G118" t="n">
-        <v>929.020135135135</v>
+        <v>949.7547222222222</v>
       </c>
       <c r="H118" t="n">
-        <v>929.020135135135</v>
+        <v>949.7547222222222</v>
       </c>
     </row>
     <row r="119">
@@ -4230,30 +4230,30 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>白色</t>
+          <t>玫瑰色</t>
         </is>
       </c>
       <c r="C119" t="n">
-        <v>590</v>
+        <v>538</v>
       </c>
       <c r="D119" t="n">
-        <v>590</v>
+        <v>538</v>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>PerleTech, Mobile tech mvw, Nomo Phone, ChancenBörse, U&amp;I, Tech Limited, Cellular Tech, PMO, Intoringy OÜ, EU Telecoms BL LTD, Stellaris, VantaCore, nuLAB Srl, ApexY, rego, smrtek, FastMobile, Re-Cell Technology Solutions, 3Ciel, CellZone, PreOwned, Ironza, J.TECH LTD, Wave Phones, Online-Phones 24, LTDC SP. Z O.O., Bafobu</t>
+          <t>U&amp;I, Mobile tech mvw, Stellaris, FOX ONLINE, 3Ciel, ApexY, VantaCore, EC Epinal, COOLKK, Bafobu, PMO, Wave Phones, Tech Limited, Nest Green, Alloccaz, LTDC SP. Z O.O., We Cell, Clevertronic, Re-Cell Technology Solutions, Online-Phones 24</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>PerleTech, Mobile tech mvw, Nomo Phone, ChancenBörse, U&amp;I, Tech Limited, Cellular Tech, PMO, Intoringy OÜ, EU Telecoms BL LTD, Stellaris, VantaCore, nuLAB Srl, ApexY, rego, smrtek, FastMobile, Re-Cell Technology Solutions, 3Ciel, CellZone, PreOwned, Ironza, J.TECH LTD, Wave Phones, Online-Phones 24, LTDC SP. Z O.O., Bafobu</t>
+          <t>U&amp;I, Mobile tech mvw, Stellaris, FOX ONLINE, 3Ciel, ApexY, VantaCore, EC Epinal, COOLKK, Bafobu, PMO, Wave Phones, Tech Limited, Nest Green, Alloccaz, LTDC SP. Z O.O., We Cell, Clevertronic, Re-Cell Technology Solutions, Online-Phones 24</t>
         </is>
       </c>
       <c r="G119" t="n">
-        <v>949.7547222222222</v>
+        <v>972.6257352941175</v>
       </c>
       <c r="H119" t="n">
-        <v>949.7547222222222</v>
+        <v>972.6257352941175</v>
       </c>
     </row>
     <row r="120">
@@ -4262,30 +4262,30 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>蓝绿色</t>
+          <t>群青蓝</t>
         </is>
       </c>
       <c r="C120" t="n">
-        <v>399</v>
+        <v>445</v>
       </c>
       <c r="D120" t="n">
-        <v>399</v>
+        <v>445</v>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>Nest Green, Mobile tech mvw, ChancenBörse, U&amp;I, Tech Limited, Cellular Tech, CellShark, Techlovers, PMO, VantaCore, Clevertronic, nuLAB Srl, 3Ciel, Re-Cell Technology Solutions, asgoodasnew electronics, J.TECH LTD, We Cell, Wave Phones, Elytelecom, Online-Phones 24, LTDC SP. Z O.O., Bafobu</t>
+          <t>U&amp;I, Mobile tech mvw, Stellaris, Zwapa Mobile, 3Ciel, J.TECH LTD, ReVibe Tech, Nomo Phone, EU Telecoms BL LTD, VantaCore, nuLAB Srl, Bafobu, CarreMobile, PMO, CellZone, Wave Phones, Tech Limited, Nest Green, Alloccaz, LTDC SP. Z O.O., ChancenBörse, Phone, Simpatico Tech, Elytelecom, Re-Cell Technology Solutions, Online-Phones 24</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>Nest Green, Mobile tech mvw, ChancenBörse, U&amp;I, Tech Limited, Cellular Tech, CellShark, Techlovers, PMO, VantaCore, Clevertronic, nuLAB Srl, 3Ciel, Re-Cell Technology Solutions, asgoodasnew electronics, J.TECH LTD, We Cell, Wave Phones, Elytelecom, Online-Phones 24, LTDC SP. Z O.O., Bafobu</t>
+          <t>U&amp;I, Mobile tech mvw, Stellaris, Zwapa Mobile, 3Ciel, J.TECH LTD, ReVibe Tech, Nomo Phone, EU Telecoms BL LTD, VantaCore, nuLAB Srl, Bafobu, CarreMobile, PMO, CellZone, Wave Phones, Tech Limited, Nest Green, Alloccaz, LTDC SP. Z O.O., ChancenBörse, Phone, Simpatico Tech, Elytelecom, Re-Cell Technology Solutions, Online-Phones 24</t>
         </is>
       </c>
       <c r="G120" t="n">
-        <v>949.8376923076922</v>
+        <v>967.9297297297296</v>
       </c>
       <c r="H120" t="n">
-        <v>949.8376923076922</v>
+        <v>967.9297297297296</v>
       </c>
     </row>
     <row r="121">
@@ -4294,30 +4294,30 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>群青蓝</t>
+          <t>蓝绿色</t>
         </is>
       </c>
       <c r="C121" t="n">
-        <v>445</v>
+        <v>399</v>
       </c>
       <c r="D121" t="n">
-        <v>445</v>
+        <v>399</v>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>Nest Green, Mobile tech mvw, Nomo Phone, ChancenBörse, U&amp;I, Tech Limited, ReVibe Tech, PMO, EU Telecoms BL LTD, Stellaris, Alloccaz, VantaCore, nuLAB Srl, Zwapa Mobile, 3Ciel, Re-Cell Technology Solutions, CellZone, J.TECH LTD, Phone, Wave Phones, Elytelecom, Simpatico Tech, CarreMobile, Online-Phones 24, LTDC SP. Z O.O., Bafobu</t>
+          <t>U&amp;I, Mobile tech mvw, 3Ciel, J.TECH LTD, VantaCore, nuLAB Srl, Bafobu, PMO, asgoodasnew electronics, Wave Phones, Tech Limited, Nest Green, Cellular Tech, LTDC SP. Z O.O., We Cell, CellShark, ChancenBörse, Clevertronic, Elytelecom, Re-Cell Technology Solutions, Online-Phones 24, Techlovers</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>Nest Green, Mobile tech mvw, Nomo Phone, ChancenBörse, U&amp;I, Tech Limited, ReVibe Tech, PMO, EU Telecoms BL LTD, Stellaris, Alloccaz, VantaCore, nuLAB Srl, Zwapa Mobile, 3Ciel, Re-Cell Technology Solutions, CellZone, J.TECH LTD, Phone, Wave Phones, Elytelecom, Simpatico Tech, CarreMobile, Online-Phones 24, LTDC SP. Z O.O., Bafobu</t>
+          <t>U&amp;I, Mobile tech mvw, 3Ciel, J.TECH LTD, VantaCore, nuLAB Srl, Bafobu, PMO, asgoodasnew electronics, Wave Phones, Tech Limited, Nest Green, Cellular Tech, LTDC SP. Z O.O., We Cell, CellShark, ChancenBörse, Clevertronic, Elytelecom, Re-Cell Technology Solutions, Online-Phones 24, Techlovers</t>
         </is>
       </c>
       <c r="G121" t="n">
-        <v>967.9297297297296</v>
+        <v>949.8376923076922</v>
       </c>
       <c r="H121" t="n">
-        <v>967.9297297297296</v>
+        <v>949.8376923076922</v>
       </c>
     </row>
     <row r="122">
@@ -4326,30 +4326,30 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>玫瑰色</t>
+          <t>黑色</t>
         </is>
       </c>
       <c r="C122" t="n">
-        <v>496</v>
+        <v>1307</v>
       </c>
       <c r="D122" t="n">
-        <v>504</v>
+        <v>1309</v>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>Clevertronic, Nest Green, EC Epinal, Walchen New Life GmbH, PMO, COOLKK, 3Ciel, Wave Phones, U&amp;I, Stellaris, Online-Phones 24, Tech Limited, LTDC SP. Z O.O., FOX ONLINE, Alloccaz, Bafobu, VantaCore</t>
+          <t>U&amp;I, Mobile tech mvw, 3Ciel, ApexY, ReVibe Tech, VantaCore, nuLAB Srl, COOLKK, TREEZY, Bafobu, CarreMobile, Wave Phones, MG Trading, Nest Green, Cellular Tech, LTDC SP. Z O.O., We Cell, CellShark, ChancenBörse, Clevertronic, FastMobile, NAMANPHONE SL, Online-Phones 24, rego</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>Clevertronic, We Cell, Nest Green, EC Epinal, Walchen New Life GmbH, PMO, COOLKK, 3Ciel, Wave Phones, U&amp;I, Stellaris, Online-Phones 24, Tech Limited, LTDC SP. Z O.O., FOX ONLINE, Alloccaz, Bafobu, VantaCore</t>
+          <t>U&amp;I, Mobile tech mvw, 3Ciel, ApexY, ReVibe Tech, VantaCore, nuLAB Srl, COOLKK, TREEZY, Bafobu, CarreMobile, Wave Phones, MG Trading, Nest Green, Cellular Tech, LTDC SP. Z O.O., We Cell, CellShark, ChancenBörse, Clevertronic, FastMobile, NAMANPHONE SL, Online-Phones 24, rego</t>
         </is>
       </c>
       <c r="G122" t="n">
-        <v>990.001846153846</v>
+        <v>925.8639473684211</v>
       </c>
       <c r="H122" t="n">
-        <v>990.124923076923</v>
+        <v>926.3376315789474</v>
       </c>
     </row>
     <row r="123">
@@ -4358,30 +4358,30 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>黑色</t>
+          <t>白色</t>
         </is>
       </c>
       <c r="C123" t="n">
-        <v>1307</v>
+        <v>323</v>
       </c>
       <c r="D123" t="n">
-        <v>1309</v>
+        <v>323</v>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>Nest Green, Mobile tech mvw, COOLKK, U&amp;I, ChancenBörse, TREEZY, CellShark, Cellular Tech, ReVibe Tech, VantaCore, nuLAB Srl, Clevertronic, ApexY, rego, FastMobile, 3Ciel, MG Trading, We Cell, NAMANPHONE SL, Wave Phones, CarreMobile, Online-Phones 24, LTDC SP. Z O.O., Bafobu</t>
+          <t>U&amp;I, Mobile tech mvw, Stellaris, 3Ciel, ApexY, J.TECH LTD, EU Telecoms BL LTD, VantaCore, nuLAB Srl, PerleTech, Bafobu, PMO, PreOwned, Wave Phones, Tech Limited, Cellular Tech, Alloccaz, LTDC SP. Z O.O., ChancenBörse, Ironza, Clevertronic, FastMobile, Online-Phones 24, rego</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>Nest Green, Mobile tech mvw, COOLKK, U&amp;I, ChancenBörse, TREEZY, CellShark, Cellular Tech, ReVibe Tech, VantaCore, nuLAB Srl, Clevertronic, ApexY, rego, FastMobile, 3Ciel, MG Trading, We Cell, NAMANPHONE SL, Wave Phones, CarreMobile, Online-Phones 24, LTDC SP. Z O.O., Bafobu</t>
+          <t>U&amp;I, Mobile tech mvw, Stellaris, 3Ciel, ApexY, J.TECH LTD, EU Telecoms BL LTD, VantaCore, nuLAB Srl, PerleTech, Bafobu, PMO, PreOwned, Wave Phones, Tech Limited, Cellular Tech, Alloccaz, LTDC SP. Z O.O., ChancenBörse, Ironza, Clevertronic, FastMobile, Online-Phones 24, rego</t>
         </is>
       </c>
       <c r="G123" t="n">
-        <v>925.8639473684211</v>
+        <v>946.0512676056336</v>
       </c>
       <c r="H123" t="n">
-        <v>926.3376315789474</v>
+        <v>946.0512676056336</v>
       </c>
     </row>
     <row r="124">
@@ -4390,30 +4390,30 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>白色</t>
+          <t>玫瑰色</t>
         </is>
       </c>
       <c r="C124" t="n">
-        <v>323</v>
+        <v>496</v>
       </c>
       <c r="D124" t="n">
-        <v>323</v>
+        <v>504</v>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>PerleTech, Mobile tech mvw, ChancenBörse, U&amp;I, Tech Limited, Cellular Tech, PMO, EU Telecoms BL LTD, Stellaris, Alloccaz, VantaCore, nuLAB Srl, Clevertronic, ApexY, rego, FastMobile, 3Ciel, PreOwned, Ironza, J.TECH LTD, Wave Phones, Online-Phones 24, LTDC SP. Z O.O., Bafobu</t>
+          <t>Wave Phones, Tech Limited, VantaCore, Clevertronic, EC Epinal, Walchen New Life GmbH, COOLKK, U&amp;I, Bafobu, Stellaris, LTDC SP. Z O.O., FOX ONLINE, 3Ciel, Nest Green, Alloccaz, Online-Phones 24, PMO</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>PerleTech, Mobile tech mvw, ChancenBörse, U&amp;I, Tech Limited, Cellular Tech, PMO, EU Telecoms BL LTD, Stellaris, Alloccaz, VantaCore, nuLAB Srl, Clevertronic, ApexY, rego, FastMobile, 3Ciel, PreOwned, Ironza, J.TECH LTD, Wave Phones, Online-Phones 24, LTDC SP. Z O.O., Bafobu</t>
+          <t>Wave Phones, Tech Limited, VantaCore, Clevertronic, EC Epinal, Walchen New Life GmbH, COOLKK, U&amp;I, Bafobu, Stellaris, LTDC SP. Z O.O., FOX ONLINE, 3Ciel, Nest Green, Alloccaz, Online-Phones 24, We Cell, PMO</t>
         </is>
       </c>
       <c r="G124" t="n">
-        <v>946.0512676056336</v>
+        <v>990.001846153846</v>
       </c>
       <c r="H124" t="n">
-        <v>946.0512676056336</v>
+        <v>990.124923076923</v>
       </c>
     </row>
     <row r="125">
@@ -4422,30 +4422,30 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>蓝绿色</t>
+          <t>群青蓝</t>
         </is>
       </c>
       <c r="C125" t="n">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="D125" t="n">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>Nest Green, Mobile tech mvw, ChancenBörse, U&amp;I, Tech Limited, Cellular Tech, CellShark, Techlovers, PMO, EU Telecoms BL LTD, TechBloom, VantaCore, nuLAB Srl, Clevertronic, ApexY, 3Ciel, Re-Cell Technology Solutions, asgoodasnew electronics, J.TECH LTD, Wave Phones, Elytelecom, Online-Phones 24, LTDC SP. Z O.O., Bafobu</t>
+          <t>U&amp;I, Mobile tech mvw, Stellaris, Zwapa Mobile, 3Ciel, J.TECH LTD, ReVibe Tech, EU Telecoms BL LTD, VantaCore, nuLAB Srl, Bafobu, PMO, CellZone, PreOwned, Wave Phones, Tech Limited, Nest Green, Alloccaz, LTDC SP. Z O.O., CellShark, ChancenBörse, Phone, Clevertronic, Walchen New Life GmbH, Simpatico Tech, Elytelecom, Online-Phones 24</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>Nest Green, Mobile tech mvw, ChancenBörse, U&amp;I, Tech Limited, Cellular Tech, CellShark, Techlovers, PMO, EU Telecoms BL LTD, TechBloom, VantaCore, nuLAB Srl, Clevertronic, ApexY, 3Ciel, Re-Cell Technology Solutions, asgoodasnew electronics, J.TECH LTD, Wave Phones, Elytelecom, Online-Phones 24, LTDC SP. Z O.O., Bafobu</t>
+          <t>U&amp;I, Mobile tech mvw, Stellaris, Zwapa Mobile, 3Ciel, J.TECH LTD, ReVibe Tech, EU Telecoms BL LTD, VantaCore, nuLAB Srl, Bafobu, PMO, CellZone, PreOwned, Wave Phones, Tech Limited, Nest Green, Alloccaz, LTDC SP. Z O.O., CellShark, ChancenBörse, Phone, Clevertronic, Walchen New Life GmbH, Simpatico Tech, Elytelecom, Online-Phones 24</t>
         </is>
       </c>
       <c r="G125" t="n">
-        <v>950.0445454545455</v>
+        <v>962.3305405405405</v>
       </c>
       <c r="H125" t="n">
-        <v>950.0445454545455</v>
+        <v>962.3305405405405</v>
       </c>
     </row>
     <row r="126">
@@ -4454,30 +4454,30 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>群青蓝</t>
+          <t>蓝绿色</t>
         </is>
       </c>
       <c r="C126" t="n">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="D126" t="n">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>Nest Green, Walchen New Life GmbH, Mobile tech mvw, ChancenBörse, U&amp;I, Tech Limited, CellShark, ReVibe Tech, PMO, EU Telecoms BL LTD, Stellaris, Alloccaz, VantaCore, Clevertronic, nuLAB Srl, Zwapa Mobile, 3Ciel, CellZone, PreOwned, J.TECH LTD, Phone, Wave Phones, Elytelecom, Simpatico Tech, Online-Phones 24, LTDC SP. Z O.O., Bafobu</t>
+          <t>U&amp;I, Mobile tech mvw, 3Ciel, ApexY, J.TECH LTD, TechBloom, EU Telecoms BL LTD, VantaCore, nuLAB Srl, Bafobu, PMO, asgoodasnew electronics, Wave Phones, Tech Limited, Nest Green, Cellular Tech, LTDC SP. Z O.O., CellShark, ChancenBörse, Clevertronic, Elytelecom, Re-Cell Technology Solutions, Online-Phones 24, Techlovers</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>Nest Green, Walchen New Life GmbH, Mobile tech mvw, ChancenBörse, U&amp;I, Tech Limited, CellShark, ReVibe Tech, PMO, EU Telecoms BL LTD, Stellaris, Alloccaz, VantaCore, Clevertronic, nuLAB Srl, Zwapa Mobile, 3Ciel, CellZone, PreOwned, J.TECH LTD, Phone, Wave Phones, Elytelecom, Simpatico Tech, Online-Phones 24, LTDC SP. Z O.O., Bafobu</t>
+          <t>U&amp;I, Mobile tech mvw, 3Ciel, ApexY, J.TECH LTD, TechBloom, EU Telecoms BL LTD, VantaCore, nuLAB Srl, Bafobu, PMO, asgoodasnew electronics, Wave Phones, Tech Limited, Nest Green, Cellular Tech, LTDC SP. Z O.O., CellShark, ChancenBörse, Clevertronic, Elytelecom, Re-Cell Technology Solutions, Online-Phones 24, Techlovers</t>
         </is>
       </c>
       <c r="G126" t="n">
-        <v>962.3305405405405</v>
+        <v>950.0445454545455</v>
       </c>
       <c r="H126" t="n">
-        <v>962.3305405405405</v>
+        <v>950.0445454545455</v>
       </c>
     </row>
     <row r="127">
@@ -4486,30 +4486,30 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>玫瑰色</t>
+          <t>黑色</t>
         </is>
       </c>
       <c r="C127" t="n">
-        <v>613</v>
+        <v>512</v>
       </c>
       <c r="D127" t="n">
-        <v>648</v>
+        <v>529</v>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>Nest Green, Walchen New Life GmbH, U&amp;I, Tech Limited, PMO, Alloccaz, Clevertronic, ApexY, smrtek, EC Epinal, Re-Cell Technology Solutions, GY Telecom, J.TECH LTD, Éclat Mobile, Wave Phones, Online-Phones 24, FOX ONLINE, LTDC SP. Z O.O., Bafobu</t>
+          <t>U&amp;I, Mobile tech mvw, ApexY, Nomo Phone, nuLAB Srl, COOLKK, Bafobu, CarreMobile, smrtek, Wave Phones, MG Trading, Nest Green, Cellular Tech, LTDC SP. Z O.O., GY Telecom, CellShark, ChancenBörse, Éclat Mobile, Clevertronic, Walchen New Life GmbH, NAMANPHONE SL, Re-Cell Technology Solutions, Online-Phones 24, rego</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>Nest Green, Walchen New Life GmbH, Tech Limited, PMO, Alloccaz, TechBloom, Clevertronic, ApexY, smrtek, EC Epinal, Re-Cell Technology Solutions, GY Telecom, J.TECH LTD, Éclat Mobile, Wave Phones, Online-Phones 24, FOX ONLINE, LTDC SP. Z O.O., Bafobu</t>
+          <t>U&amp;I, Mobile tech mvw, ApexY, Nomo Phone, nuLAB Srl, COOLKK, Bafobu, CarreMobile, smrtek, Wave Phones, MG Trading, Nest Green, Cellular Tech, LTDC SP. Z O.O., GY Telecom, CellShark, ChancenBörse, Éclat Mobile, Clevertronic, Walchen New Life GmbH, NAMANPHONE SL, Re-Cell Technology Solutions, Online-Phones 24, rego</t>
         </is>
       </c>
       <c r="G127" t="n">
-        <v>978.1261428571427</v>
+        <v>917.4888000000001</v>
       </c>
       <c r="H127" t="n">
-        <v>978.411857142857</v>
+        <v>917.4621333333333</v>
       </c>
     </row>
     <row r="128">
@@ -4518,30 +4518,30 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>黑色</t>
+          <t>白色</t>
         </is>
       </c>
       <c r="C128" t="n">
-        <v>512</v>
+        <v>672</v>
       </c>
       <c r="D128" t="n">
-        <v>529</v>
+        <v>663</v>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>Nest Green, Walchen New Life GmbH, Mobile tech mvw, COOLKK, Nomo Phone, U&amp;I, ChancenBörse, CellShark, Cellular Tech, nuLAB Srl, Clevertronic, ApexY, rego, smrtek, Re-Cell Technology Solutions, GY Telecom, MG Trading, NAMANPHONE SL, Éclat Mobile, Wave Phones, CarreMobile, Online-Phones 24, LTDC SP. Z O.O., Bafobu</t>
+          <t>U&amp;I, Mobile tech mvw, Stellaris, ApexY, Nomo Phone, PEPTACOM S.R.L., EU Telecoms BL LTD, mResell, nuLAB Srl, PerleTech, Bafobu, PMO, asgoodasnew electronics, smrtek, PreOwned, Wave Phones, Tech Limited, Cellular Tech, Alloccaz, LTDC SP. Z O.O., ChancenBörse, Ironza, Clevertronic, Re-Cell Technology Solutions, Online-Phones 24, rego</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>Nest Green, Walchen New Life GmbH, Mobile tech mvw, COOLKK, Nomo Phone, U&amp;I, ChancenBörse, CellShark, Cellular Tech, nuLAB Srl, Clevertronic, ApexY, rego, smrtek, Re-Cell Technology Solutions, GY Telecom, MG Trading, NAMANPHONE SL, Éclat Mobile, Wave Phones, CarreMobile, Online-Phones 24, LTDC SP. Z O.O., Bafobu</t>
+          <t>U&amp;I, Mobile tech mvw, Stellaris, ApexY, Nomo Phone, PEPTACOM S.R.L., EU Telecoms BL LTD, mResell, nuLAB Srl, PerleTech, Bafobu, PMO, asgoodasnew electronics, smrtek, PreOwned, Wave Phones, Tech Limited, Cellular Tech, Alloccaz, LTDC SP. Z O.O., ChancenBörse, Ironza, Clevertronic, Re-Cell Technology Solutions, Online-Phones 24, rego</t>
         </is>
       </c>
       <c r="G128" t="n">
-        <v>917.4888000000001</v>
+        <v>955.6441095890411</v>
       </c>
       <c r="H128" t="n">
-        <v>917.4621333333333</v>
+        <v>955.4934246575343</v>
       </c>
     </row>
     <row r="129">
@@ -4550,30 +4550,30 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>白色</t>
+          <t>玫瑰色</t>
         </is>
       </c>
       <c r="C129" t="n">
-        <v>672</v>
+        <v>613</v>
       </c>
       <c r="D129" t="n">
-        <v>663</v>
+        <v>648</v>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>PerleTech, Mobile tech mvw, Nomo Phone, ChancenBörse, U&amp;I, Tech Limited, Cellular Tech, mResell, PMO, EU Telecoms BL LTD, Stellaris, Alloccaz, nuLAB Srl, Clevertronic, ApexY, rego, smrtek, PEPTACOM S.R.L., Re-Cell Technology Solutions, asgoodasnew electronics, PreOwned, Ironza, Wave Phones, Online-Phones 24, LTDC SP. Z O.O., Bafobu</t>
+          <t>U&amp;I, FOX ONLINE, J.TECH LTD, ApexY, EC Epinal, Bafobu, PMO, smrtek, Wave Phones, Tech Limited, Nest Green, Alloccaz, LTDC SP. Z O.O., GY Telecom, Éclat Mobile, Clevertronic, Walchen New Life GmbH, Re-Cell Technology Solutions, Online-Phones 24</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>PerleTech, Mobile tech mvw, Nomo Phone, ChancenBörse, U&amp;I, Tech Limited, Cellular Tech, mResell, PMO, EU Telecoms BL LTD, Stellaris, Alloccaz, nuLAB Srl, Clevertronic, ApexY, rego, smrtek, PEPTACOM S.R.L., Re-Cell Technology Solutions, asgoodasnew electronics, PreOwned, Ironza, Wave Phones, Online-Phones 24, LTDC SP. Z O.O., Bafobu</t>
+          <t>FOX ONLINE, J.TECH LTD, ApexY, TechBloom, EC Epinal, Bafobu, PMO, smrtek, Wave Phones, Tech Limited, Nest Green, Alloccaz, LTDC SP. Z O.O., GY Telecom, Éclat Mobile, Clevertronic, Walchen New Life GmbH, Re-Cell Technology Solutions, Online-Phones 24</t>
         </is>
       </c>
       <c r="G129" t="n">
-        <v>955.6441095890411</v>
+        <v>978.1261428571427</v>
       </c>
       <c r="H129" t="n">
-        <v>955.4934246575343</v>
+        <v>978.411857142857</v>
       </c>
     </row>
     <row r="130">
@@ -4582,30 +4582,30 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>蓝绿色</t>
+          <t>群青蓝</t>
         </is>
       </c>
       <c r="C130" t="n">
-        <v>368</v>
+        <v>406</v>
       </c>
       <c r="D130" t="n">
-        <v>368</v>
+        <v>383</v>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>Nest Green, Mobile tech mvw, ChancenBörse, U&amp;I, Tech Limited, Cellular Tech, CellShark, Techlovers, PMO, EU Telecoms BL LTD, TechBloom, nuLAB Srl, Clevertronic, ApexY, Re-Cell Technology Solutions, asgoodasnew electronics, GY Telecom, Éclat Mobile, Wave Phones, Elytelecom, CarreMobile, Online-Phones 24, LTDC SP. Z O.O., Bafobu</t>
+          <t>U&amp;I, Mobile tech mvw, Stellaris, Zwapa Mobile, J.TECH LTD, Nomo Phone, PEPTACOM S.R.L., EU Telecoms BL LTD, nuLAB Srl, Bafobu, PMO, smrtek, Wave Phones, Tech Limited, Nest Green, LTDC SP. Z O.O., GY Telecom, CellShark, Éclat Mobile, ChancenBörse, Phone, Clevertronic, Walchen New Life GmbH, Simpatico Tech, Elytelecom, Re-Cell Technology Solutions, Online-Phones 24</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>Nest Green, Mobile tech mvw, ChancenBörse, U&amp;I, Tech Limited, Cellular Tech, CellShark, Techlovers, PMO, EU Telecoms BL LTD, TechBloom, nuLAB Srl, Clevertronic, ApexY, Re-Cell Technology Solutions, asgoodasnew electronics, GY Telecom, Éclat Mobile, Wave Phones, Elytelecom, CarreMobile, Online-Phones 24, LTDC SP. Z O.O., Bafobu</t>
+          <t>U&amp;I, Mobile tech mvw, Stellaris, Zwapa Mobile, J.TECH LTD, Nomo Phone, PEPTACOM S.R.L., EU Telecoms BL LTD, nuLAB Srl, Bafobu, PMO, smrtek, PreOwned, Wave Phones, Tech Limited, Nest Green, LTDC SP. Z O.O., GY Telecom, CellShark, Éclat Mobile, ChancenBörse, Phone, Clevertronic, Walchen New Life GmbH, Simpatico Tech, Elytelecom, Re-Cell Technology Solutions, Online-Phones 24</t>
         </is>
       </c>
       <c r="G130" t="n">
-        <v>956.7959375</v>
+        <v>960.1481818181819</v>
       </c>
       <c r="H130" t="n">
-        <v>956.7959375</v>
+        <v>960.5637662337663</v>
       </c>
     </row>
     <row r="131">
@@ -4614,30 +4614,30 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>群青蓝</t>
+          <t>蓝绿色</t>
         </is>
       </c>
       <c r="C131" t="n">
-        <v>406</v>
+        <v>368</v>
       </c>
       <c r="D131" t="n">
-        <v>383</v>
+        <v>368</v>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>Nest Green, Walchen New Life GmbH, Mobile tech mvw, Nomo Phone, ChancenBörse, U&amp;I, Tech Limited, CellShark, PMO, EU Telecoms BL LTD, Stellaris, Clevertronic, nuLAB Srl, smrtek, Zwapa Mobile, PEPTACOM S.R.L., Re-Cell Technology Solutions, GY Telecom, J.TECH LTD, Phone, Éclat Mobile, Wave Phones, Elytelecom, Simpatico Tech, Online-Phones 24, LTDC SP. Z O.O., Bafobu</t>
+          <t>U&amp;I, Mobile tech mvw, ApexY, TechBloom, EU Telecoms BL LTD, nuLAB Srl, Bafobu, CarreMobile, PMO, asgoodasnew electronics, Wave Phones, Tech Limited, Nest Green, Cellular Tech, LTDC SP. Z O.O., GY Telecom, CellShark, Éclat Mobile, ChancenBörse, Clevertronic, Elytelecom, Re-Cell Technology Solutions, Online-Phones 24, Techlovers</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>Nest Green, Walchen New Life GmbH, Mobile tech mvw, Nomo Phone, ChancenBörse, U&amp;I, Tech Limited, CellShark, PMO, EU Telecoms BL LTD, Stellaris, Clevertronic, nuLAB Srl, smrtek, Zwapa Mobile, PEPTACOM S.R.L., Re-Cell Technology Solutions, GY Telecom, PreOwned, J.TECH LTD, Phone, Éclat Mobile, Wave Phones, Elytelecom, Simpatico Tech, Online-Phones 24, LTDC SP. Z O.O., Bafobu</t>
+          <t>U&amp;I, Mobile tech mvw, ApexY, TechBloom, EU Telecoms BL LTD, nuLAB Srl, Bafobu, CarreMobile, PMO, asgoodasnew electronics, Wave Phones, Tech Limited, Nest Green, Cellular Tech, LTDC SP. Z O.O., GY Telecom, CellShark, Éclat Mobile, ChancenBörse, Clevertronic, Elytelecom, Re-Cell Technology Solutions, Online-Phones 24, Techlovers</t>
         </is>
       </c>
       <c r="G131" t="n">
-        <v>960.1481818181819</v>
+        <v>956.7959375</v>
       </c>
       <c r="H131" t="n">
-        <v>960.5637662337663</v>
+        <v>956.7959375</v>
       </c>
     </row>
     <row r="132">
@@ -4646,30 +4646,30 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>玫瑰色</t>
+          <t>黑色</t>
         </is>
       </c>
       <c r="C132" t="n">
-        <v>529</v>
+        <v>746</v>
       </c>
       <c r="D132" t="n">
-        <v>529</v>
+        <v>746</v>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>Nest Green, Walchen New Life GmbH, PMO, EU Telecoms BL LTD, Alloccaz, TechBloom, éclat Mobile, Clevertronic, nuLAB Srl, ApexY, smrtek, EC Epinal, Re-Cell Technology Solutions, J.TECH LTD, Wave Phones, Online-Phones 24, FOX ONLINE, LTDC SP. Z O.O., Bafobu</t>
+          <t>U&amp;I, Mobile tech mvw, Stellaris, FOX ONLINE, ApexY, TechBloom, ReVibe Tech, Nomo Phone, ChancenB?rse, TopOne GmbH, EU Telecoms BL LTD, Bafobu, CarreMobile, PMO, asgoodasnew electronics, smrtek, Wave Phones, MG Trading, Nest Green, Cellular Tech, LTDC SP. Z O.O., CellShark, Clevertronic, FastMobile, Walchen New Life GmbH, éclat Mobile, Re-Cell Technology Solutions, Online-Phones 24, rego</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>Nest Green, Walchen New Life GmbH, PMO, EU Telecoms BL LTD, Alloccaz, TechBloom, éclat Mobile, Clevertronic, nuLAB Srl, ApexY, smrtek, EC Epinal, Re-Cell Technology Solutions, J.TECH LTD, Wave Phones, Online-Phones 24, FOX ONLINE, LTDC SP. Z O.O., Bafobu</t>
+          <t>U&amp;I, Mobile tech mvw, Stellaris, FOX ONLINE, ApexY, TechBloom, ReVibe Tech, Nomo Phone, ChancenB?rse, TopOne GmbH, EU Telecoms BL LTD, Bafobu, CarreMobile, PMO, asgoodasnew electronics, smrtek, Wave Phones, MG Trading, Nest Green, Cellular Tech, LTDC SP. Z O.O., CellShark, Clevertronic, FastMobile, Walchen New Life GmbH, éclat Mobile, Re-Cell Technology Solutions, Online-Phones 24, rego</t>
         </is>
       </c>
       <c r="G132" t="n">
-        <v>981.123064516129</v>
+        <v>919.3208</v>
       </c>
       <c r="H132" t="n">
-        <v>981.123064516129</v>
+        <v>919.3208</v>
       </c>
     </row>
     <row r="133">
@@ -4678,30 +4678,30 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>黑色</t>
+          <t>白色</t>
         </is>
       </c>
       <c r="C133" t="n">
-        <v>746</v>
+        <v>502</v>
       </c>
       <c r="D133" t="n">
-        <v>746</v>
+        <v>502</v>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>Nest Green, Walchen New Life GmbH, Mobile tech mvw, Nomo Phone, U&amp;I, ChancenB?rse, CellShark, Cellular Tech, ReVibe Tech, PMO, EU Telecoms BL LTD, Stellaris, TopOne GmbH, TechBloom, éclat Mobile, Clevertronic, ApexY, rego, smrtek, FastMobile, Re-Cell Technology Solutions, asgoodasnew electronics, MG Trading, Wave Phones, CarreMobile, Online-Phones 24, FOX ONLINE, LTDC SP. Z O.O., Bafobu</t>
+          <t>U&amp;I, Stellaris, J.TECH LTD, ApexY, ReVibe Tech, Nomo Phone, ChancenB?rse, EU Telecoms BL LTD, mResell, nuLAB Srl, PerleTech, Bafobu, PMO, smrtek, PreOwned, Wave Phones, Tech Limited, Cellular Tech, LTDC SP. Z O.O., Clevertronic, Walchen New Life GmbH, Online-Phones 24, rego, Techlovers</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>Nest Green, Walchen New Life GmbH, Mobile tech mvw, Nomo Phone, U&amp;I, ChancenB?rse, CellShark, Cellular Tech, ReVibe Tech, PMO, EU Telecoms BL LTD, Stellaris, TopOne GmbH, TechBloom, éclat Mobile, Clevertronic, ApexY, rego, smrtek, FastMobile, Re-Cell Technology Solutions, asgoodasnew electronics, MG Trading, Wave Phones, CarreMobile, Online-Phones 24, FOX ONLINE, LTDC SP. Z O.O., Bafobu</t>
+          <t>U&amp;I, Stellaris, J.TECH LTD, ApexY, ReVibe Tech, Nomo Phone, ChancenB?rse, EU Telecoms BL LTD, mResell, nuLAB Srl, PerleTech, Bafobu, PMO, smrtek, PreOwned, Wave Phones, Tech Limited, Cellular Tech, LTDC SP. Z O.O., Clevertronic, Walchen New Life GmbH, Online-Phones 24, rego, Techlovers</t>
         </is>
       </c>
       <c r="G133" t="n">
-        <v>919.3208</v>
+        <v>925.5832352941176</v>
       </c>
       <c r="H133" t="n">
-        <v>919.3208</v>
+        <v>925.5832352941176</v>
       </c>
     </row>
     <row r="134">
@@ -4710,30 +4710,30 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>白色</t>
+          <t>玫瑰色</t>
         </is>
       </c>
       <c r="C134" t="n">
-        <v>502</v>
+        <v>529</v>
       </c>
       <c r="D134" t="n">
-        <v>502</v>
+        <v>529</v>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>PerleTech, Walchen New Life GmbH, Nomo Phone, U&amp;I, Tech Limited, ChancenB?rse, Cellular Tech, mResell, ReVibe Tech, Techlovers, PMO, EU Telecoms BL LTD, Stellaris, nuLAB Srl, Clevertronic, ApexY, rego, smrtek, PreOwned, J.TECH LTD, Wave Phones, Online-Phones 24, LTDC SP. Z O.O., Bafobu</t>
+          <t>FOX ONLINE, ApexY, J.TECH LTD, TechBloom, EU Telecoms BL LTD, nuLAB Srl, EC Epinal, Bafobu, PMO, smrtek, Wave Phones, Nest Green, Alloccaz, LTDC SP. Z O.O., Clevertronic, Walchen New Life GmbH, éclat Mobile, Re-Cell Technology Solutions, Online-Phones 24</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>PerleTech, Walchen New Life GmbH, Nomo Phone, U&amp;I, Tech Limited, ChancenB?rse, Cellular Tech, mResell, ReVibe Tech, Techlovers, PMO, EU Telecoms BL LTD, Stellaris, nuLAB Srl, Clevertronic, ApexY, rego, smrtek, PreOwned, J.TECH LTD, Wave Phones, Online-Phones 24, LTDC SP. Z O.O., Bafobu</t>
+          <t>FOX ONLINE, ApexY, J.TECH LTD, TechBloom, EU Telecoms BL LTD, nuLAB Srl, EC Epinal, Bafobu, PMO, smrtek, Wave Phones, Nest Green, Alloccaz, LTDC SP. Z O.O., Clevertronic, Walchen New Life GmbH, éclat Mobile, Re-Cell Technology Solutions, Online-Phones 24</t>
         </is>
       </c>
       <c r="G134" t="n">
-        <v>925.5832352941176</v>
+        <v>981.123064516129</v>
       </c>
       <c r="H134" t="n">
-        <v>925.5832352941176</v>
+        <v>981.123064516129</v>
       </c>
     </row>
     <row r="135">
@@ -4742,30 +4742,30 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>蓝绿色</t>
+          <t>群青蓝</t>
         </is>
       </c>
       <c r="C135" t="n">
-        <v>513</v>
+        <v>344</v>
       </c>
       <c r="D135" t="n">
-        <v>513</v>
+        <v>344</v>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>Mobile tech mvw, ChancenB?rse, Cellular Tech, CellShark, ReVibe Tech, Techlovers, PMO, EU Telecoms BL LTD, TopOne GmbH, TechBloom, éclat Mobile, nuLAB Srl, Clevertronic, ApexY, smrtek, Re-Cell Technology Solutions, asgoodasnew electronics, J.TECH LTD, Wave Phones, Elytelecom, Online-Phones 24, LTDC SP. Z O.O., Bafobu</t>
+          <t>U&amp;I, Stellaris, Zwapa Mobile, ApexY, J.TECH LTD, TechBloom, ReVibe Tech, Nomo Phone, PEPTACOM S.R.L., ChancenB?rse, EU Telecoms BL LTD, nuLAB Srl, Bafobu, PMO, smrtek, Wave Phones, Tech Limited, Nest Green, Alloccaz, LTDC SP. Z O.O., CellShark, Phone, Clevertronic, Walchen New Life GmbH, Simpatico Tech, éclat Mobile, Elytelecom, Re-Cell Technology Solutions, Online-Phones 24</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>Mobile tech mvw, ChancenB?rse, Cellular Tech, CellShark, ReVibe Tech, Techlovers, PMO, EU Telecoms BL LTD, TopOne GmbH, TechBloom, éclat Mobile, nuLAB Srl, Clevertronic, ApexY, smrtek, Re-Cell Technology Solutions, asgoodasnew electronics, J.TECH LTD, Wave Phones, Elytelecom, Online-Phones 24, LTDC SP. Z O.O., Bafobu</t>
+          <t>U&amp;I, Stellaris, Zwapa Mobile, ApexY, J.TECH LTD, TechBloom, ReVibe Tech, Nomo Phone, PEPTACOM S.R.L., ChancenB?rse, EU Telecoms BL LTD, nuLAB Srl, Bafobu, PMO, smrtek, Wave Phones, Tech Limited, Nest Green, Alloccaz, LTDC SP. Z O.O., CellShark, Phone, Clevertronic, Walchen New Life GmbH, Simpatico Tech, éclat Mobile, Elytelecom, Re-Cell Technology Solutions, Online-Phones 24</t>
         </is>
       </c>
       <c r="G135" t="n">
-        <v>953.9384848484848</v>
+        <v>958.3970422535211</v>
       </c>
       <c r="H135" t="n">
-        <v>953.9384848484848</v>
+        <v>958.3970422535211</v>
       </c>
     </row>
     <row r="136">
@@ -4774,30 +4774,30 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>群青蓝</t>
+          <t>蓝绿色</t>
         </is>
       </c>
       <c r="C136" t="n">
-        <v>344</v>
+        <v>513</v>
       </c>
       <c r="D136" t="n">
-        <v>344</v>
+        <v>513</v>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>Nest Green, Walchen New Life GmbH, Nomo Phone, U&amp;I, Tech Limited, ChancenB?rse, CellShark, ReVibe Tech, PMO, EU Telecoms BL LTD, Stellaris, Alloccaz, TechBloom, éclat Mobile, Clevertronic, nuLAB Srl, ApexY, smrtek, Zwapa Mobile, PEPTACOM S.R.L., Re-Cell Technology Solutions, J.TECH LTD, Phone, Wave Phones, Elytelecom, Simpatico Tech, Online-Phones 24, LTDC SP. Z O.O., Bafobu</t>
+          <t>Mobile tech mvw, J.TECH LTD, ApexY, TechBloom, ReVibe Tech, ChancenB?rse, TopOne GmbH, EU Telecoms BL LTD, nuLAB Srl, Bafobu, PMO, asgoodasnew electronics, smrtek, Wave Phones, Cellular Tech, LTDC SP. Z O.O., CellShark, Clevertronic, éclat Mobile, Elytelecom, Re-Cell Technology Solutions, Online-Phones 24, Techlovers</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>Nest Green, Walchen New Life GmbH, Nomo Phone, U&amp;I, Tech Limited, ChancenB?rse, CellShark, ReVibe Tech, PMO, EU Telecoms BL LTD, Stellaris, Alloccaz, TechBloom, éclat Mobile, Clevertronic, nuLAB Srl, ApexY, smrtek, Zwapa Mobile, PEPTACOM S.R.L., Re-Cell Technology Solutions, J.TECH LTD, Phone, Wave Phones, Elytelecom, Simpatico Tech, Online-Phones 24, LTDC SP. Z O.O., Bafobu</t>
+          <t>Mobile tech mvw, J.TECH LTD, ApexY, TechBloom, ReVibe Tech, ChancenB?rse, TopOne GmbH, EU Telecoms BL LTD, nuLAB Srl, Bafobu, PMO, asgoodasnew electronics, smrtek, Wave Phones, Cellular Tech, LTDC SP. Z O.O., CellShark, Clevertronic, éclat Mobile, Elytelecom, Re-Cell Technology Solutions, Online-Phones 24, Techlovers</t>
         </is>
       </c>
       <c r="G136" t="n">
-        <v>958.3970422535211</v>
+        <v>953.9384848484848</v>
       </c>
       <c r="H136" t="n">
-        <v>958.3970422535211</v>
+        <v>953.9384848484848</v>
       </c>
     </row>
     <row r="137">
@@ -4806,30 +4806,30 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>玫瑰色</t>
+          <t>黑色</t>
         </is>
       </c>
       <c r="C137" t="n">
-        <v>418</v>
+        <v>720</v>
       </c>
       <c r="D137" t="n">
-        <v>513</v>
+        <v>720</v>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>Nest Green, Tech Limited, CellShark, PMO, Stellaris, Nesatec GmbH &amp; Co. KG, TechBloom, éclat Mobile, Clevertronic, nuLAB Srl, ApexY, smrtek, EC Epinal, Re-Cell Technology Solutions, J.TECH LTD, Wave Phones, Online-Phones 24, FOX ONLINE, LTDC SP. Z O.O., Bafobu</t>
+          <t>U&amp;I, Mobile tech mvw, ApexY, TechBloom, ReVibe Tech, Nomo Phone, ChancenB?rse, TopOne GmbH, EU Telecoms BL LTD, nuLAB Srl, Bafobu, CarreMobile, PMO, asgoodasnew electronics, smrtek, Wave Phones, MG Trading, Nest Green, Cellular Tech, LTDC SP. Z O.O., CellShark, Clevertronic, SELL MY CELL EUROPE LIMITED, éclat Mobile, Online-Phones 24, rego</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>Nest Green, U&amp;I, Tech Limited, CellShark, ReVibe Tech, PMO, Stellaris, Nesatec GmbH &amp; Co. KG, TechBloom, Clevertronic, nuLAB Srl, ApexY, EC Epinal, Re-Cell Technology Solutions, Electronic Trading B.V., SELL MY CELL EUROPE LIMITED, J.TECH LTD, Wave Phones, Online-Phones 24, FOX ONLINE, LTDC SP. Z O.O., Axore, Bafobu</t>
+          <t>U&amp;I, Mobile tech mvw, ApexY, ReVibe Tech, Nomo Phone, ChancenB?rse, TopOne GmbH, EU Telecoms BL LTD, nuLAB Srl, Bafobu, CarreMobile, PMO, asgoodasnew electronics, smrtek, Tech Limited, MG Trading, Nest Green, Cellular Tech, LTDC SP. Z O.O., CellShark, Clevertronic, Walchen New Life GmbH, SELL MY CELL EUROPE LIMITED, Re-Cell Technology Solutions, Online-Phones 24, rego, Tecnoutlet2020</t>
         </is>
       </c>
       <c r="G137" t="n">
-        <v>984.5494366197184</v>
+        <v>918.3729761904764</v>
       </c>
       <c r="H137" t="n">
-        <v>980.3943661971831</v>
+        <v>903.4491666666668</v>
       </c>
     </row>
     <row r="138">
@@ -4838,30 +4838,30 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>黑色</t>
+          <t>白色</t>
         </is>
       </c>
       <c r="C138" t="n">
-        <v>720</v>
+        <v>502</v>
       </c>
       <c r="D138" t="n">
-        <v>720</v>
+        <v>695</v>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>Nest Green, Mobile tech mvw, Nomo Phone, U&amp;I, ChancenB?rse, CellShark, Cellular Tech, ReVibe Tech, PMO, EU Telecoms BL LTD, TopOne GmbH, TechBloom, éclat Mobile, Clevertronic, nuLAB Srl, ApexY, rego, smrtek, asgoodasnew electronics, SELL MY CELL EUROPE LIMITED, MG Trading, Wave Phones, CarreMobile, Online-Phones 24, LTDC SP. Z O.O., Bafobu</t>
+          <t>U&amp;I, Stellaris, J.TECH LTD, ApexY, ReVibe Tech, Nomo Phone, ChancenB?rse, TopOne GmbH, mResell, nuLAB Srl, PerleTech, Bafobu, CarreMobile, PMO, smrtek, PreOwned, Wave Phones, Tech Limited, Cellular Tech, LTDC SP. Z O.O., Clevertronic, Walchen New Life GmbH, Online-Phones 24, rego, Techlovers</t>
         </is>
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>Nest Green, Walchen New Life GmbH, Mobile tech mvw, Nomo Phone, U&amp;I, Tech Limited, ChancenB?rse, Cellular Tech, CellShark, ReVibe Tech, PMO, EU Telecoms BL LTD, TopOne GmbH, Clevertronic, nuLAB Srl, ApexY, rego, smrtek, Re-Cell Technology Solutions, asgoodasnew electronics, SELL MY CELL EUROPE LIMITED, MG Trading, CarreMobile, Online-Phones 24, LTDC SP. Z O.O., Bafobu, Tecnoutlet2020</t>
+          <t>U&amp;I, Stellaris, J.TECH LTD, ApexY, ReVibe Tech, Nomo Phone, ChancenB?rse, TopOne GmbH, nuLAB Srl, PerleTech, Bafobu, PMO, smrtek, Wave Phones, Tech Limited, Cellular Tech, LTDC SP. Z O.O., CellShark, Clevertronic, Walchen New Life GmbH, Electronic Trading B.V., Re-Cell Technology Solutions, Online-Phones 24, rego, Techlovers</t>
         </is>
       </c>
       <c r="G138" t="n">
-        <v>918.3729761904764</v>
+        <v>938.1319999999999</v>
       </c>
       <c r="H138" t="n">
-        <v>903.4491666666668</v>
+        <v>930.1814666666667</v>
       </c>
     </row>
     <row r="139">
@@ -4870,30 +4870,30 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>白色</t>
+          <t>玫瑰色</t>
         </is>
       </c>
       <c r="C139" t="n">
-        <v>502</v>
+        <v>418</v>
       </c>
       <c r="D139" t="n">
-        <v>695</v>
+        <v>513</v>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>PerleTech, Walchen New Life GmbH, Nomo Phone, U&amp;I, Tech Limited, ChancenB?rse, Cellular Tech, mResell, ReVibe Tech, Techlovers, PMO, Stellaris, TopOne GmbH, nuLAB Srl, Clevertronic, ApexY, rego, smrtek, PreOwned, J.TECH LTD, Wave Phones, CarreMobile, Online-Phones 24, LTDC SP. Z O.O., Bafobu</t>
+          <t>Stellaris, FOX ONLINE, J.TECH LTD, ApexY, TechBloom, nuLAB Srl, EC Epinal, Bafobu, PMO, smrtek, Wave Phones, Tech Limited, Nest Green, LTDC SP. Z O.O., CellShark, Clevertronic, éclat Mobile, Re-Cell Technology Solutions, Online-Phones 24, Nesatec GmbH &amp; Co. KG</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>PerleTech, Walchen New Life GmbH, Nomo Phone, U&amp;I, Tech Limited, ChancenB?rse, Cellular Tech, CellShark, ReVibe Tech, Techlovers, PMO, Stellaris, TopOne GmbH, nuLAB Srl, Clevertronic, ApexY, rego, smrtek, Re-Cell Technology Solutions, Electronic Trading B.V., J.TECH LTD, Wave Phones, Online-Phones 24, LTDC SP. Z O.O., Bafobu</t>
+          <t>U&amp;I, Stellaris, FOX ONLINE, ApexY, J.TECH LTD, TechBloom, ReVibe Tech, nuLAB Srl, EC Epinal, Bafobu, PMO, Wave Phones, Tech Limited, Axore, Nest Green, LTDC SP. Z O.O., CellShark, Clevertronic, SELL MY CELL EUROPE LIMITED, Electronic Trading B.V., Re-Cell Technology Solutions, Online-Phones 24, Nesatec GmbH &amp; Co. KG</t>
         </is>
       </c>
       <c r="G139" t="n">
-        <v>938.1319999999999</v>
+        <v>984.5494366197184</v>
       </c>
       <c r="H139" t="n">
-        <v>930.1814666666667</v>
+        <v>980.3943661971831</v>
       </c>
     </row>
     <row r="140">
@@ -4902,30 +4902,30 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>蓝绿色</t>
+          <t>群青蓝</t>
         </is>
       </c>
       <c r="C140" t="n">
-        <v>391</v>
+        <v>317</v>
       </c>
       <c r="D140" t="n">
-        <v>370</v>
+        <v>550</v>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>Nest Green, ChancenB?rse, Cellular Tech, CellShark, ReVibe Tech, PMO, TopOne GmbH, TechBloom, éclat Mobile, nuLAB Srl, Clevertronic, ApexY, smrtek, Re-Cell Technology Solutions, asgoodasnew electronics, Wave Phones, Elytelecom, Online-Phones 24, Axore, LTDC SP. Z O.O., Bafobu</t>
+          <t>U&amp;I, Stellaris, Zwapa Mobile, ApexY, J.TECH LTD, TechBloom, ReVibe Tech, ChancenB?rse, TopOne GmbH, EU Telecoms BL LTD, nuLAB Srl, Bafobu, PMO, CellZone, PreOwned, Wave Phones, Tech Limited, Axore, Nest Green, Alloccaz, LTDC SP. Z O.O., CellShark, Phone, Clevertronic, SELL MY CELL EUROPE LIMITED, Simpatico Tech, éclat Mobile, Elytelecom, Re-Cell Technology Solutions, Online-Phones 24</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>Nest Green, Walchen New Life GmbH, U&amp;I, ChancenB?rse, Cellular Tech, CellShark, ReVibe Tech, PMO, TopOne GmbH, nuLAB Srl, Clevertronic, ApexY, Re-Cell Technology Solutions, Electronic Trading B.V., J.TECH LTD, Wave Phones, Elytelecom, Online-Phones 24, LTDC SP. Z O.O., Bafobu</t>
+          <t>U&amp;I, Stellaris, Zwapa Mobile, ApexY, J.TECH LTD, ReVibe Tech, Nomo Phone, ChancenB?rse, EU Telecoms BL LTD, Bafobu, PMO, Wave Phones, Tech Limited, Axore, Nest Green, Alloccaz, LTDC SP. Z O.O., We Cell, CellShark, Phone, Clevertronic, Walchen New Life GmbH, SELL MY CELL EUROPE LIMITED, Simpatico Tech, Electronic Trading B.V., Elytelecom, Re-Cell Technology Solutions, Online-Phones 24</t>
         </is>
       </c>
       <c r="G140" t="n">
-        <v>945.0142857142855</v>
+        <v>969.1640506329113</v>
       </c>
       <c r="H140" t="n">
-        <v>937.212</v>
+        <v>971.7053164556962</v>
       </c>
     </row>
     <row r="141">
@@ -4934,30 +4934,30 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>群青蓝</t>
+          <t>蓝绿色</t>
         </is>
       </c>
       <c r="C141" t="n">
-        <v>317</v>
+        <v>391</v>
       </c>
       <c r="D141" t="n">
-        <v>550</v>
+        <v>370</v>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>Nest Green, U&amp;I, Tech Limited, ChancenB?rse, CellShark, ReVibe Tech, PMO, EU Telecoms BL LTD, Stellaris, TopOne GmbH, Alloccaz, TechBloom, éclat Mobile, nuLAB Srl, Clevertronic, ApexY, Zwapa Mobile, Re-Cell Technology Solutions, SELL MY CELL EUROPE LIMITED, CellZone, PreOwned, J.TECH LTD, Phone, Wave Phones, Elytelecom, Simpatico Tech, Axore, Online-Phones 24, LTDC SP. Z O.O., Bafobu</t>
+          <t>ApexY, TechBloom, ReVibe Tech, ChancenB?rse, TopOne GmbH, nuLAB Srl, Bafobu, PMO, asgoodasnew electronics, smrtek, Wave Phones, Axore, Nest Green, Cellular Tech, LTDC SP. Z O.O., CellShark, Clevertronic, éclat Mobile, Elytelecom, Re-Cell Technology Solutions, Online-Phones 24</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>Nest Green, Walchen New Life GmbH, Nomo Phone, U&amp;I, Tech Limited, ChancenB?rse, CellShark, ReVibe Tech, PMO, EU Telecoms BL LTD, Stellaris, Alloccaz, Clevertronic, ApexY, Zwapa Mobile, Re-Cell Technology Solutions, Electronic Trading B.V., SELL MY CELL EUROPE LIMITED, We Cell, J.TECH LTD, Phone, Wave Phones, Elytelecom, Simpatico Tech, Online-Phones 24, Axore, LTDC SP. Z O.O., Bafobu</t>
+          <t>U&amp;I, J.TECH LTD, ApexY, ReVibe Tech, ChancenB?rse, TopOne GmbH, nuLAB Srl, Bafobu, PMO, Wave Phones, Nest Green, Cellular Tech, LTDC SP. Z O.O., CellShark, Clevertronic, Walchen New Life GmbH, Electronic Trading B.V., Elytelecom, Re-Cell Technology Solutions, Online-Phones 24</t>
         </is>
       </c>
       <c r="G141" t="n">
-        <v>969.1640506329113</v>
+        <v>945.0142857142855</v>
       </c>
       <c r="H141" t="n">
-        <v>971.7053164556962</v>
+        <v>937.212</v>
       </c>
     </row>
     <row r="142">
@@ -4966,30 +4966,30 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>玫瑰色</t>
+          <t>黑色</t>
         </is>
       </c>
       <c r="C142" t="n">
-        <v>545</v>
+        <v>784</v>
       </c>
       <c r="D142" t="n">
-        <v>544</v>
+        <v>821</v>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>Nest Green, U&amp;I, Tech Limited, CellShark, ReVibe Tech, PMO, Nesatec GmbH &amp; Co. KG, Clevertronic, nuLAB Srl, ApexY, EC Epinal, Re-Cell Technology Solutions, Electronic Trading B.V., SELL MY CELL EUROPE LIMITED, CellZone, J.TECH LTD, Wave Phones, Online-Phones 24, FOX ONLINE, LTDC SP. Z O.O., Axore, Bafobu</t>
+          <t>U&amp;I, Mobile tech mvw, ApexY, ReVibe Tech, PhoneStore, ChancenB?rse, TopOne GmbH, Nomo Phone, EU Telecoms BL LTD, nuLAB Srl, Bafobu, CarreMobile, PMO, asgoodasnew electronics, Tech Limited, MG Trading, Nest Green, Cellular Tech, LTDC SP. Z O.O., CellShark, Clevertronic, SELL MY CELL EUROPE LIMITED, Electronic Trading B.V., Re-Cell Technology Solutions, Online-Phones 24, rego, Tecnoutlet2020</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>Nest Green, U&amp;I, Tech Limited, CellShark, ReVibe Tech, PMO, Nesatec GmbH &amp; Co. KG, Clevertronic, nuLAB Srl, ApexY, EC Epinal, Electronic Trading B.V., SELL MY CELL EUROPE LIMITED, CellZone, J.TECH LTD, Wave Phones, Online-Phones 24, FOX ONLINE, LTDC SP. Z O.O., Axore, Bafobu</t>
+          <t>U&amp;I, Mobile tech mvw, ApexY, ReVibe Tech, PhoneStore, ChancenB?rse, TopOne GmbH, Nomo Phone, EU Telecoms BL LTD, nuLAB Srl, Bafobu, CarreMobile, PMO, asgoodasnew electronics, Tech Limited, MG Trading, Nest Green, Cellular Tech, LTDC SP. Z O.O., CellShark, Clevertronic, SELL MY CELL EUROPE LIMITED, Electronic Trading B.V., Online-Phones 24, rego, Tecnoutlet2020</t>
         </is>
       </c>
       <c r="G142" t="n">
-        <v>980.3832394366196</v>
+        <v>906.0693670886076</v>
       </c>
       <c r="H142" t="n">
-        <v>981.4252112676056</v>
+        <v>910.0301265822785</v>
       </c>
     </row>
     <row r="143">
@@ -4998,27 +4998,27 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>黑色</t>
+          <t>白色</t>
         </is>
       </c>
       <c r="C143" t="n">
-        <v>784</v>
+        <v>659</v>
       </c>
       <c r="D143" t="n">
-        <v>821</v>
+        <v>659</v>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>Nest Green, Mobile tech mvw, Nomo Phone, U&amp;I, Tech Limited, ChancenB?rse, Cellular Tech, CellShark, PhoneStore, ReVibe Tech, PMO, EU Telecoms BL LTD, TopOne GmbH, Clevertronic, nuLAB Srl, ApexY, rego, Re-Cell Technology Solutions, asgoodasnew electronics, Electronic Trading B.V., SELL MY CELL EUROPE LIMITED, MG Trading, CarreMobile, Online-Phones 24, LTDC SP. Z O.O., Bafobu, Tecnoutlet2020</t>
+          <t>Techlovers, U&amp;I, Stellaris, J.TECH LTD, ApexY, ReVibe Tech, Nomo Phone, ChancenB?rse, TopOne GmbH, nuLAB Srl, PerleTech, Bafobu, PMO, smrtek, PreOwned, Wave Phones, Tech Limited, Cellular Tech, LTDC SP. Z O.O., Clevertronic, Electronic Trading B.V., Re-Cell Technology Solutions, Online-Phones 24, rego, Tecnoutlet2020</t>
         </is>
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>Nest Green, Mobile tech mvw, Nomo Phone, U&amp;I, Tech Limited, ChancenB?rse, Cellular Tech, CellShark, PhoneStore, ReVibe Tech, PMO, EU Telecoms BL LTD, TopOne GmbH, Clevertronic, nuLAB Srl, ApexY, rego, asgoodasnew electronics, Electronic Trading B.V., SELL MY CELL EUROPE LIMITED, MG Trading, CarreMobile, Online-Phones 24, LTDC SP. Z O.O., Bafobu, Tecnoutlet2020</t>
+          <t>Techlovers, U&amp;I, Stellaris, J.TECH LTD, ApexY, ReVibe Tech, Nomo Phone, ChancenB?rse, TopOne GmbH, nuLAB Srl, PerleTech, Bafobu, PMO, smrtek, PreOwned, Wave Phones, Tech Limited, Cellular Tech, LTDC SP. Z O.O., Electronic Trading B.V., Re-Cell Technology Solutions, Online-Phones 24, rego, Tecnoutlet2020</t>
         </is>
       </c>
       <c r="G143" t="n">
-        <v>906.0693670886076</v>
+        <v>909.440759493671</v>
       </c>
       <c r="H143" t="n">
         <v>910.0301265822785</v>
@@ -5030,30 +5030,30 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>白色</t>
+          <t>玫瑰色</t>
         </is>
       </c>
       <c r="C144" t="n">
-        <v>659</v>
+        <v>545</v>
       </c>
       <c r="D144" t="n">
-        <v>659</v>
+        <v>544</v>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>PerleTech, Nomo Phone, U&amp;I, Tech Limited, ChancenB?rse, Cellular Tech, ReVibe Tech, Techlovers, PMO, Stellaris, TopOne GmbH, nuLAB Srl, Clevertronic, ApexY, rego, smrtek, Re-Cell Technology Solutions, Electronic Trading B.V., PreOwned, J.TECH LTD, Wave Phones, Online-Phones 24, LTDC SP. Z O.O., Bafobu, Tecnoutlet2020</t>
+          <t>U&amp;I, FOX ONLINE, ApexY, J.TECH LTD, ReVibe Tech, nuLAB Srl, EC Epinal, Bafobu, PMO, CellZone, Wave Phones, Tech Limited, Axore, Nest Green, LTDC SP. Z O.O., CellShark, Clevertronic, SELL MY CELL EUROPE LIMITED, Electronic Trading B.V., Re-Cell Technology Solutions, Online-Phones 24, Nesatec GmbH &amp; Co. KG</t>
         </is>
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>PerleTech, Nomo Phone, U&amp;I, Tech Limited, ChancenB?rse, Cellular Tech, ReVibe Tech, Techlovers, PMO, Stellaris, TopOne GmbH, nuLAB Srl, ApexY, rego, smrtek, Re-Cell Technology Solutions, Electronic Trading B.V., PreOwned, J.TECH LTD, Wave Phones, Online-Phones 24, LTDC SP. Z O.O., Bafobu, Tecnoutlet2020</t>
+          <t>U&amp;I, FOX ONLINE, ApexY, J.TECH LTD, ReVibe Tech, nuLAB Srl, EC Epinal, Bafobu, PMO, CellZone, Wave Phones, Tech Limited, Axore, Nest Green, LTDC SP. Z O.O., CellShark, Clevertronic, SELL MY CELL EUROPE LIMITED, Electronic Trading B.V., Online-Phones 24, Nesatec GmbH &amp; Co. KG</t>
         </is>
       </c>
       <c r="G144" t="n">
-        <v>909.440759493671</v>
+        <v>980.3832394366196</v>
       </c>
       <c r="H144" t="n">
-        <v>910.0301265822785</v>
+        <v>981.4252112676056</v>
       </c>
     </row>
     <row r="145">
@@ -5062,30 +5062,30 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>蓝绿色</t>
+          <t>群青蓝</t>
         </is>
       </c>
       <c r="C145" t="n">
-        <v>421</v>
+        <v>638</v>
       </c>
       <c r="D145" t="n">
-        <v>438</v>
+        <v>609</v>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>J.TECH LTD, nuLAB Srl, ApexY, ReVibe Tech, Onlinehandel Kustynowicz, PMO, Re-Cell Technology Solutions, Wave Phones, TopOne GmbH, Elytelecom, U&amp;I, Electronic Trading B.V., Online-Phones 24, Tech Limited, LTDC SP. Z O.O., ChancenB?rse, CellShark, Bafobu</t>
+          <t>U&amp;I, Stellaris, Zwapa Mobile, ApexY, ReVibe Tech, Nomo Phone, ChancenB?rse, EU Telecoms BL LTD, nuLAB Srl, Bafobu, PMO, CellZone, PreOwned, Wave Phones, Tech Limited, Nest Green, LTDC SP. Z O.O., We Cell, Phone, Clevertronic, SELL MY CELL EUROPE LIMITED, Simpatico Tech, Electronic Trading B.V., Elytelecom, Online-Phones 24, Techlovers</t>
         </is>
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>J.TECH LTD, nuLAB Srl, ApexY, ReVibe Tech, Onlinehandel Kustynowicz, PMO, Wave Phones, TopOne GmbH, Elytelecom, U&amp;I, Electronic Trading B.V., Online-Phones 24, Tech Limited, LTDC SP. Z O.O., ChancenB?rse, CellShark, Bafobu</t>
+          <t>U&amp;I, Stellaris, Zwapa Mobile, ApexY, ReVibe Tech, Nomo Phone, ChancenB?rse, EU Telecoms BL LTD, Bafobu, PMO, CellZone, PreOwned, Wave Phones, Tech Limited, Nest Green, LTDC SP. Z O.O., We Cell, Phone, Clevertronic, SELL MY CELL EUROPE LIMITED, Simpatico Tech, Electronic Trading B.V., Re-Cell Technology Solutions, Online-Phones 24, Techlovers</t>
         </is>
       </c>
       <c r="G145" t="n">
-        <v>942.6013888888888</v>
+        <v>964.592911392405</v>
       </c>
       <c r="H145" t="n">
-        <v>944.684722222222</v>
+        <v>962.3660759493672</v>
       </c>
     </row>
     <row r="146">
@@ -5094,30 +5094,30 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>群青蓝</t>
+          <t>蓝绿色</t>
         </is>
       </c>
       <c r="C146" t="n">
-        <v>638</v>
+        <v>421</v>
       </c>
       <c r="D146" t="n">
-        <v>609</v>
+        <v>438</v>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>Nest Green, Nomo Phone, U&amp;I, Tech Limited, ChancenB?rse, ReVibe Tech, Techlovers, PMO, EU Telecoms BL LTD, Stellaris, nuLAB Srl, Clevertronic, ApexY, Zwapa Mobile, Electronic Trading B.V., SELL MY CELL EUROPE LIMITED, CellZone, PreOwned, We Cell, Phone, Wave Phones, Elytelecom, Simpatico Tech, Online-Phones 24, LTDC SP. Z O.O., Bafobu</t>
+          <t>ChancenB?rse, TopOne GmbH, Wave Phones, Tech Limited, nuLAB Srl, J.TECH LTD, U&amp;I, Bafobu, LTDC SP. Z O.O., Electronic Trading B.V., Elytelecom, Re-Cell Technology Solutions, Onlinehandel Kustynowicz, ApexY, Online-Phones 24, ReVibe Tech, PMO, CellShark</t>
         </is>
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>Nest Green, Nomo Phone, U&amp;I, Tech Limited, ChancenB?rse, ReVibe Tech, Techlovers, PMO, EU Telecoms BL LTD, Stellaris, Clevertronic, ApexY, Zwapa Mobile, Re-Cell Technology Solutions, Electronic Trading B.V., SELL MY CELL EUROPE LIMITED, CellZone, PreOwned, We Cell, Phone, Wave Phones, Simpatico Tech, Online-Phones 24, LTDC SP. Z O.O., Bafobu</t>
+          <t>ChancenB?rse, TopOne GmbH, Wave Phones, Tech Limited, nuLAB Srl, J.TECH LTD, U&amp;I, Bafobu, LTDC SP. Z O.O., Electronic Trading B.V., Elytelecom, Onlinehandel Kustynowicz, ApexY, Online-Phones 24, ReVibe Tech, PMO, CellShark</t>
         </is>
       </c>
       <c r="G146" t="n">
-        <v>964.592911392405</v>
+        <v>942.6013888888888</v>
       </c>
       <c r="H146" t="n">
-        <v>962.3660759493672</v>
+        <v>944.684722222222</v>
       </c>
     </row>
     <row r="147">
@@ -5126,30 +5126,30 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>玫瑰色</t>
+          <t>黑色</t>
         </is>
       </c>
       <c r="C147" t="n">
-        <v>375</v>
+        <v>604</v>
       </c>
       <c r="D147" t="n">
-        <v>375</v>
+        <v>604</v>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>Clevertronic, nuLAB Srl, ApexY, Nest Green, J.TECH LTD, PMO, Wave Phones, U&amp;I, Electronic Trading B.V., Stellaris, Online-Phones 24, Tech Limited, LTDC SP. Z O.O., FOX ONLINE, Axore, CellShark, Bafobu</t>
+          <t>U&amp;I, Mobile tech mvw, ApexY, ReVibe Tech, Nomo Phone, ChancenB?rse, TopOne GmbH, EU Telecoms BL LTD, Bafobu, CarreMobile, Wave Phones, MG Trading, Nest Green, Cellular Tech, CellShark, gsm2go, Clevertronic, FastMobile, SELL MY CELL EUROPE LIMITED, Electronic Trading B.V., Online-Phones 24</t>
         </is>
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>Clevertronic, nuLAB Srl, ApexY, Nest Green, J.TECH LTD, PMO, Wave Phones, U&amp;I, Electronic Trading B.V., Stellaris, Online-Phones 24, Tech Limited, LTDC SP. Z O.O., FOX ONLINE, Axore, CellShark, Bafobu</t>
+          <t>U&amp;I, Mobile tech mvw, ApexY, ReVibe Tech, Nomo Phone, ChancenB?rse, TopOne GmbH, EU Telecoms BL LTD, Bafobu, CarreMobile, Wave Phones, MG Trading, Nest Green, Cellular Tech, CellShark, gsm2go, Clevertronic, FastMobile, SELL MY CELL EUROPE LIMITED, Electronic Trading B.V., Online-Phones 24</t>
         </is>
       </c>
       <c r="G147" t="n">
-        <v>972.3382608695654</v>
+        <v>872.272666666667</v>
       </c>
       <c r="H147" t="n">
-        <v>972.3382608695654</v>
+        <v>872.272666666667</v>
       </c>
     </row>
     <row r="148">
@@ -5158,30 +5158,30 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>黑色</t>
+          <t>白色</t>
         </is>
       </c>
       <c r="C148" t="n">
-        <v>604</v>
+        <v>459</v>
       </c>
       <c r="D148" t="n">
-        <v>604</v>
+        <v>459</v>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>Nest Green, Mobile tech mvw, Nomo Phone, U&amp;I, ChancenB?rse, Cellular Tech, CellShark, ReVibe Tech, EU Telecoms BL LTD, TopOne GmbH, Clevertronic, ApexY, gsm2go, FastMobile, Electronic Trading B.V., SELL MY CELL EUROPE LIMITED, MG Trading, Wave Phones, CarreMobile, Online-Phones 24, Bafobu</t>
+          <t>U&amp;I, ApexY, Nomo Phone, ChancenB?rse, TopOne GmbH, PerleTech, Bafobu, PMO, smrtek, Wave Phones, Tech Limited, Cellular Tech, LTDC SP. Z O.O., CellShark, Electronic Trading B.V., Re-Cell Technology Solutions, Online-Phones 24, rego, Techlovers</t>
         </is>
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>Nest Green, Mobile tech mvw, Nomo Phone, U&amp;I, ChancenB?rse, Cellular Tech, CellShark, ReVibe Tech, EU Telecoms BL LTD, TopOne GmbH, Clevertronic, ApexY, gsm2go, FastMobile, Electronic Trading B.V., SELL MY CELL EUROPE LIMITED, MG Trading, Wave Phones, CarreMobile, Online-Phones 24, Bafobu</t>
+          <t>U&amp;I, ApexY, Nomo Phone, ChancenB?rse, TopOne GmbH, PerleTech, Bafobu, PMO, smrtek, Wave Phones, Tech Limited, Cellular Tech, LTDC SP. Z O.O., CellShark, Electronic Trading B.V., Re-Cell Technology Solutions, Online-Phones 24, rego, Techlovers</t>
         </is>
       </c>
       <c r="G148" t="n">
-        <v>872.272666666667</v>
+        <v>873.382857142857</v>
       </c>
       <c r="H148" t="n">
-        <v>872.272666666667</v>
+        <v>873.8726530612244</v>
       </c>
     </row>
     <row r="149">
@@ -5190,30 +5190,30 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>白色</t>
+          <t>玫瑰色</t>
         </is>
       </c>
       <c r="C149" t="n">
-        <v>459</v>
+        <v>375</v>
       </c>
       <c r="D149" t="n">
-        <v>459</v>
+        <v>375</v>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>PerleTech, Nomo Phone, U&amp;I, Tech Limited, ChancenB?rse, Cellular Tech, CellShark, Techlovers, PMO, TopOne GmbH, ApexY, rego, smrtek, Re-Cell Technology Solutions, Electronic Trading B.V., Wave Phones, Online-Phones 24, LTDC SP. Z O.O., Bafobu</t>
+          <t>Wave Phones, Tech Limited, Axore, nuLAB Srl, J.TECH LTD, Clevertronic, Bafobu, U&amp;I, Stellaris, FOX ONLINE, CellShark, Electronic Trading B.V., Nest Green, ApexY, LTDC SP. Z O.O., PMO, Online-Phones 24</t>
         </is>
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>PerleTech, Nomo Phone, U&amp;I, Tech Limited, ChancenB?rse, Cellular Tech, CellShark, Techlovers, PMO, TopOne GmbH, ApexY, rego, smrtek, Re-Cell Technology Solutions, Electronic Trading B.V., Wave Phones, Online-Phones 24, LTDC SP. Z O.O., Bafobu</t>
+          <t>Wave Phones, Tech Limited, Axore, nuLAB Srl, J.TECH LTD, Clevertronic, Bafobu, U&amp;I, Stellaris, FOX ONLINE, CellShark, Electronic Trading B.V., Nest Green, ApexY, LTDC SP. Z O.O., PMO, Online-Phones 24</t>
         </is>
       </c>
       <c r="G149" t="n">
-        <v>873.382857142857</v>
+        <v>972.3382608695654</v>
       </c>
       <c r="H149" t="n">
-        <v>873.8726530612244</v>
+        <v>972.3382608695654</v>
       </c>
     </row>
     <row r="150">
@@ -5222,30 +5222,30 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>蓝绿色</t>
+          <t>群青蓝</t>
         </is>
       </c>
       <c r="C150" t="n">
-        <v>276</v>
+        <v>414</v>
       </c>
       <c r="D150" t="n">
-        <v>276</v>
+        <v>414</v>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>ApexY, gsm2go, ReVibe Tech, Onlinehandel Kustynowicz, Global Phones, PMO, Wave Phones, TopOne GmbH, Elytelecom, U&amp;I, Electronic Trading B.V., Online-Phones 24, ChancenB?rse, Axore, ELITE GADGET LIMITED, CellShark, Bafobu</t>
+          <t>U&amp;I, Stellaris, Zwapa Mobile, ReVibe Tech, Nomo Phone, ChancenB?rse, EU Telecoms BL LTD, Bafobu, PMO, CellZone, Wave Phones, Tech Limited, Nest Green, LTDC SP. Z O.O., We Cell, Phone, Clevertronic, SELL MY CELL EUROPE LIMITED, Simpatico Tech, Electronic Trading B.V., Elytelecom, Online-Phones 24</t>
         </is>
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>ApexY, gsm2go, ReVibe Tech, Onlinehandel Kustynowicz, Global Phones, PMO, Wave Phones, TopOne GmbH, Elytelecom, U&amp;I, Electronic Trading B.V., Online-Phones 24, ChancenB?rse, Axore, ELITE GADGET LIMITED, CellShark, Bafobu</t>
+          <t>U&amp;I, Stellaris, Zwapa Mobile, ReVibe Tech, Nomo Phone, ChancenB?rse, EU Telecoms BL LTD, Bafobu, PMO, CellZone, Wave Phones, Tech Limited, Nest Green, LTDC SP. Z O.O., We Cell, Phone, Clevertronic, SELL MY CELL EUROPE LIMITED, Simpatico Tech, Electronic Trading B.V., Elytelecom, Online-Phones 24</t>
         </is>
       </c>
       <c r="G150" t="n">
-        <v>887.1852272727272</v>
+        <v>949.879375</v>
       </c>
       <c r="H150" t="n">
-        <v>887.1852272727272</v>
+        <v>949.879375</v>
       </c>
     </row>
     <row r="151">
@@ -5254,30 +5254,30 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>群青蓝</t>
+          <t>蓝绿色</t>
         </is>
       </c>
       <c r="C151" t="n">
-        <v>414</v>
+        <v>276</v>
       </c>
       <c r="D151" t="n">
-        <v>414</v>
+        <v>276</v>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>Nest Green, Nomo Phone, U&amp;I, Tech Limited, ChancenB?rse, ReVibe Tech, PMO, EU Telecoms BL LTD, Stellaris, Clevertronic, Zwapa Mobile, Electronic Trading B.V., SELL MY CELL EUROPE LIMITED, CellZone, We Cell, Phone, Wave Phones, Elytelecom, Simpatico Tech, Online-Phones 24, LTDC SP. Z O.O., Bafobu</t>
+          <t>gsm2go, ChancenB?rse, TopOne GmbH, Wave Phones, Global Phones, Axore, PMO, U&amp;I, Bafobu, Electronic Trading B.V., Elytelecom, Onlinehandel Kustynowicz, ApexY, Online-Phones 24, ReVibe Tech, CellShark, ELITE GADGET LIMITED</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>Nest Green, Nomo Phone, U&amp;I, Tech Limited, ChancenB?rse, ReVibe Tech, PMO, EU Telecoms BL LTD, Stellaris, Clevertronic, Zwapa Mobile, Electronic Trading B.V., SELL MY CELL EUROPE LIMITED, CellZone, We Cell, Phone, Wave Phones, Elytelecom, Simpatico Tech, Online-Phones 24, LTDC SP. Z O.O., Bafobu</t>
+          <t>gsm2go, ChancenB?rse, TopOne GmbH, Wave Phones, Global Phones, Axore, PMO, U&amp;I, Bafobu, Electronic Trading B.V., Elytelecom, Onlinehandel Kustynowicz, ApexY, Online-Phones 24, ReVibe Tech, CellShark, ELITE GADGET LIMITED</t>
         </is>
       </c>
       <c r="G151" t="n">
-        <v>949.879375</v>
+        <v>887.1852272727272</v>
       </c>
       <c r="H151" t="n">
-        <v>949.879375</v>
+        <v>887.1852272727272</v>
       </c>
     </row>
     <row r="152">
@@ -5286,30 +5286,30 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>玫瑰色</t>
+          <t>黑色</t>
         </is>
       </c>
       <c r="C152" t="n">
-        <v>634</v>
+        <v>874</v>
       </c>
       <c r="D152" t="n">
-        <v>586</v>
+        <v>772</v>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>Nest Green, U&amp;I, Tech Limited, CellShark, ReVibe Tech, PMO, Stellaris, TechBloom, Clevertronic, nuLAB Srl, ApexY, EC Epinal, Electronic Trading B.V., SELL MY CELL EUROPE LIMITED, J.TECH LTD, Wave Phones, Online-Phones 24, FOX ONLINE, LTDC SP. Z O.O., Bafobu</t>
+          <t>U&amp;I, Mobile tech mvw, FOX ONLINE, ApexY, ReVibe Tech, Nomo Phone, TopOne GmbH, EU Telecoms BL LTD, nuLAB Srl, Bafobu, CarreMobile, asgoodasnew electronics, Wave Phones, Tech Limited, MG Trading, Nest Green, Cellular Tech, LTDC SP. Z O.O., ChancenBörse, Clevertronic, FastMobile, Walchen New Life GmbH, SELL MY CELL EUROPE LIMITED, Electronic Trading B.V., Online-Phones 24, Tecnoutlet2020</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>Nest Green, U&amp;I, Tech Limited, CellShark, ReVibe Tech, PMO, Stellaris, TechBloom, Clevertronic, nuLAB Srl, ApexY, EC Epinal, Electronic Trading B.V., SELL MY CELL EUROPE LIMITED, J.TECH LTD, Wave Phones, Online-Phones 24, FOX ONLINE, LTDC SP. Z O.O., Bafobu</t>
+          <t>U&amp;I, Mobile tech mvw, FOX ONLINE, ApexY, ReVibe Tech, Nomo Phone, TopOne GmbH, EU Telecoms BL LTD, nuLAB Srl, Bafobu, CarreMobile, asgoodasnew electronics, Wave Phones, Tech Limited, Axore, MG Trading, Nest Green, Cellular Tech, LTDC SP. Z O.O., CellShark, ChancenBörse, EC Echirolles, Clevertronic, FastMobile, Walchen New Life GmbH, SELL MY CELL EUROPE LIMITED, Electronic Trading B.V., Online-Phones 24, Tecnoutlet2020</t>
         </is>
       </c>
       <c r="G152" t="n">
-        <v>991.598918918919</v>
+        <v>917.4817105263159</v>
       </c>
       <c r="H152" t="n">
-        <v>988.7813513513514</v>
+        <v>916.9371052631579</v>
       </c>
     </row>
     <row r="153">
@@ -5318,30 +5318,30 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>黑色</t>
+          <t>白色</t>
         </is>
       </c>
       <c r="C153" t="n">
-        <v>874</v>
+        <v>586</v>
       </c>
       <c r="D153" t="n">
-        <v>772</v>
+        <v>577</v>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>Nest Green, Walchen New Life GmbH, Mobile tech mvw, Nomo Phone, U&amp;I, ChancenBörse, Tech Limited, Cellular Tech, ReVibe Tech, EU Telecoms BL LTD, TopOne GmbH, Clevertronic, nuLAB Srl, ApexY, FastMobile, asgoodasnew electronics, Electronic Trading B.V., SELL MY CELL EUROPE LIMITED, MG Trading, Wave Phones, CarreMobile, Online-Phones 24, FOX ONLINE, LTDC SP. Z O.O., Bafobu, Tecnoutlet2020</t>
+          <t>U&amp;I, Stellaris, J.TECH LTD, ApexY, TechBloom, ReVibe Tech, Nomo Phone, TopOne GmbH, mResell, PerleTech, Bafobu, PMO, smrtek, Wave Phones, Tech Limited, Cellular Tech, LTDC SP. Z O.O., CellShark, ChancenBörse, Walchen New Life GmbH, Electronic Trading B.V., Online-Phones 24, rego, Techlovers</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>Nest Green, Walchen New Life GmbH, Mobile tech mvw, Nomo Phone, U&amp;I, ChancenBörse, Tech Limited, CellShark, Cellular Tech, ReVibe Tech, EU Telecoms BL LTD, TopOne GmbH, nuLAB Srl, Clevertronic, ApexY, FastMobile, asgoodasnew electronics, Electronic Trading B.V., SELL MY CELL EUROPE LIMITED, LTDC SP. Z O.O., EC Echirolles, MG Trading, Wave Phones, CarreMobile, Online-Phones 24, Axore, FOX ONLINE, Bafobu, Tecnoutlet2020</t>
+          <t>U&amp;I, Stellaris, J.TECH LTD, ApexY, TechBloom, ReVibe Tech, TopOne GmbH, mResell, PerleTech, Bafobu, CarreMobile, PMO, smrtek, Wave Phones, Tech Limited, Cellular Tech, LTDC SP. Z O.O., CellShark, ChancenBörse, Walchen New Life GmbH, SELL MY CELL EUROPE LIMITED, Electronic Trading B.V., Online-Phones 24, rego, Techlovers</t>
         </is>
       </c>
       <c r="G153" t="n">
-        <v>917.4817105263159</v>
+        <v>916.9517500000002</v>
       </c>
       <c r="H153" t="n">
-        <v>916.9371052631579</v>
+        <v>917.1636250000001</v>
       </c>
     </row>
     <row r="154">
@@ -5350,30 +5350,30 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>白色</t>
+          <t>玫瑰色</t>
         </is>
       </c>
       <c r="C154" t="n">
+        <v>634</v>
+      </c>
+      <c r="D154" t="n">
         <v>586</v>
       </c>
-      <c r="D154" t="n">
-        <v>577</v>
-      </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>PerleTech, Walchen New Life GmbH, Nomo Phone, ChancenBörse, U&amp;I, Tech Limited, CellShark, Cellular Tech, ReVibe Tech, Techlovers, PMO, Stellaris, TopOne GmbH, TechBloom, ApexY, rego, smrtek, Electronic Trading B.V., LTDC SP. Z O.O., J.TECH LTD, Wave Phones, Online-Phones 24, mResell, Bafobu</t>
+          <t>U&amp;I, Stellaris, FOX ONLINE, ApexY, J.TECH LTD, TechBloom, ReVibe Tech, nuLAB Srl, EC Epinal, Bafobu, PMO, Wave Phones, Tech Limited, Nest Green, LTDC SP. Z O.O., CellShark, Clevertronic, SELL MY CELL EUROPE LIMITED, Electronic Trading B.V., Online-Phones 24</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>PerleTech, Walchen New Life GmbH, ChancenBörse, U&amp;I, Tech Limited, CellShark, Cellular Tech, ReVibe Tech, Techlovers, PMO, Stellaris, TopOne GmbH, TechBloom, ApexY, rego, smrtek, Electronic Trading B.V., SELL MY CELL EUROPE LIMITED, LTDC SP. Z O.O., J.TECH LTD, Wave Phones, CarreMobile, Online-Phones 24, mResell, Bafobu</t>
+          <t>U&amp;I, Stellaris, FOX ONLINE, ApexY, J.TECH LTD, TechBloom, ReVibe Tech, nuLAB Srl, EC Epinal, Bafobu, PMO, Wave Phones, Tech Limited, Nest Green, LTDC SP. Z O.O., CellShark, Clevertronic, SELL MY CELL EUROPE LIMITED, Electronic Trading B.V., Online-Phones 24</t>
         </is>
       </c>
       <c r="G154" t="n">
-        <v>916.9517500000002</v>
+        <v>991.598918918919</v>
       </c>
       <c r="H154" t="n">
-        <v>917.1636250000001</v>
+        <v>988.7813513513514</v>
       </c>
     </row>
     <row r="155">
@@ -5382,30 +5382,30 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>蓝绿色</t>
+          <t>群青蓝</t>
         </is>
       </c>
       <c r="C155" t="n">
-        <v>449</v>
+        <v>595</v>
       </c>
       <c r="D155" t="n">
-        <v>401</v>
+        <v>512</v>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>J.TECH LTD, ApexY, gsm2go, ReVibe Tech, PMO, TechBloom, Wave Phones, Elytelecom, ChancenBörse, U&amp;I, Stellaris, Online-Phones 24, Electronic Trading B.V., LTDC SP. Z O.O., TopOne GmbH, CellShark, Bafobu, Tecnoutlet2020</t>
+          <t>U&amp;I, Stellaris, Zwapa Mobile, ApexY, J.TECH LTD, ReVibe Tech, Nomo Phone, EU Telecoms BL LTD, Bafobu, PMO, Wave Phones, Tech Limited, Nest Green, LTDC SP. Z O.O., We Cell, CellShark, gsm2go, ChancenBörse, Phone, Clevertronic, Walchen New Life GmbH, SELL MY CELL EUROPE LIMITED, Simpatico Tech, Electronic Trading B.V., Elytelecom, Online-Phones 24</t>
         </is>
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>Global Phones, ChancenBörse, U&amp;I, CellShark, ReVibe Tech, PMO, Stellaris, TopOne GmbH, TechBloom, ApexY, gsm2go, CC - MONTPELLIER, Electronic Trading B.V., Wave Phones, Elytelecom, Online-Phones 24, LTDC SP. Z O.O., Bafobu, Tecnoutlet2020</t>
+          <t>U&amp;I, Stellaris, Zwapa Mobile, ApexY, J.TECH LTD, ReVibe Tech, Nomo Phone, EU Telecoms BL LTD, COOLKK, Bafobu, PMO, Wave Phones, Tech Limited, Nest Green, LTDC SP. Z O.O., We Cell, CellShark, gsm2go, ChancenBörse, Phone, Clevertronic, Walchen New Life GmbH, SELL MY CELL EUROPE LIMITED, Simpatico Tech, Electronic Trading B.V., Elytelecom, Online-Phones 24</t>
         </is>
       </c>
       <c r="G155" t="n">
-        <v>942.8608108108108</v>
+        <v>966.7758227848102</v>
       </c>
       <c r="H155" t="n">
-        <v>941.3337837837837</v>
+        <v>965.7127848101265</v>
       </c>
     </row>
     <row r="156">
@@ -5414,30 +5414,30 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>群青蓝</t>
+          <t>蓝绿色</t>
         </is>
       </c>
       <c r="C156" t="n">
-        <v>595</v>
+        <v>449</v>
       </c>
       <c r="D156" t="n">
-        <v>512</v>
+        <v>401</v>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>Nest Green, Walchen New Life GmbH, Nomo Phone, ChancenBörse, U&amp;I, Tech Limited, CellShark, ReVibe Tech, PMO, EU Telecoms BL LTD, Stellaris, Clevertronic, ApexY, gsm2go, Zwapa Mobile, Electronic Trading B.V., SELL MY CELL EUROPE LIMITED, We Cell, J.TECH LTD, Phone, Wave Phones, Elytelecom, Simpatico Tech, Online-Phones 24, LTDC SP. Z O.O., Bafobu</t>
+          <t>gsm2go, TopOne GmbH, Wave Phones, ChancenBörse, J.TECH LTD, Tecnoutlet2020, U&amp;I, Bafobu, Stellaris, LTDC SP. Z O.O., Electronic Trading B.V., Elytelecom, ApexY, Online-Phones 24, TechBloom, ReVibe Tech, PMO, CellShark</t>
         </is>
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>Nest Green, Walchen New Life GmbH, COOLKK, Nomo Phone, ChancenBörse, U&amp;I, Tech Limited, CellShark, ReVibe Tech, PMO, EU Telecoms BL LTD, Stellaris, Clevertronic, ApexY, gsm2go, Zwapa Mobile, Electronic Trading B.V., SELL MY CELL EUROPE LIMITED, We Cell, J.TECH LTD, Phone, Wave Phones, Elytelecom, Simpatico Tech, Online-Phones 24, LTDC SP. Z O.O., Bafobu</t>
+          <t>Global Phones, U&amp;I, Stellaris, ApexY, TechBloom, ReVibe Tech, TopOne GmbH, Bafobu, PMO, Wave Phones, LTDC SP. Z O.O., CellShark, gsm2go, ChancenBörse, CC - MONTPELLIER, Electronic Trading B.V., Elytelecom, Online-Phones 24, Tecnoutlet2020</t>
         </is>
       </c>
       <c r="G156" t="n">
-        <v>966.7758227848102</v>
+        <v>942.8608108108108</v>
       </c>
       <c r="H156" t="n">
-        <v>965.7127848101265</v>
+        <v>941.3337837837837</v>
       </c>
     </row>
     <row r="157">
@@ -5446,30 +5446,30 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>玫瑰色</t>
+          <t>黑色</t>
         </is>
       </c>
       <c r="C157" t="n">
-        <v>671</v>
+        <v>1248</v>
       </c>
       <c r="D157" t="n">
-        <v>807</v>
+        <v>1710</v>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>Nest Green, Tech Limited, CellShark, ReVibe Tech, PMO, Stellaris, TechBloom, Clevertronic, nuLAB Srl, ApexY, smrtek, EC Epinal, GY Telecom, Electronic Trading B.V., SELL MY CELL EUROPE LIMITED, We Cell, Wave Phones, MCM CASH, Online-Phones 24, FOX ONLINE, LTDC SP. Z O.O., Bafobu</t>
+          <t>U&amp;I, Mobile tech mvw, FOX ONLINE, ApexY, J.TECH LTD, ReVibe Tech, Nomo Phone, TopOne GmbH, EU Telecoms BL LTD, COOLKK, Bafobu, CarreMobile, asgoodasnew electronics, Wave Phones, Tech Limited, Axore, MG Trading, Nest Green, Cellular Tech, LTDC SP. Z O.O., We Cell, ChancenBörse, EC Echirolles, Clevertronic, Walchen New Life GmbH, SELL MY CELL EUROPE LIMITED, Electronic Trading B.V., Online-Phones 24, Tecnoutlet2020</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>Nest Green, COOLKK, CellShark, ReVibe Tech, PMO, Stellaris, Clevertronic, ApexY, smrtek, EC Epinal, GY Telecom, Electronic Trading B.V., We Cell, Wave Phones, MCM CASH, Online-Phones 24, FOX ONLINE, LTDC SP. Z O.O., Bafobu</t>
+          <t>U&amp;I, Mobile tech mvw, FOX ONLINE, ApexY, J.TECH LTD, ReVibe Tech, Nomo Phone, TopOne GmbH, COOLKK, Bafobu, CarreMobile, asgoodasnew electronics, Wave Phones, Tech Limited, Axore, MG Trading, Nest Green, Cellular Tech, LTDC SP. Z O.O., ChancenBörse, EC Echirolles, Clevertronic, Electronic Trading B.V., Online-Phones 24, Tecnoutlet2020</t>
         </is>
       </c>
       <c r="G157" t="n">
-        <v>989.5044594594594</v>
+        <v>916.1708</v>
       </c>
       <c r="H157" t="n">
-        <v>988.2747297297298</v>
+        <v>912.9041333333333</v>
       </c>
     </row>
     <row r="158">
@@ -5478,30 +5478,30 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>黑色</t>
+          <t>白色</t>
         </is>
       </c>
       <c r="C158" t="n">
-        <v>1248</v>
+        <v>851</v>
       </c>
       <c r="D158" t="n">
-        <v>1710</v>
+        <v>896</v>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>Nest Green, Walchen New Life GmbH, Mobile tech mvw, COOLKK, Nomo Phone, U&amp;I, ChancenBörse, Tech Limited, Cellular Tech, ReVibe Tech, EU Telecoms BL LTD, TopOne GmbH, Clevertronic, ApexY, asgoodasnew electronics, Electronic Trading B.V., SELL MY CELL EUROPE LIMITED, LTDC SP. Z O.O., EC Echirolles, We Cell, MG Trading, J.TECH LTD, Wave Phones, CarreMobile, Online-Phones 24, Axore, FOX ONLINE, Bafobu, Tecnoutlet2020</t>
+          <t>U&amp;I, ApexY, TechBloom, ReVibe Tech, PEPTACOM S.R.L., TopOne GmbH, mResell, PerleTech, Bafobu, CarreMobile, PMO, smrtek, Wave Phones, Tech Limited, Cellular Tech, LTDC SP. Z O.O., We Cell, CellShark, ChancenBörse, Clevertronic, Walchen New Life GmbH, SELL MY CELL EUROPE LIMITED, Electronic Trading B.V., Online-Phones 24, rego</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>Nest Green, Mobile tech mvw, COOLKK, Nomo Phone, U&amp;I, ChancenBörse, Tech Limited, Cellular Tech, ReVibe Tech, TopOne GmbH, Clevertronic, ApexY, asgoodasnew electronics, Electronic Trading B.V., LTDC SP. Z O.O., EC Echirolles, MG Trading, J.TECH LTD, Wave Phones, CarreMobile, Online-Phones 24, Axore, FOX ONLINE, Bafobu, Tecnoutlet2020</t>
+          <t>U&amp;I, Stellaris, ApexY, ReVibe Tech, PEPTACOM S.R.L., TopOne GmbH, COOLKK, PerleTech, Bafobu, CarreMobile, PMO, smrtek, Wave Phones, Tech Limited, Cellular Tech, LTDC SP. Z O.O., CellShark, ChancenBörse, Clevertronic, Electronic Trading B.V., Online-Phones 24, rego</t>
         </is>
       </c>
       <c r="G158" t="n">
-        <v>916.1708</v>
+        <v>917.3187012987014</v>
       </c>
       <c r="H158" t="n">
-        <v>912.9041333333333</v>
+        <v>915.2148051948053</v>
       </c>
     </row>
     <row r="159">
@@ -5510,30 +5510,30 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>白色</t>
+          <t>玫瑰色</t>
         </is>
       </c>
       <c r="C159" t="n">
-        <v>851</v>
+        <v>671</v>
       </c>
       <c r="D159" t="n">
-        <v>896</v>
+        <v>807</v>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>PerleTech, Walchen New Life GmbH, ChancenBörse, U&amp;I, Tech Limited, CellShark, Cellular Tech, ReVibe Tech, PMO, TopOne GmbH, TechBloom, Clevertronic, ApexY, rego, smrtek, PEPTACOM S.R.L., Electronic Trading B.V., SELL MY CELL EUROPE LIMITED, LTDC SP. Z O.O., We Cell, Wave Phones, CarreMobile, Online-Phones 24, mResell, Bafobu</t>
+          <t>Stellaris, FOX ONLINE, ApexY, TechBloom, ReVibe Tech, nuLAB Srl, EC Epinal, Bafobu, PMO, smrtek, Wave Phones, Tech Limited, MCM CASH, Nest Green, LTDC SP. Z O.O., We Cell, GY Telecom, CellShark, Clevertronic, SELL MY CELL EUROPE LIMITED, Electronic Trading B.V., Online-Phones 24</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>PerleTech, COOLKK, ChancenBörse, U&amp;I, Tech Limited, Cellular Tech, CellShark, ReVibe Tech, PMO, Stellaris, TopOne GmbH, Clevertronic, ApexY, rego, smrtek, PEPTACOM S.R.L., Electronic Trading B.V., Wave Phones, CarreMobile, Online-Phones 24, LTDC SP. Z O.O., Bafobu</t>
+          <t>Stellaris, FOX ONLINE, ApexY, ReVibe Tech, EC Epinal, COOLKK, Bafobu, PMO, smrtek, Wave Phones, MCM CASH, Nest Green, LTDC SP. Z O.O., GY Telecom, We Cell, CellShark, Clevertronic, Electronic Trading B.V., Online-Phones 24</t>
         </is>
       </c>
       <c r="G159" t="n">
-        <v>917.3187012987014</v>
+        <v>989.5044594594594</v>
       </c>
       <c r="H159" t="n">
-        <v>915.2148051948053</v>
+        <v>988.2747297297298</v>
       </c>
     </row>
     <row r="160">
@@ -5542,30 +5542,30 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>蓝绿色</t>
+          <t>群青蓝</t>
         </is>
       </c>
       <c r="C160" t="n">
-        <v>415</v>
+        <v>430</v>
       </c>
       <c r="D160" t="n">
-        <v>503</v>
+        <v>639</v>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>Walchen New Life GmbH, COOLKK, U&amp;I, Tech Limited, CellShark, ReVibe Tech, PMO, Intoringy OÜ, Stellaris, TopOne GmbH, TechBloom, Clevertronic, ApexY, gsm2go, CC - MONTPELLIER, Electronic Trading B.V., SELL MY CELL EUROPE LIMITED, Wave Phones, Elytelecom, Online-Phones 24, LTDC SP. Z O.O., Bafobu, Tecnoutlet2020</t>
+          <t>Spicydeals, U&amp;I, Stellaris, Zwapa Mobile, ApexY, J.TECH LTD, ReVibe Tech, Nomo Phone, TopOne GmbH, nuLAB Srl, COOLKK, UpCell, Bafobu, PMO, asgoodasnew electronics, Wave Phones, Tech Limited, Nest Green, LTDC SP. Z O.O., gsm2go, ChancenBörse, Phone, Clevertronic, Walchen New Life GmbH, SELL MY CELL EUROPE LIMITED, Simpatico Tech, Electronic Trading B.V., Elytelecom, Online-Phones 24</t>
         </is>
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>Clevertronic, ApexY, gsm2go, ReVibe Tech, PMO, Intoringy OÜ, COOLKK, Wave Phones, CC - MONTPELLIER, Elytelecom, U&amp;I, Electronic Trading B.V., Stellaris, Online-Phones 24, LTDC SP. Z O.O., TopOne GmbH, CellShark, Bafobu</t>
+          <t>Spicydeals, U&amp;I, Stellaris, Zwapa Mobile, ApexY, J.TECH LTD, ReVibe Tech, Nomo Phone, TopOne GmbH, COOLKK, Bafobu, PMO, asgoodasnew electronics, Wave Phones, Tech Limited, Nest Green, Alloccaz, LTDC SP. Z O.O., CellShark, gsm2go, ChancenBörse, Phone, Clevertronic, Simpatico Tech, Electronic Trading B.V., Elytelecom, Online-Phones 24</t>
         </is>
       </c>
       <c r="G160" t="n">
-        <v>946.6128767123287</v>
+        <v>970.7555696202531</v>
       </c>
       <c r="H160" t="n">
-        <v>952.5354794520548</v>
+        <v>966.6629113924051</v>
       </c>
     </row>
     <row r="161">
@@ -5574,30 +5574,30 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>群青蓝</t>
+          <t>蓝绿色</t>
         </is>
       </c>
       <c r="C161" t="n">
-        <v>430</v>
+        <v>415</v>
       </c>
       <c r="D161" t="n">
-        <v>639</v>
+        <v>503</v>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>Nest Green, Walchen New Life GmbH, UpCell, COOLKK, Nomo Phone, ChancenBörse, U&amp;I, Tech Limited, ReVibe Tech, PMO, Stellaris, TopOne GmbH, Clevertronic, nuLAB Srl, ApexY, gsm2go, Zwapa Mobile, asgoodasnew electronics, Electronic Trading B.V., SELL MY CELL EUROPE LIMITED, J.TECH LTD, Phone, Wave Phones, Elytelecom, Simpatico Tech, Online-Phones 24, LTDC SP. Z O.O., Spicydeals, Bafobu</t>
+          <t>U&amp;I, Stellaris, ApexY, TechBloom, ReVibe Tech, TopOne GmbH, Intoringy OÜ, COOLKK, Bafobu, PMO, Wave Phones, Tech Limited, LTDC SP. Z O.O., CellShark, gsm2go, Clevertronic, Walchen New Life GmbH, SELL MY CELL EUROPE LIMITED, CC - MONTPELLIER, Electronic Trading B.V., Elytelecom, Online-Phones 24, Tecnoutlet2020</t>
         </is>
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>Nest Green, COOLKK, Nomo Phone, ChancenBörse, U&amp;I, Tech Limited, CellShark, ReVibe Tech, PMO, Stellaris, TopOne GmbH, Alloccaz, Clevertronic, ApexY, gsm2go, Zwapa Mobile, asgoodasnew electronics, Electronic Trading B.V., J.TECH LTD, Phone, Wave Phones, Elytelecom, Simpatico Tech, Online-Phones 24, LTDC SP. Z O.O., Spicydeals, Bafobu</t>
+          <t>gsm2go, TopOne GmbH, Wave Phones, Intoringy OÜ, Clevertronic, U&amp;I, Bafobu, COOLKK, Stellaris, CC - MONTPELLIER, LTDC SP. Z O.O., Electronic Trading B.V., Elytelecom, ApexY, Online-Phones 24, ReVibe Tech, PMO, CellShark</t>
         </is>
       </c>
       <c r="G161" t="n">
-        <v>970.7555696202531</v>
+        <v>946.6128767123287</v>
       </c>
       <c r="H161" t="n">
-        <v>966.6629113924051</v>
+        <v>952.5354794520548</v>
       </c>
     </row>
     <row r="162">
@@ -5606,30 +5606,30 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>玫瑰色</t>
+          <t>黑色</t>
         </is>
       </c>
       <c r="C162" t="n">
-        <v>496</v>
+        <v>944</v>
       </c>
       <c r="D162" t="n">
-        <v>496</v>
+        <v>944</v>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>Nest Green, COOLKK, U&amp;I, Tech Limited, CellShark, PMO, Stellaris, Clevertronic, smrtek, GY Telecom, Electronic Trading B.V., J.TECH LTD, We Cell, Wave Phones, MCM CASH, Online-Phones 24, FOX ONLINE, LTDC SP. Z O.O., Bafobu</t>
+          <t>U&amp;I, Mobile tech mvw, FOX ONLINE, ApexY, J.TECH LTD, Nomo Phone, TopOne GmbH, nuLAB Srl, COOLKK, Bafobu, CarreMobile, PMO, asgoodasnew electronics, Wave Phones, MG Trading, Nest Green, Cellular Tech, LTDC SP. Z O.O., CellShark, ChancenBörse, Clevertronic, Electronic Trading B.V., Onlinehandel Kustynowicz, Online-Phones 24</t>
         </is>
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>Nest Green, COOLKK, U&amp;I, Tech Limited, CellShark, PMO, Stellaris, Clevertronic, smrtek, GY Telecom, Electronic Trading B.V., J.TECH LTD, We Cell, Wave Phones, MCM CASH, Online-Phones 24, FOX ONLINE, LTDC SP. Z O.O., Bafobu</t>
+          <t>U&amp;I, Mobile tech mvw, FOX ONLINE, ApexY, J.TECH LTD, Nomo Phone, TopOne GmbH, nuLAB Srl, COOLKK, Bafobu, CarreMobile, PMO, asgoodasnew electronics, Wave Phones, MG Trading, Nest Green, Cellular Tech, LTDC SP. Z O.O., CellShark, ChancenBörse, Clevertronic, Electronic Trading B.V., Onlinehandel Kustynowicz, Online-Phones 24</t>
         </is>
       </c>
       <c r="G162" t="n">
-        <v>992.0831034482758</v>
+        <v>925.0856666666666</v>
       </c>
       <c r="H162" t="n">
-        <v>992.0831034482758</v>
+        <v>925.0856666666666</v>
       </c>
     </row>
     <row r="163">
@@ -5638,30 +5638,30 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>黑色</t>
+          <t>白色</t>
         </is>
       </c>
       <c r="C163" t="n">
-        <v>944</v>
+        <v>642</v>
       </c>
       <c r="D163" t="n">
-        <v>944</v>
+        <v>635</v>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>Nest Green, Onlinehandel Kustynowicz, Mobile tech mvw, COOLKK, Nomo Phone, U&amp;I, ChancenBörse, CellShark, Cellular Tech, PMO, TopOne GmbH, nuLAB Srl, Clevertronic, ApexY, asgoodasnew electronics, Electronic Trading B.V., MG Trading, J.TECH LTD, Wave Phones, CarreMobile, Online-Phones 24, FOX ONLINE, LTDC SP. Z O.O., Bafobu</t>
+          <t>Global Phones, U&amp;I, Stellaris, ApexY, PEPTACOM S.R.L., TopOne GmbH, COOLKK, PerleTech, Bafobu, PMO, smrtek, Wave Phones, Tech Limited, LTDC SP. Z O.O., CellShark, ChancenBörse, Clevertronic, Electronic Trading B.V., Online-Phones 24</t>
         </is>
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>Nest Green, Onlinehandel Kustynowicz, Mobile tech mvw, COOLKK, Nomo Phone, U&amp;I, ChancenBörse, CellShark, Cellular Tech, PMO, TopOne GmbH, nuLAB Srl, Clevertronic, ApexY, asgoodasnew electronics, Electronic Trading B.V., MG Trading, J.TECH LTD, Wave Phones, CarreMobile, Online-Phones 24, FOX ONLINE, LTDC SP. Z O.O., Bafobu</t>
+          <t>Global Phones, U&amp;I, Stellaris, ApexY, PEPTACOM S.R.L., TopOne GmbH, COOLKK, PerleTech, Bafobu, PMO, smrtek, Wave Phones, Tech Limited, LTDC SP. Z O.O., CellShark, ChancenBörse, Clevertronic, Electronic Trading B.V., Online-Phones 24</t>
         </is>
       </c>
       <c r="G163" t="n">
-        <v>925.0856666666666</v>
+        <v>1071.587833333333</v>
       </c>
       <c r="H163" t="n">
-        <v>925.0856666666666</v>
+        <v>1071.621166666667</v>
       </c>
     </row>
     <row r="164">
@@ -5670,30 +5670,30 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>白色</t>
+          <t>玫瑰色</t>
         </is>
       </c>
       <c r="C164" t="n">
-        <v>642</v>
+        <v>496</v>
       </c>
       <c r="D164" t="n">
-        <v>635</v>
+        <v>496</v>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>PerleTech, Global Phones, COOLKK, ChancenBörse, U&amp;I, Tech Limited, CellShark, PMO, Stellaris, TopOne GmbH, Clevertronic, ApexY, smrtek, PEPTACOM S.R.L., Electronic Trading B.V., Wave Phones, Online-Phones 24, LTDC SP. Z O.O., Bafobu</t>
+          <t>U&amp;I, Stellaris, FOX ONLINE, J.TECH LTD, COOLKK, Bafobu, PMO, smrtek, Wave Phones, Tech Limited, MCM CASH, Nest Green, LTDC SP. Z O.O., GY Telecom, We Cell, CellShark, Clevertronic, Electronic Trading B.V., Online-Phones 24</t>
         </is>
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>PerleTech, Global Phones, COOLKK, ChancenBörse, U&amp;I, Tech Limited, CellShark, PMO, Stellaris, TopOne GmbH, Clevertronic, ApexY, smrtek, PEPTACOM S.R.L., Electronic Trading B.V., Wave Phones, Online-Phones 24, LTDC SP. Z O.O., Bafobu</t>
+          <t>U&amp;I, Stellaris, FOX ONLINE, J.TECH LTD, COOLKK, Bafobu, PMO, smrtek, Wave Phones, Tech Limited, MCM CASH, Nest Green, LTDC SP. Z O.O., GY Telecom, We Cell, CellShark, Clevertronic, Electronic Trading B.V., Online-Phones 24</t>
         </is>
       </c>
       <c r="G164" t="n">
-        <v>1071.587833333333</v>
+        <v>992.0831034482758</v>
       </c>
       <c r="H164" t="n">
-        <v>1071.621166666667</v>
+        <v>992.0831034482758</v>
       </c>
     </row>
     <row r="165">
@@ -5702,30 +5702,30 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>蓝绿色</t>
+          <t>群青蓝</t>
         </is>
       </c>
       <c r="C165" t="n">
-        <v>274</v>
+        <v>439</v>
       </c>
       <c r="D165" t="n">
-        <v>274</v>
+        <v>439</v>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>Clevertronic, ApexY, gsm2go, Techlovers, PMO, COOLKK, Wave Phones, Elytelecom, U&amp;I, Electronic Trading B.V., Online-Phones 24, Tech Limited, LTDC SP. Z O.O., TopOne GmbH, CellShark, Bafobu, Tecnoutlet2020</t>
+          <t>Global Phones, Spicydeals, U&amp;I, Stellaris, J.TECH LTD, Nomo Phone, TopOne GmbH, COOLKK, UpCell, Bafobu, PMO, asgoodasnew electronics, Wave Phones, Tech Limited, Nest Green, Alloccaz, LTDC SP. Z O.O., CellShark, ChancenBörse, Phone, Clevertronic, Simpatico Tech, Electronic Trading B.V., Elytelecom, Online-Phones 24</t>
         </is>
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>Clevertronic, ApexY, gsm2go, Techlovers, PMO, COOLKK, Wave Phones, Elytelecom, U&amp;I, Electronic Trading B.V., Online-Phones 24, Tech Limited, LTDC SP. Z O.O., TopOne GmbH, CellShark, Bafobu, Tecnoutlet2020</t>
+          <t>Global Phones, Spicydeals, U&amp;I, Stellaris, J.TECH LTD, Nomo Phone, TopOne GmbH, COOLKK, UpCell, Bafobu, PMO, asgoodasnew electronics, Wave Phones, Tech Limited, Nest Green, Alloccaz, LTDC SP. Z O.O., CellShark, ChancenBörse, Phone, Clevertronic, Simpatico Tech, Electronic Trading B.V., Elytelecom, Online-Phones 24</t>
         </is>
       </c>
       <c r="G165" t="n">
-        <v>966.739433962264</v>
+        <v>983.0976271186441</v>
       </c>
       <c r="H165" t="n">
-        <v>966.739433962264</v>
+        <v>983.0976271186441</v>
       </c>
     </row>
     <row r="166">
@@ -5734,30 +5734,30 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>群青蓝</t>
+          <t>蓝绿色</t>
         </is>
       </c>
       <c r="C166" t="n">
-        <v>439</v>
+        <v>274</v>
       </c>
       <c r="D166" t="n">
-        <v>439</v>
+        <v>274</v>
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>Nest Green, UpCell, Global Phones, COOLKK, Nomo Phone, ChancenBörse, U&amp;I, Tech Limited, CellShark, PMO, Stellaris, TopOne GmbH, Alloccaz, Clevertronic, asgoodasnew electronics, Electronic Trading B.V., J.TECH LTD, Phone, Wave Phones, Elytelecom, Simpatico Tech, Online-Phones 24, LTDC SP. Z O.O., Spicydeals, Bafobu</t>
+          <t>gsm2go, Techlovers, TopOne GmbH, Wave Phones, Tech Limited, PMO, U&amp;I, Clevertronic, COOLKK, Bafobu, Electronic Trading B.V., Elytelecom, ApexY, Online-Phones 24, Tecnoutlet2020, LTDC SP. Z O.O., CellShark</t>
         </is>
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>Nest Green, UpCell, Global Phones, COOLKK, Nomo Phone, ChancenBörse, U&amp;I, Tech Limited, CellShark, PMO, Stellaris, TopOne GmbH, Alloccaz, Clevertronic, asgoodasnew electronics, Electronic Trading B.V., J.TECH LTD, Phone, Wave Phones, Elytelecom, Simpatico Tech, Online-Phones 24, LTDC SP. Z O.O., Spicydeals, Bafobu</t>
+          <t>gsm2go, Techlovers, TopOne GmbH, Wave Phones, Tech Limited, PMO, U&amp;I, Clevertronic, COOLKK, Bafobu, Electronic Trading B.V., Elytelecom, ApexY, Online-Phones 24, Tecnoutlet2020, LTDC SP. Z O.O., CellShark</t>
         </is>
       </c>
       <c r="G166" t="n">
-        <v>983.0976271186441</v>
+        <v>966.739433962264</v>
       </c>
       <c r="H166" t="n">
-        <v>983.0976271186441</v>
+        <v>966.739433962264</v>
       </c>
     </row>
     <row r="167">
@@ -5766,30 +5766,30 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>玫瑰色</t>
+          <t>黑色</t>
         </is>
       </c>
       <c r="C167" t="n">
-        <v>554</v>
+        <v>1115</v>
       </c>
       <c r="D167" t="n">
-        <v>554</v>
+        <v>1115</v>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>Nest Green, U&amp;I, Tech Limited, CellShark, PMO, Stellaris, TechBloom, Clevertronic, ApexY, smrtek, EC Epinal, GY Telecom, Electronic Trading B.V., SELL MY CELL EUROPE LIMITED, We Cell, Wave Phones, MCM CASH, Online-Phones 24, FOX ONLINE, LTDC SP. Z O.O., Bafobu</t>
+          <t>U&amp;I, FOX ONLINE, ApexY, J.TECH LTD, ReVibe Tech, Nomo Phone, TopOne GmbH, nuLAB Srl, COOLKK, Bafobu, CarreMobile, PMO, asgoodasnew electronics, Wave Phones, MG Trading, Nest Green, Cellular Tech, LTDC SP. Z O.O., We Cell, GY Telecom, CellShark, ChancenBörse, Clevertronic, Electronic Trading B.V., Online-Phones 24</t>
         </is>
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>Nest Green, U&amp;I, Tech Limited, CellShark, PMO, Stellaris, TechBloom, Clevertronic, ApexY, smrtek, EC Epinal, GY Telecom, Electronic Trading B.V., SELL MY CELL EUROPE LIMITED, We Cell, Wave Phones, MCM CASH, Online-Phones 24, FOX ONLINE, LTDC SP. Z O.O., Bafobu</t>
+          <t>U&amp;I, FOX ONLINE, ApexY, J.TECH LTD, ReVibe Tech, Nomo Phone, TopOne GmbH, nuLAB Srl, COOLKK, Bafobu, CarreMobile, PMO, asgoodasnew electronics, Wave Phones, MG Trading, Nest Green, Cellular Tech, LTDC SP. Z O.O., We Cell, GY Telecom, CellShark, ChancenBörse, Clevertronic, Electronic Trading B.V., Online-Phones 24</t>
         </is>
       </c>
       <c r="G167" t="n">
-        <v>976.8415584415585</v>
+        <v>912.4593055555556</v>
       </c>
       <c r="H167" t="n">
-        <v>976.8415584415585</v>
+        <v>912.4593055555556</v>
       </c>
     </row>
     <row r="168">
@@ -5798,30 +5798,30 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>黑色</t>
+          <t>白色</t>
         </is>
       </c>
       <c r="C168" t="n">
-        <v>1115</v>
+        <v>630</v>
       </c>
       <c r="D168" t="n">
-        <v>1115</v>
+        <v>623</v>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>Nest Green, COOLKK, Nomo Phone, U&amp;I, ChancenBörse, CellShark, Cellular Tech, ReVibe Tech, PMO, TopOne GmbH, nuLAB Srl, Clevertronic, ApexY, asgoodasnew electronics, GY Telecom, Electronic Trading B.V., MG Trading, J.TECH LTD, We Cell, Wave Phones, CarreMobile, Online-Phones 24, FOX ONLINE, LTDC SP. Z O.O., Bafobu</t>
+          <t>Global Phones, U&amp;I, Stellaris, J.TECH LTD, ApexY, ReVibe Tech, Nomo Phone, PEPTACOM S.R.L., TopOne GmbH, COOLKK, PerleTech, Bafobu, PMO, smrtek, Wave Phones, Tech Limited, LTDC SP. Z O.O., CellShark, ChancenBörse, Clevertronic, SELL MY CELL EUROPE LIMITED, Electronic Trading B.V., Online-Phones 24</t>
         </is>
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>Nest Green, COOLKK, Nomo Phone, U&amp;I, ChancenBörse, CellShark, Cellular Tech, ReVibe Tech, PMO, TopOne GmbH, nuLAB Srl, Clevertronic, ApexY, asgoodasnew electronics, GY Telecom, Electronic Trading B.V., MG Trading, J.TECH LTD, We Cell, Wave Phones, CarreMobile, Online-Phones 24, FOX ONLINE, LTDC SP. Z O.O., Bafobu</t>
+          <t>Global Phones, U&amp;I, Stellaris, J.TECH LTD, ApexY, ReVibe Tech, Nomo Phone, PEPTACOM S.R.L., TopOne GmbH, COOLKK, PerleTech, Bafobu, PMO, smrtek, Wave Phones, Tech Limited, LTDC SP. Z O.O., CellShark, ChancenBörse, Clevertronic, SELL MY CELL EUROPE LIMITED, Electronic Trading B.V., Online-Phones 24</t>
         </is>
       </c>
       <c r="G168" t="n">
-        <v>912.4593055555556</v>
+        <v>925.1275000000001</v>
       </c>
       <c r="H168" t="n">
-        <v>912.4593055555556</v>
+        <v>925.016388888889</v>
       </c>
     </row>
     <row r="169">
@@ -5830,30 +5830,30 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>白色</t>
+          <t>玫瑰色</t>
         </is>
       </c>
       <c r="C169" t="n">
-        <v>630</v>
+        <v>554</v>
       </c>
       <c r="D169" t="n">
-        <v>623</v>
+        <v>554</v>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>PerleTech, Global Phones, COOLKK, Nomo Phone, ChancenBörse, U&amp;I, Tech Limited, CellShark, ReVibe Tech, PMO, Stellaris, TopOne GmbH, Clevertronic, ApexY, smrtek, PEPTACOM S.R.L., Electronic Trading B.V., SELL MY CELL EUROPE LIMITED, J.TECH LTD, Wave Phones, Online-Phones 24, LTDC SP. Z O.O., Bafobu</t>
+          <t>U&amp;I, Stellaris, FOX ONLINE, ApexY, TechBloom, EC Epinal, Bafobu, PMO, smrtek, Wave Phones, Tech Limited, MCM CASH, Nest Green, LTDC SP. Z O.O., We Cell, GY Telecom, CellShark, Clevertronic, SELL MY CELL EUROPE LIMITED, Electronic Trading B.V., Online-Phones 24</t>
         </is>
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>PerleTech, Global Phones, COOLKK, Nomo Phone, ChancenBörse, U&amp;I, Tech Limited, CellShark, ReVibe Tech, PMO, Stellaris, TopOne GmbH, Clevertronic, ApexY, smrtek, PEPTACOM S.R.L., Electronic Trading B.V., SELL MY CELL EUROPE LIMITED, J.TECH LTD, Wave Phones, Online-Phones 24, LTDC SP. Z O.O., Bafobu</t>
+          <t>U&amp;I, Stellaris, FOX ONLINE, ApexY, TechBloom, EC Epinal, Bafobu, PMO, smrtek, Wave Phones, Tech Limited, MCM CASH, Nest Green, LTDC SP. Z O.O., We Cell, GY Telecom, CellShark, Clevertronic, SELL MY CELL EUROPE LIMITED, Electronic Trading B.V., Online-Phones 24</t>
         </is>
       </c>
       <c r="G169" t="n">
-        <v>925.1275000000001</v>
+        <v>976.8415584415585</v>
       </c>
       <c r="H169" t="n">
-        <v>925.016388888889</v>
+        <v>976.8415584415585</v>
       </c>
     </row>
     <row r="170">
@@ -5862,30 +5862,30 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>蓝绿色</t>
+          <t>群青蓝</t>
         </is>
       </c>
       <c r="C170" t="n">
-        <v>320</v>
+        <v>648</v>
       </c>
       <c r="D170" t="n">
-        <v>320</v>
+        <v>648</v>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>COOLKK, U&amp;I, Tech Limited, CellShark, ReVibe Tech, Techlovers, PMO, Stellaris, TopOne GmbH, TechBloom, Clevertronic, ApexY, gsm2go, smrtek, GY Telecom, Electronic Trading B.V., We Cell, Wave Phones, Elytelecom, Online-Phones 24, LTDC SP. Z O.O., Bafobu, Tecnoutlet2020</t>
+          <t>Global Phones, Spicydeals, U&amp;I, Stellaris, ApexY, J.TECH LTD, ReVibe Tech, Nomo Phone, TopOne GmbH, COOLKK, UpCell, Bafobu, PMO, asgoodasnew electronics, Wave Phones, Tech Limited, Nest Green, Alloccaz, LTDC SP. Z O.O., GY Telecom, CellShark, ChancenBörse, Phone, Clevertronic, SELL MY CELL EUROPE LIMITED, Simpatico Tech, Electronic Trading B.V., Online-Phones 24</t>
         </is>
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>COOLKK, U&amp;I, Tech Limited, CellShark, ReVibe Tech, Techlovers, PMO, Stellaris, TopOne GmbH, TechBloom, Clevertronic, ApexY, gsm2go, smrtek, GY Telecom, Electronic Trading B.V., We Cell, Wave Phones, Elytelecom, Online-Phones 24, LTDC SP. Z O.O., Bafobu, Tecnoutlet2020</t>
+          <t>Global Phones, Spicydeals, U&amp;I, Stellaris, ApexY, J.TECH LTD, ReVibe Tech, Nomo Phone, TopOne GmbH, COOLKK, UpCell, Bafobu, PMO, asgoodasnew electronics, Wave Phones, Tech Limited, Nest Green, Alloccaz, LTDC SP. Z O.O., GY Telecom, CellShark, ChancenBörse, Phone, Clevertronic, SELL MY CELL EUROPE LIMITED, Simpatico Tech, Electronic Trading B.V., Online-Phones 24</t>
         </is>
       </c>
       <c r="G170" t="n">
-        <v>949.7230303030301</v>
+        <v>965.4989610389611</v>
       </c>
       <c r="H170" t="n">
-        <v>949.7230303030301</v>
+        <v>965.4989610389611</v>
       </c>
     </row>
     <row r="171">
@@ -5894,30 +5894,30 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>群青蓝</t>
+          <t>蓝绿色</t>
         </is>
       </c>
       <c r="C171" t="n">
-        <v>648</v>
+        <v>320</v>
       </c>
       <c r="D171" t="n">
-        <v>648</v>
+        <v>320</v>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>Nest Green, UpCell, Global Phones, COOLKK, Nomo Phone, ChancenBörse, U&amp;I, Tech Limited, CellShark, ReVibe Tech, PMO, Stellaris, TopOne GmbH, Alloccaz, Clevertronic, ApexY, asgoodasnew electronics, GY Telecom, Electronic Trading B.V., SELL MY CELL EUROPE LIMITED, J.TECH LTD, Phone, Wave Phones, Simpatico Tech, Online-Phones 24, LTDC SP. Z O.O., Spicydeals, Bafobu</t>
+          <t>U&amp;I, Stellaris, ApexY, TechBloom, ReVibe Tech, TopOne GmbH, COOLKK, Tecnoutlet2020, Bafobu, PMO, smrtek, Wave Phones, Tech Limited, LTDC SP. Z O.O., GY Telecom, We Cell, CellShark, gsm2go, Clevertronic, Electronic Trading B.V., Elytelecom, Online-Phones 24, Techlovers</t>
         </is>
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>Nest Green, UpCell, Global Phones, COOLKK, Nomo Phone, ChancenBörse, U&amp;I, Tech Limited, CellShark, ReVibe Tech, PMO, Stellaris, TopOne GmbH, Alloccaz, Clevertronic, ApexY, asgoodasnew electronics, GY Telecom, Electronic Trading B.V., SELL MY CELL EUROPE LIMITED, J.TECH LTD, Phone, Wave Phones, Simpatico Tech, Online-Phones 24, LTDC SP. Z O.O., Spicydeals, Bafobu</t>
+          <t>U&amp;I, Stellaris, ApexY, TechBloom, ReVibe Tech, TopOne GmbH, COOLKK, Tecnoutlet2020, Bafobu, PMO, smrtek, Wave Phones, Tech Limited, LTDC SP. Z O.O., GY Telecom, We Cell, CellShark, gsm2go, Clevertronic, Electronic Trading B.V., Elytelecom, Online-Phones 24, Techlovers</t>
         </is>
       </c>
       <c r="G171" t="n">
-        <v>965.4989610389611</v>
+        <v>949.7230303030301</v>
       </c>
       <c r="H171" t="n">
-        <v>965.4989610389611</v>
+        <v>949.7230303030301</v>
       </c>
     </row>
   </sheetData>
@@ -6107,7 +6107,7 @@
         <v>2387</v>
       </c>
       <c r="C15" t="n">
-        <v>2465</v>
+        <v>2464</v>
       </c>
     </row>
     <row r="16">
